--- a/fuentes/contenidos/grado08/guion05/ESCALETA_CN_08_05_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion05/ESCALETA_CN_08_05_CO.xlsx
@@ -461,9 +461,6 @@
     <t>Mapa conceptual del tema La reproducción humana y la sexualidad</t>
   </si>
   <si>
-    <t>Actividad que permite evaluar los conocimientos de los estudiantes acerca del tema La reproducción humana y la sexualidad</t>
-  </si>
-  <si>
     <t>http://recursos.cnice.mec.es/biosfera/alumno/3ESO/apararep/anamasc.htm</t>
   </si>
   <si>
@@ -648,6 +645,9 @@
   </si>
   <si>
     <t>Actividad que permite conocer la técnica de fecundación in vitro</t>
+  </si>
+  <si>
+    <t>Evalúa tus conocimientos acerca del tema La reproducción humana y la sexualidad</t>
   </si>
 </sst>
 </file>
@@ -1399,42 +1399,42 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1708,7 +1708,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1718,8 +1718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView tabSelected="1" topLeftCell="D10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1747,94 +1747,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="71" t="s">
+      <c r="D1" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="71" t="s">
+      <c r="F1" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="71" t="s">
+      <c r="G1" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="71" t="s">
+      <c r="H1" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="71" t="s">
+      <c r="I1" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="71" t="s">
+      <c r="J1" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="77" t="s">
+      <c r="K1" s="83" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="75" t="s">
+      <c r="L1" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="74" t="s">
+      <c r="M1" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="74"/>
-      <c r="O1" s="71" t="s">
+      <c r="N1" s="79"/>
+      <c r="O1" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="71" t="s">
+      <c r="P1" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="71" t="s">
+      <c r="Q1" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="71" t="s">
+      <c r="R1" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="71" t="s">
+      <c r="S1" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="71" t="s">
+      <c r="T1" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="71" t="s">
+      <c r="U1" s="77" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="8" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="73"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="76"/>
+      <c r="A2" s="80"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="82"/>
       <c r="M2" s="11" t="s">
         <v>86</v>
       </c>
       <c r="N2" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="73"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
+      <c r="Q2" s="80"/>
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
     </row>
     <row r="3" spans="1:21" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
@@ -1863,7 +1863,7 @@
         <v>90</v>
       </c>
       <c r="J3" s="40" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K3" s="41" t="s">
         <v>70</v>
@@ -1920,7 +1920,7 @@
         <v>90</v>
       </c>
       <c r="J4" s="46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K4" s="17" t="s">
         <v>70</v>
@@ -1968,7 +1968,7 @@
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H5" s="16">
         <v>3</v>
@@ -1977,7 +1977,7 @@
         <v>91</v>
       </c>
       <c r="J5" s="46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K5" s="17" t="s">
         <v>70</v>
@@ -2025,7 +2025,7 @@
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H6" s="16">
         <v>4</v>
@@ -2034,7 +2034,7 @@
         <v>91</v>
       </c>
       <c r="J6" s="46" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K6" s="17" t="s">
         <v>70</v>
@@ -2105,19 +2105,19 @@
       <c r="P7" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="81" t="s">
+      <c r="Q7" s="71" t="s">
         <v>100</v>
       </c>
-      <c r="R7" s="82" t="s">
+      <c r="R7" s="72" t="s">
         <v>101</v>
       </c>
-      <c r="S7" s="82" t="s">
+      <c r="S7" s="72" t="s">
         <v>102</v>
       </c>
-      <c r="T7" s="82" t="s">
+      <c r="T7" s="72" t="s">
         <v>111</v>
       </c>
-      <c r="U7" s="83" t="s">
+      <c r="U7" s="73" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2139,7 +2139,7 @@
       </c>
       <c r="F8" s="48"/>
       <c r="G8" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H8" s="16">
         <v>6</v>
@@ -2148,7 +2148,7 @@
         <v>91</v>
       </c>
       <c r="J8" s="46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K8" s="17" t="s">
         <v>69</v>
@@ -2161,7 +2161,7 @@
       </c>
       <c r="N8" s="19"/>
       <c r="O8" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P8" s="51" t="s">
         <v>19</v>
@@ -2170,16 +2170,16 @@
         <v>6</v>
       </c>
       <c r="R8" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="S8" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="S8" s="23" t="s">
-        <v>166</v>
-      </c>
       <c r="T8" s="70" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:21" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H9" s="16">
         <v>7</v>
@@ -2209,7 +2209,7 @@
         <v>91</v>
       </c>
       <c r="J9" s="46" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K9" s="17" t="s">
         <v>69</v>
@@ -2229,16 +2229,16 @@
         <v>6</v>
       </c>
       <c r="R9" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="S9" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="S9" s="23" t="s">
+      <c r="T9" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="T9" s="70" t="s">
+      <c r="U9" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:21" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -2268,7 +2268,7 @@
         <v>90</v>
       </c>
       <c r="J10" s="46" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K10" s="17" t="s">
         <v>70</v>
@@ -2325,7 +2325,7 @@
         <v>91</v>
       </c>
       <c r="J11" s="46" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K11" s="17" t="s">
         <v>69</v>
@@ -2345,16 +2345,16 @@
         <v>6</v>
       </c>
       <c r="R11" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="S11" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="S11" s="23" t="s">
-        <v>166</v>
-      </c>
       <c r="T11" s="70" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:21" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -2375,7 +2375,7 @@
       </c>
       <c r="F12" s="14"/>
       <c r="G12" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H12" s="16">
         <v>10</v>
@@ -2384,7 +2384,7 @@
         <v>91</v>
       </c>
       <c r="J12" s="49" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K12" s="17" t="s">
         <v>70</v>
@@ -2439,7 +2439,7 @@
         <v>90</v>
       </c>
       <c r="J13" s="46" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K13" s="17" t="s">
         <v>70</v>
@@ -2496,7 +2496,7 @@
         <v>90</v>
       </c>
       <c r="J14" s="46" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K14" s="17" t="s">
         <v>70</v>
@@ -2544,7 +2544,7 @@
       </c>
       <c r="F15" s="14"/>
       <c r="G15" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H15" s="16">
         <v>13</v>
@@ -2553,7 +2553,7 @@
         <v>91</v>
       </c>
       <c r="J15" s="46" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K15" s="17" t="s">
         <v>70</v>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H16" s="16">
         <v>14</v>
@@ -2606,7 +2606,7 @@
         <v>91</v>
       </c>
       <c r="J16" s="46" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K16" s="17" t="s">
         <v>69</v>
@@ -2619,7 +2619,7 @@
       </c>
       <c r="N16" s="19"/>
       <c r="O16" s="20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P16" s="51" t="s">
         <v>19</v>
@@ -2628,16 +2628,16 @@
         <v>6</v>
       </c>
       <c r="R16" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="S16" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="S16" s="23" t="s">
-        <v>166</v>
-      </c>
       <c r="T16" s="70" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:21" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2667,7 +2667,7 @@
         <v>91</v>
       </c>
       <c r="J17" s="46" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K17" s="17" t="s">
         <v>70</v>
@@ -2715,7 +2715,7 @@
       </c>
       <c r="F18" s="14"/>
       <c r="G18" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H18" s="16">
         <v>16</v>
@@ -2724,7 +2724,7 @@
         <v>91</v>
       </c>
       <c r="J18" s="46" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K18" s="17" t="s">
         <v>70</v>
@@ -2781,7 +2781,7 @@
         <v>91</v>
       </c>
       <c r="J19" s="46" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K19" s="17" t="s">
         <v>70</v>
@@ -2795,19 +2795,19 @@
       <c r="P19" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="84" t="s">
+      <c r="Q19" s="74" t="s">
         <v>100</v>
       </c>
-      <c r="R19" s="85" t="s">
+      <c r="R19" s="75" t="s">
         <v>101</v>
       </c>
-      <c r="S19" s="85" t="s">
+      <c r="S19" s="75" t="s">
         <v>102</v>
       </c>
-      <c r="T19" s="85" t="s">
+      <c r="T19" s="75" t="s">
         <v>131</v>
       </c>
-      <c r="U19" s="86" t="s">
+      <c r="U19" s="76" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2886,7 +2886,7 @@
       </c>
       <c r="F21" s="14"/>
       <c r="G21" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H21" s="16">
         <v>19</v>
@@ -2895,7 +2895,7 @@
         <v>91</v>
       </c>
       <c r="J21" s="46" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K21" s="17" t="s">
         <v>70</v>
@@ -2909,19 +2909,19 @@
       <c r="P21" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="81" t="s">
+      <c r="Q21" s="71" t="s">
         <v>100</v>
       </c>
-      <c r="R21" s="82" t="s">
+      <c r="R21" s="72" t="s">
         <v>101</v>
       </c>
-      <c r="S21" s="82" t="s">
+      <c r="S21" s="72" t="s">
         <v>102</v>
       </c>
-      <c r="T21" s="82" t="s">
+      <c r="T21" s="72" t="s">
         <v>136</v>
       </c>
-      <c r="U21" s="83" t="s">
+      <c r="U21" s="73" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2941,7 +2941,7 @@
       <c r="E22" s="13"/>
       <c r="F22" s="14"/>
       <c r="G22" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H22" s="16">
         <v>20</v>
@@ -2950,7 +2950,7 @@
         <v>91</v>
       </c>
       <c r="J22" s="46" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K22" s="17" t="s">
         <v>69</v>
@@ -2963,7 +2963,7 @@
       </c>
       <c r="N22" s="19"/>
       <c r="O22" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="P22" s="51" t="s">
         <v>20</v>
@@ -2972,16 +2972,16 @@
         <v>6</v>
       </c>
       <c r="R22" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="S22" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="S22" s="23" t="s">
-        <v>166</v>
-      </c>
       <c r="T22" s="70" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:21" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3000,7 +3000,7 @@
       <c r="E23" s="13"/>
       <c r="F23" s="14"/>
       <c r="G23" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H23" s="16">
         <v>21</v>
@@ -3009,7 +3009,7 @@
         <v>91</v>
       </c>
       <c r="J23" s="46" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K23" s="17" t="s">
         <v>69</v>
@@ -3022,7 +3022,7 @@
       </c>
       <c r="N23" s="19"/>
       <c r="O23" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P23" s="51" t="s">
         <v>20</v>
@@ -3031,16 +3031,16 @@
         <v>6</v>
       </c>
       <c r="R23" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="S23" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="S23" s="23" t="s">
-        <v>166</v>
-      </c>
       <c r="T23" s="70" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:21" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -3082,19 +3082,19 @@
       <c r="P24" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="Q24" s="84" t="s">
+      <c r="Q24" s="74" t="s">
         <v>100</v>
       </c>
-      <c r="R24" s="85" t="s">
+      <c r="R24" s="75" t="s">
         <v>101</v>
       </c>
-      <c r="S24" s="85" t="s">
+      <c r="S24" s="75" t="s">
         <v>102</v>
       </c>
-      <c r="T24" s="85" t="s">
+      <c r="T24" s="75" t="s">
         <v>139</v>
       </c>
-      <c r="U24" s="86" t="s">
+      <c r="U24" s="76" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3253,7 +3253,7 @@
       <c r="T27" s="24"/>
       <c r="U27" s="27"/>
     </row>
-    <row r="28" spans="1:21" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
         <v>67</v>
       </c>
@@ -3278,7 +3278,7 @@
         <v>91</v>
       </c>
       <c r="J28" s="46" t="s">
-        <v>146</v>
+        <v>208</v>
       </c>
       <c r="K28" s="17" t="s">
         <v>69</v>
@@ -3298,20 +3298,25 @@
         <v>6</v>
       </c>
       <c r="R28" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="S28" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="S28" s="23" t="s">
-        <v>166</v>
-      </c>
       <c r="T28" s="70" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="M1:N1"/>
@@ -3327,11 +3332,6 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4046,40 +4046,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="71" t="s">
+      <c r="D1" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="71" t="s">
+      <c r="F1" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="79" t="s">
+      <c r="G1" s="85" t="s">
         <v>95</v>
       </c>
-      <c r="H1" s="71" t="s">
+      <c r="H1" s="77" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="73"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="73"/>
+      <c r="A2" s="80"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="80"/>
     </row>
     <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="61" t="s">
@@ -4099,10 +4099,10 @@
       </c>
       <c r="F3" s="62"/>
       <c r="G3" s="63" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H3" s="64" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4123,10 +4123,10 @@
       </c>
       <c r="F4" s="29"/>
       <c r="G4" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="H4" s="65" t="s">
         <v>148</v>
-      </c>
-      <c r="H4" s="65" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4147,10 +4147,10 @@
       </c>
       <c r="F5" s="29"/>
       <c r="G5" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="H5" s="65" t="s">
         <v>150</v>
-      </c>
-      <c r="H5" s="65" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4171,10 +4171,10 @@
       </c>
       <c r="F6" s="29"/>
       <c r="G6" s="30" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H6" s="65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4195,10 +4195,10 @@
       </c>
       <c r="F7" s="29"/>
       <c r="G7" s="30" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H7" s="65" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4219,10 +4219,10 @@
       </c>
       <c r="F8" s="29"/>
       <c r="G8" s="30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H8" s="65" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4243,10 +4243,10 @@
       </c>
       <c r="F9" s="29"/>
       <c r="G9" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="H9" s="65" t="s">
         <v>153</v>
-      </c>
-      <c r="H9" s="65" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4267,10 +4267,10 @@
       </c>
       <c r="F10" s="29"/>
       <c r="G10" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="H10" s="65" t="s">
         <v>155</v>
-      </c>
-      <c r="H10" s="65" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4289,10 +4289,10 @@
       <c r="E11" s="29"/>
       <c r="F11" s="29"/>
       <c r="G11" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H11" s="65" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -4311,10 +4311,10 @@
       <c r="E12" s="29"/>
       <c r="F12" s="29"/>
       <c r="G12" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="H12" s="65" t="s">
         <v>158</v>
-      </c>
-      <c r="H12" s="65" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4335,10 +4335,10 @@
       </c>
       <c r="F13" s="29"/>
       <c r="G13" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="H13" s="65" t="s">
         <v>160</v>
-      </c>
-      <c r="H13" s="65" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4359,10 +4359,10 @@
       </c>
       <c r="F14" s="29"/>
       <c r="G14" s="30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H14" s="65" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4383,10 +4383,10 @@
       </c>
       <c r="F15" s="29"/>
       <c r="G15" s="30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H15" s="65" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4405,10 +4405,10 @@
       <c r="E16" s="67"/>
       <c r="F16" s="67"/>
       <c r="G16" s="68" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H16" s="69" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/fuentes/contenidos/grado08/guion05/ESCALETA_CN_08_05_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion05/ESCALETA_CN_08_05_CO.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="213">
   <si>
     <t>Asignatura</t>
   </si>
@@ -572,12 +572,6 @@
     <t>Actividad para reforzar lo aprendido sobre la reproducción en la especie humana</t>
   </si>
   <si>
-    <t>¿Qué sabes sobre la sexualidad humana?</t>
-  </si>
-  <si>
-    <t>Demuestra lo que sabes sobre la reproducción en los seres humanos</t>
-  </si>
-  <si>
     <t xml:space="preserve">Refuerza tu aprendizaje: la fecundación y el embarazo </t>
   </si>
   <si>
@@ -648,6 +642,24 @@
   </si>
   <si>
     <t>Evalúa tus conocimientos acerca del tema La reproducción humana y la sexualidad</t>
+  </si>
+  <si>
+    <t>Competencias: ¿qué sabes sobre la sexualidad humana?</t>
+  </si>
+  <si>
+    <t>Competencias: demuestra lo que sabes sobre la reproducción en los seres humanos</t>
+  </si>
+  <si>
+    <t>Preguntas varias sobre espermatogénesis y ovogénesis</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: ¿qué sabes sobre la gametogénesis?</t>
+  </si>
+  <si>
+    <t>Actividad acerca de la formación de gametos</t>
+  </si>
+  <si>
+    <t>Recurso M101A-02</t>
   </si>
 </sst>
 </file>
@@ -1213,7 +1225,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1258,9 +1270,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1398,23 +1407,33 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1708,7 +1727,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1716,10 +1735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U28"/>
+  <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="K2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1747,163 +1766,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="77" t="s">
+      <c r="C1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="77" t="s">
+      <c r="D1" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="77" t="s">
+      <c r="E1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="77" t="s">
+      <c r="F1" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="77" t="s">
+      <c r="G1" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="77" t="s">
+      <c r="H1" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="77" t="s">
+      <c r="I1" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="77" t="s">
+      <c r="J1" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="83" t="s">
+      <c r="K1" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="81" t="s">
+      <c r="L1" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="79" t="s">
+      <c r="M1" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="79"/>
-      <c r="O1" s="77" t="s">
+      <c r="N1" s="89"/>
+      <c r="O1" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="77" t="s">
+      <c r="P1" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="77" t="s">
+      <c r="Q1" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="77" t="s">
+      <c r="R1" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="77" t="s">
+      <c r="S1" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="77" t="s">
+      <c r="T1" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="77" t="s">
+      <c r="U1" s="86" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="8" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="80"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="82"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="91"/>
       <c r="M2" s="11" t="s">
         <v>86</v>
       </c>
       <c r="N2" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="O2" s="78"/>
-      <c r="P2" s="78"/>
-      <c r="Q2" s="80"/>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="80"/>
-    </row>
-    <row r="3" spans="1:21" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="88"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="88"/>
+      <c r="T2" s="88"/>
+      <c r="U2" s="88"/>
+    </row>
+    <row r="3" spans="1:21" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="38" t="s">
+      <c r="F3" s="36"/>
+      <c r="G3" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="H3" s="39">
+      <c r="H3" s="38">
         <v>1</v>
       </c>
-      <c r="I3" s="39" t="s">
+      <c r="I3" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="J3" s="40" t="s">
-        <v>192</v>
-      </c>
-      <c r="K3" s="41" t="s">
+      <c r="J3" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="K3" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="L3" s="42" t="s">
+      <c r="L3" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="50" t="s">
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="54" t="s">
+      <c r="Q3" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="R3" s="55" t="s">
+      <c r="R3" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="S3" s="55" t="s">
+      <c r="S3" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="T3" s="55" t="s">
+      <c r="T3" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="U3" s="56" t="s">
+      <c r="U3" s="55" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+    <row r="4" spans="1:21" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="D4" s="44" t="s">
         <v>98</v>
       </c>
       <c r="E4" s="13" t="s">
@@ -1919,8 +1938,8 @@
       <c r="I4" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="J4" s="46" t="s">
-        <v>193</v>
+      <c r="J4" s="45" t="s">
+        <v>191</v>
       </c>
       <c r="K4" s="17" t="s">
         <v>70</v>
@@ -1930,37 +1949,37 @@
       </c>
       <c r="M4" s="19"/>
       <c r="N4" s="19"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="51" t="s">
+      <c r="O4" s="18"/>
+      <c r="P4" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="57" t="s">
+      <c r="Q4" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="R4" s="52" t="s">
+      <c r="R4" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="S4" s="52" t="s">
+      <c r="S4" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="T4" s="52" t="s">
+      <c r="T4" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="U4" s="58" t="s">
+      <c r="U4" s="57" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+    <row r="5" spans="1:21" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="44" t="s">
         <v>98</v>
       </c>
       <c r="E5" s="13" t="s">
@@ -1976,8 +1995,8 @@
       <c r="I5" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="J5" s="46" t="s">
-        <v>194</v>
+      <c r="J5" s="45" t="s">
+        <v>192</v>
       </c>
       <c r="K5" s="17" t="s">
         <v>70</v>
@@ -1987,37 +2006,37 @@
       </c>
       <c r="M5" s="19"/>
       <c r="N5" s="19"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="51" t="s">
+      <c r="O5" s="18"/>
+      <c r="P5" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="25" t="s">
+      <c r="Q5" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="R5" s="23" t="s">
+      <c r="R5" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="S5" s="23" t="s">
+      <c r="S5" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="T5" s="23" t="s">
+      <c r="T5" s="22" t="s">
         <v>105</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+    <row r="6" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="44" t="s">
         <v>98</v>
       </c>
       <c r="E6" s="13" t="s">
@@ -2033,8 +2052,8 @@
       <c r="I6" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="J6" s="46" t="s">
-        <v>191</v>
+      <c r="J6" s="45" t="s">
+        <v>189</v>
       </c>
       <c r="K6" s="17" t="s">
         <v>70</v>
@@ -2044,37 +2063,37 @@
       </c>
       <c r="M6" s="19"/>
       <c r="N6" s="19"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="51" t="s">
+      <c r="O6" s="18"/>
+      <c r="P6" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="59" t="s">
+      <c r="Q6" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="R6" s="53" t="s">
+      <c r="R6" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="S6" s="53" t="s">
+      <c r="S6" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="T6" s="53" t="s">
+      <c r="T6" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="U6" s="60" t="s">
+      <c r="U6" s="59" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
+    <row r="7" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="D7" s="45" t="s">
+      <c r="D7" s="44" t="s">
         <v>107</v>
       </c>
       <c r="E7" s="13" t="s">
@@ -2090,7 +2109,7 @@
       <c r="I7" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="J7" s="46" t="s">
+      <c r="J7" s="45" t="s">
         <v>110</v>
       </c>
       <c r="K7" s="17" t="s">
@@ -2101,43 +2120,43 @@
       </c>
       <c r="M7" s="19"/>
       <c r="N7" s="19"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="51" t="s">
+      <c r="O7" s="18"/>
+      <c r="P7" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="71" t="s">
+      <c r="Q7" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="R7" s="72" t="s">
+      <c r="R7" s="70" t="s">
         <v>101</v>
       </c>
-      <c r="S7" s="72" t="s">
+      <c r="S7" s="70" t="s">
         <v>102</v>
       </c>
-      <c r="T7" s="72" t="s">
+      <c r="T7" s="70" t="s">
         <v>111</v>
       </c>
-      <c r="U7" s="73" t="s">
+      <c r="U7" s="71" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
+    <row r="8" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="D8" s="45" t="s">
+      <c r="D8" s="44" t="s">
         <v>107</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="F8" s="48"/>
+      <c r="F8" s="47"/>
       <c r="G8" s="15" t="s">
         <v>173</v>
       </c>
@@ -2147,8 +2166,8 @@
       <c r="I8" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="J8" s="46" t="s">
-        <v>188</v>
+      <c r="J8" s="45" t="s">
+        <v>186</v>
       </c>
       <c r="K8" s="17" t="s">
         <v>69</v>
@@ -2157,50 +2176,50 @@
         <v>32</v>
       </c>
       <c r="M8" s="19" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="N8" s="19"/>
-      <c r="O8" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="P8" s="51" t="s">
+      <c r="O8" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="P8" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="25">
+      <c r="Q8" s="69">
         <v>6</v>
       </c>
-      <c r="R8" s="23" t="s">
+      <c r="R8" s="70" t="s">
         <v>164</v>
       </c>
-      <c r="S8" s="23" t="s">
+      <c r="S8" s="70" t="s">
         <v>165</v>
       </c>
       <c r="T8" s="70" t="s">
-        <v>203</v>
-      </c>
-      <c r="U8" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="U8" s="71" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+    <row r="9" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="D9" s="45" t="s">
+      <c r="D9" s="44" t="s">
         <v>107</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="14"/>
+      <c r="F9" s="47"/>
       <c r="G9" s="15" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="H9" s="16">
         <v>7</v>
@@ -2208,8 +2227,8 @@
       <c r="I9" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="J9" s="46" t="s">
-        <v>190</v>
+      <c r="J9" s="45" t="s">
+        <v>211</v>
       </c>
       <c r="K9" s="17" t="s">
         <v>69</v>
@@ -2218,164 +2237,166 @@
         <v>32</v>
       </c>
       <c r="M9" s="19" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="N9" s="19"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="51" t="s">
+      <c r="O9" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="P9" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="Q9" s="25">
+      <c r="Q9" s="72">
         <v>6</v>
       </c>
-      <c r="R9" s="23" t="s">
+      <c r="R9" s="73" t="s">
         <v>164</v>
       </c>
-      <c r="S9" s="23" t="s">
+      <c r="S9" s="73" t="s">
         <v>165</v>
       </c>
-      <c r="T9" s="70" t="s">
-        <v>166</v>
-      </c>
-      <c r="U9" s="1" t="s">
+      <c r="T9" s="74" t="s">
+        <v>201</v>
+      </c>
+      <c r="U9" s="75" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
+    <row r="10" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="E10" s="47" t="s">
-        <v>113</v>
-      </c>
-      <c r="F10" s="48"/>
+      <c r="D10" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" s="14"/>
       <c r="G10" s="15" t="s">
-        <v>114</v>
+        <v>187</v>
       </c>
       <c r="H10" s="16">
         <v>8</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="J10" s="46" t="s">
-        <v>204</v>
+        <v>91</v>
+      </c>
+      <c r="J10" s="45" t="s">
+        <v>188</v>
       </c>
       <c r="K10" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L10" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="M10" s="19"/>
+        <v>32</v>
+      </c>
+      <c r="M10" s="19" t="s">
+        <v>60</v>
+      </c>
       <c r="N10" s="19"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="51" t="s">
+      <c r="O10" s="18"/>
+      <c r="P10" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="R10" s="53" t="s">
-        <v>101</v>
-      </c>
-      <c r="S10" s="53" t="s">
-        <v>102</v>
-      </c>
-      <c r="T10" s="53" t="s">
-        <v>114</v>
-      </c>
-      <c r="U10" s="60" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="33" t="s">
+      <c r="Q10" s="72">
+        <v>6</v>
+      </c>
+      <c r="R10" s="73" t="s">
+        <v>164</v>
+      </c>
+      <c r="S10" s="73" t="s">
+        <v>165</v>
+      </c>
+      <c r="T10" s="74" t="s">
+        <v>166</v>
+      </c>
+      <c r="U10" s="75" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="30" t="s">
         <v>97</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="E11" s="47" t="s">
+      <c r="E11" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="F11" s="14"/>
+      <c r="F11" s="47"/>
       <c r="G11" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H11" s="16">
         <v>9</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="J11" s="46" t="s">
-        <v>205</v>
+        <v>90</v>
+      </c>
+      <c r="J11" s="45" t="s">
+        <v>202</v>
       </c>
       <c r="K11" s="17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L11" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="M11" s="19" t="s">
-        <v>24</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="M11" s="19"/>
       <c r="N11" s="19"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="51" t="s">
+      <c r="O11" s="18"/>
+      <c r="P11" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="25">
-        <v>6</v>
-      </c>
-      <c r="R11" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="S11" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="T11" s="70" t="s">
-        <v>168</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="s">
+      <c r="Q11" s="76" t="s">
+        <v>100</v>
+      </c>
+      <c r="R11" s="77" t="s">
+        <v>101</v>
+      </c>
+      <c r="S11" s="77" t="s">
+        <v>102</v>
+      </c>
+      <c r="T11" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="U11" s="78" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="30" t="s">
         <v>97</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="E12" s="13" t="s">
-        <v>92</v>
+      <c r="E12" s="46" t="s">
+        <v>113</v>
       </c>
       <c r="F12" s="14"/>
       <c r="G12" s="15" t="s">
-        <v>172</v>
+        <v>115</v>
       </c>
       <c r="H12" s="16">
         <v>10</v>
@@ -2383,62 +2404,66 @@
       <c r="I12" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="J12" s="49" t="s">
-        <v>197</v>
+      <c r="J12" s="45" t="s">
+        <v>203</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L12" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="M12" s="19"/>
+      <c r="M12" s="19" t="s">
+        <v>24</v>
+      </c>
       <c r="N12" s="19"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="51" t="s">
+      <c r="O12" s="18"/>
+      <c r="P12" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="R12" s="53" t="s">
-        <v>101</v>
-      </c>
-      <c r="S12" s="53" t="s">
-        <v>102</v>
-      </c>
-      <c r="T12" s="53" t="s">
-        <v>116</v>
-      </c>
-      <c r="U12" s="60" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="33" t="s">
+      <c r="Q12" s="72">
+        <v>6</v>
+      </c>
+      <c r="R12" s="73" t="s">
+        <v>164</v>
+      </c>
+      <c r="S12" s="73" t="s">
+        <v>165</v>
+      </c>
+      <c r="T12" s="74" t="s">
+        <v>168</v>
+      </c>
+      <c r="U12" s="75" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="30" t="s">
         <v>97</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="E13" s="13"/>
+        <v>112</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>92</v>
+      </c>
       <c r="F13" s="14"/>
       <c r="G13" s="15" t="s">
-        <v>118</v>
+        <v>172</v>
       </c>
       <c r="H13" s="16">
         <v>11</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="J13" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="J13" s="48" t="s">
         <v>195</v>
       </c>
       <c r="K13" s="17" t="s">
@@ -2449,45 +2474,43 @@
       </c>
       <c r="M13" s="19"/>
       <c r="N13" s="19"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="51" t="s">
+      <c r="O13" s="18"/>
+      <c r="P13" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="Q13" s="59" t="s">
+      <c r="Q13" s="76" t="s">
         <v>100</v>
       </c>
-      <c r="R13" s="53" t="s">
+      <c r="R13" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="S13" s="53" t="s">
+      <c r="S13" s="77" t="s">
         <v>102</v>
       </c>
-      <c r="T13" s="53" t="s">
-        <v>119</v>
-      </c>
-      <c r="U13" s="60" t="s">
+      <c r="T13" s="77" t="s">
+        <v>116</v>
+      </c>
+      <c r="U13" s="78" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="s">
+    <row r="14" spans="1:21" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="30" t="s">
         <v>97</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="E14" s="13" t="s">
-        <v>120</v>
-      </c>
+      <c r="E14" s="13"/>
       <c r="F14" s="14"/>
       <c r="G14" s="15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H14" s="16">
         <v>12</v>
@@ -2495,98 +2518,102 @@
       <c r="I14" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="J14" s="46" t="s">
-        <v>196</v>
+      <c r="J14" s="45" t="s">
+        <v>193</v>
       </c>
       <c r="K14" s="17" t="s">
         <v>70</v>
       </c>
       <c r="L14" s="18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M14" s="19"/>
       <c r="N14" s="19"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="51" t="s">
+      <c r="O14" s="18"/>
+      <c r="P14" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="59" t="s">
+      <c r="Q14" s="76" t="s">
         <v>100</v>
       </c>
-      <c r="R14" s="53" t="s">
+      <c r="R14" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="S14" s="53" t="s">
+      <c r="S14" s="77" t="s">
         <v>102</v>
       </c>
-      <c r="T14" s="53" t="s">
-        <v>122</v>
-      </c>
-      <c r="U14" s="60" t="s">
+      <c r="T14" s="77" t="s">
+        <v>119</v>
+      </c>
+      <c r="U14" s="78" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="33" t="s">
+    <row r="15" spans="1:21" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="30" t="s">
         <v>97</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>117</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="F15" s="14"/>
       <c r="G15" s="15" t="s">
-        <v>174</v>
+        <v>121</v>
       </c>
       <c r="H15" s="16">
         <v>13</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="J15" s="46" t="s">
-        <v>206</v>
+        <v>90</v>
+      </c>
+      <c r="J15" s="45" t="s">
+        <v>194</v>
       </c>
       <c r="K15" s="17" t="s">
         <v>70</v>
       </c>
       <c r="L15" s="18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M15" s="19"/>
       <c r="N15" s="19"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="51" t="s">
+      <c r="O15" s="18"/>
+      <c r="P15" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="59" t="s">
+      <c r="Q15" s="76" t="s">
         <v>100</v>
       </c>
-      <c r="R15" s="53" t="s">
+      <c r="R15" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="S15" s="53" t="s">
+      <c r="S15" s="77" t="s">
         <v>102</v>
       </c>
-      <c r="T15" s="53" t="s">
-        <v>123</v>
-      </c>
-      <c r="U15" s="60" t="s">
+      <c r="T15" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="U15" s="78" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="31" t="s">
+    <row r="16" spans="1:21" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="30" t="s">
         <v>97</v>
       </c>
       <c r="D16" s="12" t="s">
@@ -2597,7 +2624,7 @@
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="15" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="H16" s="16">
         <v>14</v>
@@ -2605,60 +2632,56 @@
       <c r="I16" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="J16" s="46" t="s">
-        <v>186</v>
+      <c r="J16" s="45" t="s">
+        <v>204</v>
       </c>
       <c r="K16" s="17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L16" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="M16" s="19" t="s">
-        <v>60</v>
-      </c>
+      <c r="M16" s="19"/>
       <c r="N16" s="19"/>
-      <c r="O16" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="P16" s="51" t="s">
+      <c r="O16" s="18"/>
+      <c r="P16" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="Q16" s="25">
-        <v>6</v>
-      </c>
-      <c r="R16" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="S16" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="T16" s="70" t="s">
-        <v>187</v>
-      </c>
-      <c r="U16" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="33" t="s">
+      <c r="Q16" s="76" t="s">
+        <v>100</v>
+      </c>
+      <c r="R16" s="77" t="s">
+        <v>101</v>
+      </c>
+      <c r="S16" s="77" t="s">
+        <v>102</v>
+      </c>
+      <c r="T16" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="U16" s="78" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="30" t="s">
         <v>97</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="15" t="s">
-        <v>125</v>
+        <v>183</v>
       </c>
       <c r="H17" s="16">
         <v>15</v>
@@ -2666,56 +2689,60 @@
       <c r="I17" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="J17" s="46" t="s">
-        <v>207</v>
+      <c r="J17" s="45" t="s">
+        <v>184</v>
       </c>
       <c r="K17" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L17" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="M17" s="19"/>
+      <c r="M17" s="19" t="s">
+        <v>60</v>
+      </c>
       <c r="N17" s="19"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="51" t="s">
+      <c r="O17" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="P17" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="R17" s="53" t="s">
-        <v>101</v>
-      </c>
-      <c r="S17" s="53" t="s">
-        <v>102</v>
-      </c>
-      <c r="T17" s="53" t="s">
-        <v>126</v>
-      </c>
-      <c r="U17" s="60" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="33" t="s">
+      <c r="Q17" s="72">
+        <v>6</v>
+      </c>
+      <c r="R17" s="73" t="s">
+        <v>164</v>
+      </c>
+      <c r="S17" s="73" t="s">
+        <v>165</v>
+      </c>
+      <c r="T17" s="74" t="s">
+        <v>185</v>
+      </c>
+      <c r="U17" s="75" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="30" t="s">
         <v>97</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>124</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="F18" s="14"/>
       <c r="G18" s="15" t="s">
-        <v>175</v>
+        <v>125</v>
       </c>
       <c r="H18" s="16">
         <v>16</v>
@@ -2723,8 +2750,8 @@
       <c r="I18" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="J18" s="46" t="s">
-        <v>198</v>
+      <c r="J18" s="45" t="s">
+        <v>205</v>
       </c>
       <c r="K18" s="17" t="s">
         <v>70</v>
@@ -2734,45 +2761,45 @@
       </c>
       <c r="M18" s="19"/>
       <c r="N18" s="19"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="51" t="s">
+      <c r="O18" s="18"/>
+      <c r="P18" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="Q18" s="59" t="s">
+      <c r="Q18" s="76" t="s">
         <v>100</v>
       </c>
-      <c r="R18" s="53" t="s">
+      <c r="R18" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="S18" s="53" t="s">
+      <c r="S18" s="77" t="s">
         <v>102</v>
       </c>
-      <c r="T18" s="53" t="s">
-        <v>127</v>
-      </c>
-      <c r="U18" s="60" t="s">
+      <c r="T18" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="U18" s="78" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="33" t="s">
+    <row r="19" spans="1:21" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="30" t="s">
         <v>97</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="15" t="s">
-        <v>130</v>
+        <v>175</v>
       </c>
       <c r="H19" s="16">
         <v>17</v>
@@ -2780,65 +2807,65 @@
       <c r="I19" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="J19" s="46" t="s">
-        <v>199</v>
+      <c r="J19" s="45" t="s">
+        <v>196</v>
       </c>
       <c r="K19" s="17" t="s">
         <v>70</v>
       </c>
       <c r="L19" s="18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M19" s="19"/>
       <c r="N19" s="19"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="51" t="s">
+      <c r="O19" s="18"/>
+      <c r="P19" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="74" t="s">
+      <c r="Q19" s="76" t="s">
         <v>100</v>
       </c>
-      <c r="R19" s="75" t="s">
+      <c r="R19" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="S19" s="75" t="s">
+      <c r="S19" s="77" t="s">
         <v>102</v>
       </c>
-      <c r="T19" s="75" t="s">
-        <v>131</v>
-      </c>
-      <c r="U19" s="76" t="s">
+      <c r="T19" s="77" t="s">
+        <v>127</v>
+      </c>
+      <c r="U19" s="78" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="33" t="s">
+    <row r="20" spans="1:21" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="30" t="s">
         <v>97</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>128</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="15" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H20" s="16">
         <v>18</v>
       </c>
       <c r="I20" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="J20" s="46" t="s">
-        <v>134</v>
+        <v>91</v>
+      </c>
+      <c r="J20" s="45" t="s">
+        <v>197</v>
       </c>
       <c r="K20" s="17" t="s">
         <v>70</v>
@@ -2848,100 +2875,102 @@
       </c>
       <c r="M20" s="19"/>
       <c r="N20" s="19"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="51" t="s">
+      <c r="O20" s="18"/>
+      <c r="P20" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="59" t="s">
+      <c r="Q20" s="79" t="s">
         <v>100</v>
       </c>
-      <c r="R20" s="53" t="s">
+      <c r="R20" s="80" t="s">
         <v>101</v>
       </c>
-      <c r="S20" s="53" t="s">
+      <c r="S20" s="80" t="s">
         <v>102</v>
       </c>
-      <c r="T20" s="53" t="s">
-        <v>135</v>
-      </c>
-      <c r="U20" s="60" t="s">
+      <c r="T20" s="80" t="s">
+        <v>131</v>
+      </c>
+      <c r="U20" s="81" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="33" t="s">
+    <row r="21" spans="1:21" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="30" t="s">
         <v>97</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>128</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="F21" s="14"/>
       <c r="G21" s="15" t="s">
-        <v>176</v>
+        <v>133</v>
       </c>
       <c r="H21" s="16">
         <v>19</v>
       </c>
       <c r="I21" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="J21" s="46" t="s">
-        <v>200</v>
+        <v>90</v>
+      </c>
+      <c r="J21" s="45" t="s">
+        <v>134</v>
       </c>
       <c r="K21" s="17" t="s">
         <v>70</v>
       </c>
       <c r="L21" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M21" s="19"/>
       <c r="N21" s="19"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="51" t="s">
+      <c r="O21" s="18"/>
+      <c r="P21" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="71" t="s">
+      <c r="Q21" s="76" t="s">
         <v>100</v>
       </c>
-      <c r="R21" s="72" t="s">
+      <c r="R21" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="S21" s="72" t="s">
+      <c r="S21" s="77" t="s">
         <v>102</v>
       </c>
-      <c r="T21" s="72" t="s">
-        <v>136</v>
-      </c>
-      <c r="U21" s="73" t="s">
+      <c r="T21" s="77" t="s">
+        <v>135</v>
+      </c>
+      <c r="U21" s="78" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="33" t="s">
+    <row r="22" spans="1:21" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="30" t="s">
         <v>97</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="E22" s="13"/>
+        <v>128</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>92</v>
+      </c>
       <c r="F22" s="14"/>
       <c r="G22" s="15" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="H22" s="16">
         <v>20</v>
@@ -2949,49 +2978,45 @@
       <c r="I22" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="J22" s="46" t="s">
-        <v>178</v>
+      <c r="J22" s="45" t="s">
+        <v>198</v>
       </c>
       <c r="K22" s="17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L22" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="M22" s="19" t="s">
-        <v>62</v>
-      </c>
+      <c r="M22" s="19"/>
       <c r="N22" s="19"/>
-      <c r="O22" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="P22" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q22" s="25">
-        <v>6</v>
-      </c>
-      <c r="R22" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="S22" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="T22" s="70" t="s">
-        <v>179</v>
-      </c>
-      <c r="U22" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="33" t="s">
+      <c r="O22" s="18"/>
+      <c r="P22" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q22" s="82" t="s">
+        <v>100</v>
+      </c>
+      <c r="R22" s="83" t="s">
+        <v>101</v>
+      </c>
+      <c r="S22" s="83" t="s">
+        <v>102</v>
+      </c>
+      <c r="T22" s="83" t="s">
+        <v>136</v>
+      </c>
+      <c r="U22" s="84" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="30" t="s">
         <v>97</v>
       </c>
       <c r="D23" s="12" t="s">
@@ -3000,7 +3025,7 @@
       <c r="E23" s="13"/>
       <c r="F23" s="14"/>
       <c r="G23" s="15" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="H23" s="16">
         <v>21</v>
@@ -3008,8 +3033,8 @@
       <c r="I23" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="J23" s="46" t="s">
-        <v>182</v>
+      <c r="J23" s="45" t="s">
+        <v>178</v>
       </c>
       <c r="K23" s="17" t="s">
         <v>69</v>
@@ -3018,39 +3043,39 @@
         <v>32</v>
       </c>
       <c r="M23" s="19" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="N23" s="19"/>
-      <c r="O23" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="P23" s="51" t="s">
+      <c r="O23" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="P23" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="Q23" s="25">
+      <c r="Q23" s="72">
         <v>6</v>
       </c>
-      <c r="R23" s="23" t="s">
+      <c r="R23" s="73" t="s">
         <v>164</v>
       </c>
-      <c r="S23" s="23" t="s">
+      <c r="S23" s="73" t="s">
         <v>165</v>
       </c>
-      <c r="T23" s="70" t="s">
-        <v>181</v>
-      </c>
-      <c r="U23" s="1" t="s">
+      <c r="T23" s="74" t="s">
+        <v>212</v>
+      </c>
+      <c r="U23" s="75" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="33" t="s">
+    <row r="24" spans="1:21" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="44" t="s">
+      <c r="B24" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="C24" s="30" t="s">
         <v>97</v>
       </c>
       <c r="D24" s="12" t="s">
@@ -3059,7 +3084,7 @@
       <c r="E24" s="13"/>
       <c r="F24" s="14"/>
       <c r="G24" s="15" t="s">
-        <v>139</v>
+        <v>208</v>
       </c>
       <c r="H24" s="16">
         <v>22</v>
@@ -3067,45 +3092,49 @@
       <c r="I24" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="J24" s="46" t="s">
-        <v>138</v>
+      <c r="J24" s="45" t="s">
+        <v>182</v>
       </c>
       <c r="K24" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L24" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="M24" s="19"/>
+      <c r="M24" s="19" t="s">
+        <v>23</v>
+      </c>
       <c r="N24" s="19"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="74" t="s">
-        <v>100</v>
-      </c>
-      <c r="R24" s="75" t="s">
-        <v>101</v>
-      </c>
-      <c r="S24" s="75" t="s">
-        <v>102</v>
-      </c>
-      <c r="T24" s="75" t="s">
-        <v>139</v>
-      </c>
-      <c r="U24" s="76" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="33" t="s">
+      <c r="O24" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="P24" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q24" s="72">
+        <v>6</v>
+      </c>
+      <c r="R24" s="73" t="s">
+        <v>164</v>
+      </c>
+      <c r="S24" s="73" t="s">
+        <v>165</v>
+      </c>
+      <c r="T24" s="74" t="s">
+        <v>181</v>
+      </c>
+      <c r="U24" s="75" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="C25" s="30" t="s">
         <v>97</v>
       </c>
       <c r="D25" s="12" t="s">
@@ -3114,7 +3143,7 @@
       <c r="E25" s="13"/>
       <c r="F25" s="14"/>
       <c r="G25" s="15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H25" s="16">
         <v>23</v>
@@ -3122,8 +3151,8 @@
       <c r="I25" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="J25" s="46" t="s">
-        <v>140</v>
+      <c r="J25" s="45" t="s">
+        <v>138</v>
       </c>
       <c r="K25" s="17" t="s">
         <v>70</v>
@@ -3133,34 +3162,34 @@
       </c>
       <c r="M25" s="19"/>
       <c r="N25" s="19"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="51" t="s">
+      <c r="O25" s="18"/>
+      <c r="P25" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="Q25" s="59" t="s">
+      <c r="Q25" s="79" t="s">
         <v>100</v>
       </c>
-      <c r="R25" s="53" t="s">
+      <c r="R25" s="80" t="s">
         <v>101</v>
       </c>
-      <c r="S25" s="53" t="s">
+      <c r="S25" s="80" t="s">
         <v>102</v>
       </c>
-      <c r="T25" s="53" t="s">
-        <v>141</v>
-      </c>
-      <c r="U25" s="60" t="s">
+      <c r="T25" s="80" t="s">
+        <v>139</v>
+      </c>
+      <c r="U25" s="81" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="33" t="s">
+    <row r="26" spans="1:21" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="44" t="s">
+      <c r="B26" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="C26" s="31" t="s">
+      <c r="C26" s="30" t="s">
         <v>97</v>
       </c>
       <c r="D26" s="12" t="s">
@@ -3169,7 +3198,7 @@
       <c r="E26" s="13"/>
       <c r="F26" s="14"/>
       <c r="G26" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H26" s="16">
         <v>24</v>
@@ -3177,8 +3206,8 @@
       <c r="I26" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="J26" s="46" t="s">
-        <v>142</v>
+      <c r="J26" s="45" t="s">
+        <v>140</v>
       </c>
       <c r="K26" s="17" t="s">
         <v>70</v>
@@ -3188,43 +3217,43 @@
       </c>
       <c r="M26" s="19"/>
       <c r="N26" s="19"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="51" t="s">
+      <c r="O26" s="18"/>
+      <c r="P26" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="59" t="s">
+      <c r="Q26" s="76" t="s">
         <v>100</v>
       </c>
-      <c r="R26" s="53" t="s">
+      <c r="R26" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="S26" s="53" t="s">
+      <c r="S26" s="77" t="s">
         <v>102</v>
       </c>
-      <c r="T26" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="U26" s="60" t="s">
+      <c r="T26" s="77" t="s">
+        <v>141</v>
+      </c>
+      <c r="U26" s="78" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="33" t="s">
+    <row r="27" spans="1:21" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="44" t="s">
+      <c r="B27" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="C27" s="31" t="s">
+      <c r="C27" s="30" t="s">
         <v>97</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="14"/>
       <c r="G27" s="15" t="s">
-        <v>93</v>
+        <v>143</v>
       </c>
       <c r="H27" s="16">
         <v>25</v>
@@ -3232,35 +3261,45 @@
       <c r="I27" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="J27" s="22" t="s">
-        <v>145</v>
+      <c r="J27" s="45" t="s">
+        <v>142</v>
       </c>
       <c r="K27" s="17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L27" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M27" s="19"/>
       <c r="N27" s="19"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="51" t="s">
+      <c r="O27" s="18"/>
+      <c r="P27" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="Q27" s="26"/>
-      <c r="R27" s="24"/>
-      <c r="S27" s="24"/>
-      <c r="T27" s="24"/>
-      <c r="U27" s="27"/>
-    </row>
-    <row r="28" spans="1:21" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="33" t="s">
+      <c r="Q27" s="76" t="s">
+        <v>100</v>
+      </c>
+      <c r="R27" s="77" t="s">
+        <v>101</v>
+      </c>
+      <c r="S27" s="77" t="s">
+        <v>102</v>
+      </c>
+      <c r="T27" s="77" t="s">
+        <v>143</v>
+      </c>
+      <c r="U27" s="78" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="44" t="s">
+      <c r="B28" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="C28" s="31" t="s">
+      <c r="C28" s="30" t="s">
         <v>97</v>
       </c>
       <c r="D28" s="12" t="s">
@@ -3269,7 +3308,7 @@
       <c r="E28" s="13"/>
       <c r="F28" s="14"/>
       <c r="G28" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H28" s="16">
         <v>26</v>
@@ -3277,46 +3316,89 @@
       <c r="I28" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="J28" s="46" t="s">
-        <v>208</v>
+      <c r="J28" s="21" t="s">
+        <v>145</v>
       </c>
       <c r="K28" s="17" t="s">
         <v>69</v>
       </c>
       <c r="L28" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="23"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="26"/>
+    </row>
+    <row r="29" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="E29" s="13"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="H29" s="16">
+        <v>27</v>
+      </c>
+      <c r="I29" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="J29" s="45" t="s">
+        <v>206</v>
+      </c>
+      <c r="K29" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="L29" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="M28" s="19" t="s">
+      <c r="M29" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="N28" s="19"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="51" t="s">
+      <c r="N29" s="19"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="Q28" s="25">
+      <c r="Q29" s="72">
         <v>6</v>
       </c>
-      <c r="R28" s="23" t="s">
+      <c r="R29" s="73" t="s">
         <v>164</v>
       </c>
-      <c r="S28" s="23" t="s">
+      <c r="S29" s="73" t="s">
         <v>165</v>
       </c>
-      <c r="T28" s="70" t="s">
+      <c r="T29" s="74" t="s">
         <v>169</v>
       </c>
-      <c r="U28" s="1" t="s">
+      <c r="U29" s="75" t="s">
         <v>167</v>
       </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="O30" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="M1:N1"/>
@@ -3332,6 +3414,11 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3342,37 +3429,37 @@
           <x14:formula1>
             <xm:f>DATOS!$D$2:$D$5</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:A9 A10:A28</xm:sqref>
+          <xm:sqref>A3:A29</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$E$2:$E$3</xm:f>
           </x14:formula1>
-          <xm:sqref>K3:K9 K10:K28</xm:sqref>
+          <xm:sqref>K3:K29</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$F$2:$F$6</xm:f>
           </x14:formula1>
-          <xm:sqref>L3:L9 L10:L28</xm:sqref>
+          <xm:sqref>L3:L29</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$G$2:$G$3</xm:f>
           </x14:formula1>
-          <xm:sqref>P3:P9 P10:P28</xm:sqref>
+          <xm:sqref>P3:P29</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$C$2:$C$39</xm:f>
           </x14:formula1>
-          <xm:sqref>M3:M9 M10:M28</xm:sqref>
+          <xm:sqref>M3:M29</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$B$2:$B$14</xm:f>
           </x14:formula1>
-          <xm:sqref>N3:N9 N10:N28</xm:sqref>
+          <xm:sqref>N3:N29</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4034,380 +4121,380 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="21"/>
-    <col min="7" max="7" width="62.85546875" style="21" customWidth="1"/>
-    <col min="8" max="8" width="52.85546875" style="28" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="21"/>
+    <col min="1" max="1" width="10.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="20"/>
+    <col min="7" max="7" width="62.85546875" style="20" customWidth="1"/>
+    <col min="8" max="8" width="52.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="77" t="s">
+      <c r="C1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="77" t="s">
+      <c r="D1" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="77" t="s">
+      <c r="E1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="77" t="s">
+      <c r="F1" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="85" t="s">
+      <c r="G1" s="94" t="s">
         <v>95</v>
       </c>
-      <c r="H1" s="77" t="s">
+      <c r="H1" s="86" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="80"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="80"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="88"/>
     </row>
     <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="D3" s="62" t="s">
+      <c r="D3" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="E3" s="62" t="s">
+      <c r="E3" s="61" t="s">
         <v>99</v>
       </c>
-      <c r="F3" s="62"/>
-      <c r="G3" s="63" t="s">
+      <c r="F3" s="61"/>
+      <c r="G3" s="62" t="s">
         <v>146</v>
       </c>
-      <c r="H3" s="64" t="s">
+      <c r="H3" s="63" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="30" t="s">
+      <c r="F4" s="28"/>
+      <c r="G4" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="H4" s="65" t="s">
+      <c r="H4" s="64" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="30" t="s">
+      <c r="F5" s="28"/>
+      <c r="G5" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="H5" s="65" t="s">
+      <c r="H5" s="64" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="30" t="s">
+      <c r="F6" s="28"/>
+      <c r="G6" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="H6" s="65" t="s">
+      <c r="H6" s="64" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="30" t="s">
+      <c r="F7" s="28"/>
+      <c r="G7" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="H7" s="65" t="s">
+      <c r="H7" s="64" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="30" t="s">
+      <c r="F8" s="28"/>
+      <c r="G8" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="H8" s="65" t="s">
+      <c r="H8" s="64" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="30" t="s">
+      <c r="F9" s="28"/>
+      <c r="G9" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="H9" s="65" t="s">
+      <c r="H9" s="64" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="30" t="s">
+      <c r="F10" s="28"/>
+      <c r="G10" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="H10" s="65" t="s">
+      <c r="H10" s="64" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="30" t="s">
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="H11" s="65" t="s">
+      <c r="H11" s="64" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="30" t="s">
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="H12" s="65" t="s">
+      <c r="H12" s="64" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="30" t="s">
+      <c r="F13" s="28"/>
+      <c r="G13" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="H13" s="65" t="s">
+      <c r="H13" s="64" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="E14" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="30" t="s">
+      <c r="F14" s="28"/>
+      <c r="G14" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="H14" s="65" t="s">
+      <c r="H14" s="64" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="E15" s="29" t="s">
+      <c r="E15" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="30" t="s">
+      <c r="F15" s="28"/>
+      <c r="G15" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="H15" s="65" t="s">
+      <c r="H15" s="64" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="66" t="s">
+      <c r="A16" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="67" t="s">
+      <c r="B16" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="67" t="s">
+      <c r="C16" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="D16" s="67" t="s">
+      <c r="D16" s="66" t="s">
         <v>128</v>
       </c>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="68" t="s">
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="67" t="s">
         <v>163</v>
       </c>
-      <c r="H16" s="69" t="s">
+      <c r="H16" s="68" t="s">
         <v>158</v>
       </c>
     </row>

--- a/fuentes/contenidos/grado08/guion05/ESCALETA_CN_08_05_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion05/ESCALETA_CN_08_05_CO.xlsx
@@ -11,7 +11,7 @@
     <sheet name="DATOS" sheetId="2" state="hidden" r:id="rId2"/>
     <sheet name="VER" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="219">
   <si>
     <t>Asignatura</t>
   </si>
@@ -428,238 +428,256 @@
     <t>Interactivo que presenta los métodos anticonceptivos y el uso de algunos de ellos en la prevención de las ETS</t>
   </si>
   <si>
+    <t>Refuerza tu aprendizaje: La sexualidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Competencias </t>
+  </si>
+  <si>
+    <t>Actividad en la que se propone analizar la estructura y la formación de los gametos</t>
+  </si>
+  <si>
+    <t>Competencias: análisis de la formación de los gametos</t>
+  </si>
+  <si>
+    <t>Actividad que propone realizar el procedimiento de identificación de alteraciones del ciclo menstrual y sus causas</t>
+  </si>
+  <si>
+    <t>Competencias: identificación de alteraciones del ciclo menstrual</t>
+  </si>
+  <si>
+    <t>Actividad que propone el desarrollo de destrezas para investigar el grado de conocimiento de la población general acerca de los métodos anticonceptivos y las ETS</t>
+  </si>
+  <si>
+    <t>Competencias: investigación sobre los anticonceptivos y las ETS</t>
+  </si>
+  <si>
+    <t>Fin de unidad</t>
+  </si>
+  <si>
+    <t>Mapa conceptual del tema La reproducción humana y la sexualidad</t>
+  </si>
+  <si>
+    <t>http://recursos.cnice.mec.es/biosfera/alumno/3ESO/apararep/anamasc.htm</t>
+  </si>
+  <si>
+    <t>http://recursos.cnice.mec.es/biosfera/alumno/3ESO/apararep/fisiomas.htm</t>
+  </si>
+  <si>
+    <t>Aparece en el REC10, dentro de la ficha del profesor y del estudiante</t>
+  </si>
+  <si>
+    <t>http://recursos.cnice.mec.es/biosfera/alumno/3ESO/apararep/anafem.htm</t>
+  </si>
+  <si>
+    <t>Aparece en el REC20, dentro de la ficha del profesor.</t>
+  </si>
+  <si>
+    <t>http://recursos.cnice.mec.es/biosfera/alumno/3ESO/apararep/fisiofem.htm</t>
+  </si>
+  <si>
+    <t>http://profesores.aulaplaneta.com/BCRedir.aspx?URL=/encyclopedia/default.asp?idreg=90124</t>
+  </si>
+  <si>
+    <t>Aparece en el REC50, dentro de la ficha del profesor y del estudiante.</t>
+  </si>
+  <si>
+    <t>http://recursos.cnice.mec.es/biosfera/alumno/3ESO/apararep/ciclom.htm</t>
+  </si>
+  <si>
+    <t>Aparece en el REC70, dentro de la ficha del profesor.</t>
+  </si>
+  <si>
+    <t>http://recursos.cnice.mec.es/biosfera/alumno/3ESO/apararep/contenidos.htm</t>
+  </si>
+  <si>
+    <t>http://tehescmarts.edu.glogster.com/human-reproduction/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En el guión </t>
+  </si>
+  <si>
+    <t>http://recursos.cnice.mec.es/biosfera/alumno/3ESO/apararep/parto.htm</t>
+  </si>
+  <si>
+    <t>Aparece en el REC110, dentro de la ficha del profesor.</t>
+  </si>
+  <si>
+    <t>http://profesores.aulaplaneta.com/BCRedir.aspx?URL=/encyclopedia/default.asp?idreg=8241</t>
+  </si>
+  <si>
+    <t>http://profesores.aulaplaneta.com/BCRedir.aspx?URL=/encyclopedia/default.asp?idreg=553409</t>
+  </si>
+  <si>
+    <t>http://profesores.aulaplaneta.com/BCRedir.aspx?URL=/theworld/gats/article/default.asp?art=59&amp;pk=825</t>
+  </si>
+  <si>
+    <t>RM</t>
+  </si>
+  <si>
+    <t>Recursos M</t>
+  </si>
+  <si>
+    <t>Recurso M14A-01</t>
+  </si>
+  <si>
+    <t>RM_01_01_CO</t>
+  </si>
+  <si>
+    <t>Recurso M10A-01</t>
+  </si>
+  <si>
+    <t>Recurso M5A-01</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: el sistema reproductor humano</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: el ciclo menstrual</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: la gametogénesis</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: la reproducción humana</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: la fecundación in vitro</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: la sexualidad</t>
+  </si>
+  <si>
+    <t>Recurso M101A-01</t>
+  </si>
+  <si>
+    <t>Actividad para reforzar la comprensión de los conceptos relacionados con fecundación y embarazo en humanos</t>
+  </si>
+  <si>
+    <t>Recurso M14A-02</t>
+  </si>
+  <si>
+    <t>Actividad para afianzar los conocimientos sobre gametogénesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividad en la que se repasan términos relacionados con la gametogénesis </t>
+  </si>
+  <si>
+    <t>Actividad acerca de la reproducción humana y su sistema reproductor</t>
+  </si>
+  <si>
+    <t>Interactivo que muestra la estructura, las características y la función del aparato reproductor masculino</t>
+  </si>
+  <si>
+    <t>Interactivo que presenta la estructura, las características y la función del aparato reproductor femenino</t>
+  </si>
+  <si>
+    <t>Actividad para practicar los conceptos de estructura, características y funciones de los aparatos reproductores masculino y femenino</t>
+  </si>
+  <si>
+    <t>Interactivo con conceptos relacionados con la reproducción humana</t>
+  </si>
+  <si>
+    <t>Interactivo sobre las fases de desarrollo embrionario durante el embarazo</t>
+  </si>
+  <si>
+    <t>Actividad sobre el ciclo menstrual</t>
+  </si>
+  <si>
+    <t>Actividad para afianzar la comprensión de la reproducción asistida</t>
+  </si>
+  <si>
+    <t>Actividad para consolidar los aprendido sobre la sexualidad saludable</t>
+  </si>
+  <si>
+    <t>Actividad para profundizar en el estudio de la sexualidad responsable</t>
+  </si>
+  <si>
+    <t>Hacer un texto sobre características de gametos, su formación y su maduración</t>
+  </si>
+  <si>
+    <t>Las preguntas del juego se refieren a las fases del desarrollo embrionario en humanos</t>
+  </si>
+  <si>
+    <t>Recurso M2C-01</t>
+  </si>
+  <si>
+    <t>Interactivo que muestra las etapas del ciclo menstrual femenino</t>
+  </si>
+  <si>
+    <t>Actividad acerca de relación entre las hormonas sexuales y su función en el ciclo reproductivo femenino</t>
+  </si>
+  <si>
+    <t>Actividad para repasar los conceptos asociados a la reproducción humana</t>
+  </si>
+  <si>
+    <t>Actividad que permite conocer la técnica de fecundación in vitro</t>
+  </si>
+  <si>
+    <t>Evalúa tus conocimientos acerca del tema La reproducción humana y la sexualidad</t>
+  </si>
+  <si>
+    <t>Preguntas varias sobre espermatogénesis y ovogénesis</t>
+  </si>
+  <si>
+    <t>Actividad acerca de la formación de gametos</t>
+  </si>
+  <si>
+    <t>Recurso M101AP-01</t>
+  </si>
+  <si>
+    <t>Motor que incluye preguntas de respuesta abierta del tema La reproducción humana y la sexualidad</t>
+  </si>
+  <si>
+    <t>Banco de actividades: La reproducción humana y la sexualidad</t>
+  </si>
+  <si>
+    <t>Los componentes del sistema reproductor humano</t>
+  </si>
+  <si>
+    <t>¿Qué sabes sobre la gametogénesis?</t>
+  </si>
+  <si>
+    <t>Repasa los términos asociados a la gametogénesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La fecundación y el embarazo </t>
+  </si>
+  <si>
+    <t>Interactivo que trata sobre los hábitos saludables en la sexualidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cada imagen de menú tiene un título que corresponde a los hábitos mencionados en el cuaderno de estudio. Al entrar a cada imagen, se describe el hábito. Por ejemplo, una imagen dirá "Comunicación y afectividad", y al entrar se lee que hay que "disfrutar de una buena comunicación y afectividad en la relación. El respeto es muy importante, ya que evita actitudes denigrantes hacia la pareja." El texto puede cambiar o ser ampliado, pero se debe manener la idea. </t>
+  </si>
+  <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>Recursos F</t>
+  </si>
+  <si>
+    <t>Recurso F6-01</t>
+  </si>
+  <si>
+    <t>RF_01_01_CO</t>
+  </si>
+  <si>
+    <t>Las enfermedades de transmisión sexual</t>
+  </si>
+  <si>
+    <t>Interactivo que trata sobre las enfermedades de transmisión sexual</t>
+  </si>
+  <si>
+    <t>Las enfermedades de transmisión sexual (ETS)</t>
+  </si>
+  <si>
+    <t>Recurso F6-02</t>
+  </si>
+  <si>
     <t>Los métodos anticonceptivos y las ETS</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: La sexualidad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Competencias </t>
-  </si>
-  <si>
-    <t>Actividad en la que se propone analizar la estructura y la formación de los gametos</t>
-  </si>
-  <si>
-    <t>Competencias: análisis de la formación de los gametos</t>
-  </si>
-  <si>
-    <t>Actividad que propone realizar el procedimiento de identificación de alteraciones del ciclo menstrual y sus causas</t>
-  </si>
-  <si>
-    <t>Competencias: identificación de alteraciones del ciclo menstrual</t>
-  </si>
-  <si>
-    <t>Actividad que propone el desarrollo de destrezas para investigar el grado de conocimiento de la población general acerca de los métodos anticonceptivos y las ETS</t>
-  </si>
-  <si>
-    <t>Competencias: investigación sobre los anticonceptivos y las ETS</t>
-  </si>
-  <si>
-    <t>Fin de unidad</t>
-  </si>
-  <si>
-    <t>Mapa conceptual del tema La reproducción humana y la sexualidad</t>
-  </si>
-  <si>
-    <t>http://recursos.cnice.mec.es/biosfera/alumno/3ESO/apararep/anamasc.htm</t>
-  </si>
-  <si>
-    <t>http://recursos.cnice.mec.es/biosfera/alumno/3ESO/apararep/fisiomas.htm</t>
-  </si>
-  <si>
-    <t>Aparece en el REC10, dentro de la ficha del profesor y del estudiante</t>
-  </si>
-  <si>
-    <t>http://recursos.cnice.mec.es/biosfera/alumno/3ESO/apararep/anafem.htm</t>
-  </si>
-  <si>
-    <t>Aparece en el REC20, dentro de la ficha del profesor.</t>
-  </si>
-  <si>
-    <t>http://recursos.cnice.mec.es/biosfera/alumno/3ESO/apararep/fisiofem.htm</t>
-  </si>
-  <si>
-    <t>http://profesores.aulaplaneta.com/BCRedir.aspx?URL=/encyclopedia/default.asp?idreg=90124</t>
-  </si>
-  <si>
-    <t>Aparece en el REC50, dentro de la ficha del profesor y del estudiante.</t>
-  </si>
-  <si>
-    <t>http://recursos.cnice.mec.es/biosfera/alumno/3ESO/apararep/ciclom.htm</t>
-  </si>
-  <si>
-    <t>Aparece en el REC70, dentro de la ficha del profesor.</t>
-  </si>
-  <si>
-    <t>http://recursos.cnice.mec.es/biosfera/alumno/3ESO/apararep/contenidos.htm</t>
-  </si>
-  <si>
-    <t>http://tehescmarts.edu.glogster.com/human-reproduction/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En el guión </t>
-  </si>
-  <si>
-    <t>http://recursos.cnice.mec.es/biosfera/alumno/3ESO/apararep/parto.htm</t>
-  </si>
-  <si>
-    <t>Aparece en el REC110, dentro de la ficha del profesor.</t>
-  </si>
-  <si>
-    <t>http://profesores.aulaplaneta.com/BCRedir.aspx?URL=/encyclopedia/default.asp?idreg=8241</t>
-  </si>
-  <si>
-    <t>http://profesores.aulaplaneta.com/BCRedir.aspx?URL=/encyclopedia/default.asp?idreg=553409</t>
-  </si>
-  <si>
-    <t>http://profesores.aulaplaneta.com/BCRedir.aspx?URL=/theworld/gats/article/default.asp?art=59&amp;pk=825</t>
-  </si>
-  <si>
-    <t>RM</t>
-  </si>
-  <si>
-    <t>Recursos M</t>
-  </si>
-  <si>
-    <t>Recurso M14A-01</t>
-  </si>
-  <si>
-    <t>RM_01_01_CO</t>
-  </si>
-  <si>
-    <t>Recurso M10A-01</t>
-  </si>
-  <si>
-    <t>Recurso M5A-01</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: los componentes del sistema reproductor humano</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: el sistema reproductor humano</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: el ciclo menstrual</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: la gametogénesis</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: la reproducción humana</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: la fecundación in vitro</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: la sexualidad</t>
-  </si>
-  <si>
-    <t>Preguntas abiertas sobre sexualidad humana, que cubren los diferentes temas tocados en el capítulo</t>
-  </si>
-  <si>
-    <t>Actividad para consolidar los conocimientos sobre sexualidad humana</t>
-  </si>
-  <si>
-    <t>Recurso M101A-01</t>
-  </si>
-  <si>
-    <t>Preguntas tipo falso y verdadero sobre los diferentes temas vistos en el capítulo</t>
-  </si>
-  <si>
-    <t>Recurso M4A-01</t>
-  </si>
-  <si>
-    <t>Actividad para reforzar lo aprendido sobre la reproducción en la especie humana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Refuerza tu aprendizaje: la fecundación y el embarazo </t>
-  </si>
-  <si>
-    <t>Actividad para reforzar la comprensión de los conceptos relacionados con fecundación y embarazo en humanos</t>
-  </si>
-  <si>
-    <t>Recurso M14A-02</t>
-  </si>
-  <si>
-    <t>Actividad para afianzar los conocimientos sobre gametogénesis</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: repasa los términos asociados a la gametogénesis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actividad en la que se repasan términos relacionados con la gametogénesis </t>
-  </si>
-  <si>
-    <t>Actividad acerca de la reproducción humana y su sistema reproductor</t>
-  </si>
-  <si>
-    <t>Interactivo que muestra la estructura, las características y la función del aparato reproductor masculino</t>
-  </si>
-  <si>
-    <t>Interactivo que presenta la estructura, las características y la función del aparato reproductor femenino</t>
-  </si>
-  <si>
-    <t>Actividad para practicar los conceptos de estructura, características y funciones de los aparatos reproductores masculino y femenino</t>
-  </si>
-  <si>
-    <t>Interactivo con conceptos relacionados con la reproducción humana</t>
-  </si>
-  <si>
-    <t>Interactivo sobre las fases de desarrollo embrionario durante el embarazo</t>
-  </si>
-  <si>
-    <t>Actividad sobre el ciclo menstrual</t>
-  </si>
-  <si>
-    <t>Actividad para afianzar la comprensión de la reproducción asistida</t>
-  </si>
-  <si>
-    <t>Actividad para consolidar los aprendido sobre la sexualidad saludable</t>
-  </si>
-  <si>
-    <t>Actividad para profundizar en el estudio de la sexualidad responsable</t>
-  </si>
-  <si>
-    <t>Hacer un texto sobre características de gametos, su formación y su maduración</t>
-  </si>
-  <si>
-    <t>Las preguntas del juego se refieren a las fases del desarrollo embrionario en humanos</t>
-  </si>
-  <si>
-    <t>Recurso M2C-01</t>
-  </si>
-  <si>
-    <t>Interactivo que muestra las etapas del ciclo menstrual femenino</t>
-  </si>
-  <si>
-    <t>Actividad acerca de relación entre las hormonas sexuales y su función en el ciclo reproductivo femenino</t>
-  </si>
-  <si>
-    <t>Actividad para repasar los conceptos asociados a la reproducción humana</t>
-  </si>
-  <si>
-    <t>Actividad que permite conocer la técnica de fecundación in vitro</t>
-  </si>
-  <si>
-    <t>Evalúa tus conocimientos acerca del tema La reproducción humana y la sexualidad</t>
-  </si>
-  <si>
-    <t>Competencias: ¿qué sabes sobre la sexualidad humana?</t>
-  </si>
-  <si>
-    <t>Competencias: demuestra lo que sabes sobre la reproducción en los seres humanos</t>
-  </si>
-  <si>
-    <t>Preguntas varias sobre espermatogénesis y ovogénesis</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: ¿qué sabes sobre la gametogénesis?</t>
-  </si>
-  <si>
-    <t>Actividad acerca de la formación de gametos</t>
-  </si>
-  <si>
-    <t>Recurso M101A-02</t>
+    <t>Las imágenes del menú corresponden a las siguientes enfermedades: Sífilis, Clamidiasis, Gonorrea, Herpes genital, Verrugas genitales, SIDA, Hepatitis B. Se debe aclarar si son de origen bacteriano (las tres primeras) o viral (las cuatro últimas).</t>
   </si>
 </sst>
 </file>
@@ -1225,7 +1243,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1423,7 +1441,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1737,8 +1754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T23" sqref="T23"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1766,94 +1783,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="86" t="s">
+      <c r="C1" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="86" t="s">
+      <c r="D1" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="86" t="s">
+      <c r="E1" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="86" t="s">
+      <c r="F1" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="86" t="s">
+      <c r="G1" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="86" t="s">
+      <c r="H1" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="86" t="s">
+      <c r="I1" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="86" t="s">
+      <c r="J1" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="92" t="s">
+      <c r="K1" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="90" t="s">
+      <c r="L1" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="89" t="s">
+      <c r="M1" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="89"/>
-      <c r="O1" s="86" t="s">
+      <c r="N1" s="88"/>
+      <c r="O1" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="86" t="s">
+      <c r="P1" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="86" t="s">
+      <c r="Q1" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="86" t="s">
+      <c r="R1" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="86" t="s">
+      <c r="S1" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="86" t="s">
+      <c r="T1" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="86" t="s">
+      <c r="U1" s="85" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="8" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="88"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="91"/>
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="90"/>
       <c r="M2" s="11" t="s">
         <v>86</v>
       </c>
       <c r="N2" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="O2" s="87"/>
-      <c r="P2" s="87"/>
-      <c r="Q2" s="88"/>
-      <c r="R2" s="88"/>
-      <c r="S2" s="88"/>
-      <c r="T2" s="88"/>
-      <c r="U2" s="88"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="87"/>
+      <c r="R2" s="87"/>
+      <c r="S2" s="87"/>
+      <c r="T2" s="87"/>
+      <c r="U2" s="87"/>
     </row>
     <row r="3" spans="1:21" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
@@ -1882,7 +1899,7 @@
         <v>90</v>
       </c>
       <c r="J3" s="39" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="K3" s="40" t="s">
         <v>70</v>
@@ -1939,7 +1956,7 @@
         <v>90</v>
       </c>
       <c r="J4" s="45" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="K4" s="17" t="s">
         <v>70</v>
@@ -1969,7 +1986,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>67</v>
       </c>
@@ -1983,11 +2000,11 @@
         <v>98</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="15" t="s">
-        <v>170</v>
+        <v>203</v>
       </c>
       <c r="H5" s="16">
         <v>3</v>
@@ -1995,8 +2012,8 @@
       <c r="I5" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="J5" s="45" t="s">
-        <v>192</v>
+      <c r="J5" s="21" t="s">
+        <v>183</v>
       </c>
       <c r="K5" s="17" t="s">
         <v>70</v>
@@ -2044,7 +2061,7 @@
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H6" s="16">
         <v>4</v>
@@ -2053,7 +2070,7 @@
         <v>91</v>
       </c>
       <c r="J6" s="45" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="K6" s="17" t="s">
         <v>70</v>
@@ -2154,11 +2171,11 @@
         <v>107</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="F8" s="47"/>
       <c r="G8" s="15" t="s">
-        <v>173</v>
+        <v>204</v>
       </c>
       <c r="H8" s="16">
         <v>6</v>
@@ -2167,7 +2184,7 @@
         <v>91</v>
       </c>
       <c r="J8" s="45" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="K8" s="17" t="s">
         <v>69</v>
@@ -2176,29 +2193,29 @@
         <v>32</v>
       </c>
       <c r="M8" s="19" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="N8" s="19"/>
       <c r="O8" s="18" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="P8" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="69">
+      <c r="Q8" s="72">
         <v>6</v>
       </c>
-      <c r="R8" s="70" t="s">
+      <c r="R8" s="73" t="s">
+        <v>163</v>
+      </c>
+      <c r="S8" s="73" t="s">
         <v>164</v>
       </c>
-      <c r="S8" s="70" t="s">
-        <v>165</v>
-      </c>
-      <c r="T8" s="70" t="s">
-        <v>179</v>
-      </c>
-      <c r="U8" s="71" t="s">
-        <v>167</v>
+      <c r="T8" s="74" t="s">
+        <v>192</v>
+      </c>
+      <c r="U8" s="75" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -2215,11 +2232,11 @@
         <v>107</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="F9" s="47"/>
+        <v>108</v>
+      </c>
+      <c r="F9" s="14"/>
       <c r="G9" s="15" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="H9" s="16">
         <v>7</v>
@@ -2228,7 +2245,7 @@
         <v>91</v>
       </c>
       <c r="J9" s="45" t="s">
-        <v>211</v>
+        <v>179</v>
       </c>
       <c r="K9" s="17" t="s">
         <v>69</v>
@@ -2237,29 +2254,27 @@
         <v>32</v>
       </c>
       <c r="M9" s="19" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="N9" s="19"/>
-      <c r="O9" s="18" t="s">
-        <v>199</v>
-      </c>
+      <c r="O9" s="18"/>
       <c r="P9" s="50" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q9" s="72">
         <v>6</v>
       </c>
       <c r="R9" s="73" t="s">
+        <v>163</v>
+      </c>
+      <c r="S9" s="73" t="s">
         <v>164</v>
       </c>
-      <c r="S9" s="73" t="s">
+      <c r="T9" s="74" t="s">
         <v>165</v>
       </c>
-      <c r="T9" s="74" t="s">
-        <v>201</v>
-      </c>
       <c r="U9" s="75" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -2278,9 +2293,9 @@
       <c r="E10" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="F10" s="14"/>
+      <c r="F10" s="47"/>
       <c r="G10" s="15" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="H10" s="16">
         <v>8</v>
@@ -2289,7 +2304,7 @@
         <v>91</v>
       </c>
       <c r="J10" s="45" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="K10" s="17" t="s">
         <v>69</v>
@@ -2298,27 +2313,29 @@
         <v>32</v>
       </c>
       <c r="M10" s="19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="N10" s="19"/>
-      <c r="O10" s="18"/>
+      <c r="O10" s="18" t="s">
+        <v>198</v>
+      </c>
       <c r="P10" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="72">
+      <c r="Q10" s="69">
         <v>6</v>
       </c>
-      <c r="R10" s="73" t="s">
+      <c r="R10" s="70" t="s">
+        <v>163</v>
+      </c>
+      <c r="S10" s="70" t="s">
         <v>164</v>
       </c>
-      <c r="S10" s="73" t="s">
-        <v>165</v>
-      </c>
-      <c r="T10" s="74" t="s">
+      <c r="T10" s="70" t="s">
+        <v>175</v>
+      </c>
+      <c r="U10" s="71" t="s">
         <v>166</v>
-      </c>
-      <c r="U10" s="75" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -2348,7 +2365,7 @@
         <v>90</v>
       </c>
       <c r="J11" s="45" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="K11" s="17" t="s">
         <v>70</v>
@@ -2378,7 +2395,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
         <v>67</v>
       </c>
@@ -2404,8 +2421,8 @@
       <c r="I12" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="J12" s="45" t="s">
-        <v>203</v>
+      <c r="J12" s="21" t="s">
+        <v>194</v>
       </c>
       <c r="K12" s="17" t="s">
         <v>69</v>
@@ -2425,16 +2442,16 @@
         <v>6</v>
       </c>
       <c r="R12" s="73" t="s">
+        <v>163</v>
+      </c>
+      <c r="S12" s="73" t="s">
         <v>164</v>
       </c>
-      <c r="S12" s="73" t="s">
-        <v>165</v>
-      </c>
       <c r="T12" s="74" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="U12" s="75" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -2455,7 +2472,7 @@
       </c>
       <c r="F13" s="14"/>
       <c r="G13" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H13" s="16">
         <v>11</v>
@@ -2464,7 +2481,7 @@
         <v>91</v>
       </c>
       <c r="J13" s="48" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="K13" s="17" t="s">
         <v>70</v>
@@ -2494,7 +2511,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
         <v>67</v>
       </c>
@@ -2519,7 +2536,7 @@
         <v>90</v>
       </c>
       <c r="J14" s="45" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="K14" s="17" t="s">
         <v>70</v>
@@ -2549,7 +2566,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
         <v>67</v>
       </c>
@@ -2576,7 +2593,7 @@
         <v>90</v>
       </c>
       <c r="J15" s="45" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="K15" s="17" t="s">
         <v>70</v>
@@ -2620,11 +2637,11 @@
         <v>117</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="15" t="s">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="H16" s="16">
         <v>14</v>
@@ -2633,34 +2650,38 @@
         <v>91</v>
       </c>
       <c r="J16" s="45" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="K16" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L16" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="M16" s="19"/>
+      <c r="M16" s="19" t="s">
+        <v>60</v>
+      </c>
       <c r="N16" s="19"/>
-      <c r="O16" s="18"/>
+      <c r="O16" s="18" t="s">
+        <v>191</v>
+      </c>
       <c r="P16" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q16" s="76" t="s">
-        <v>100</v>
-      </c>
-      <c r="R16" s="77" t="s">
-        <v>101</v>
-      </c>
-      <c r="S16" s="77" t="s">
-        <v>102</v>
-      </c>
-      <c r="T16" s="77" t="s">
-        <v>123</v>
-      </c>
-      <c r="U16" s="78" t="s">
-        <v>103</v>
+        <v>20</v>
+      </c>
+      <c r="Q16" s="72">
+        <v>6</v>
+      </c>
+      <c r="R16" s="73" t="s">
+        <v>163</v>
+      </c>
+      <c r="S16" s="73" t="s">
+        <v>164</v>
+      </c>
+      <c r="T16" s="74" t="s">
+        <v>177</v>
+      </c>
+      <c r="U16" s="75" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:21" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2681,7 +2702,7 @@
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="15" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="H17" s="16">
         <v>15</v>
@@ -2690,38 +2711,34 @@
         <v>91</v>
       </c>
       <c r="J17" s="45" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="K17" s="17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L17" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="M17" s="19" t="s">
-        <v>60</v>
-      </c>
+      <c r="M17" s="19"/>
       <c r="N17" s="19"/>
-      <c r="O17" s="18" t="s">
-        <v>200</v>
-      </c>
+      <c r="O17" s="18"/>
       <c r="P17" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" s="72">
-        <v>6</v>
-      </c>
-      <c r="R17" s="73" t="s">
-        <v>164</v>
-      </c>
-      <c r="S17" s="73" t="s">
-        <v>165</v>
-      </c>
-      <c r="T17" s="74" t="s">
-        <v>185</v>
-      </c>
-      <c r="U17" s="75" t="s">
-        <v>167</v>
+      <c r="Q17" s="76" t="s">
+        <v>100</v>
+      </c>
+      <c r="R17" s="77" t="s">
+        <v>101</v>
+      </c>
+      <c r="S17" s="77" t="s">
+        <v>102</v>
+      </c>
+      <c r="T17" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="U17" s="78" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:21" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2751,7 +2768,7 @@
         <v>91</v>
       </c>
       <c r="J18" s="45" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="K18" s="17" t="s">
         <v>70</v>
@@ -2799,7 +2816,7 @@
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="15" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H19" s="16">
         <v>17</v>
@@ -2808,7 +2825,7 @@
         <v>91</v>
       </c>
       <c r="J19" s="45" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="K19" s="17" t="s">
         <v>70</v>
@@ -2862,37 +2879,41 @@
         <v>18</v>
       </c>
       <c r="I20" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J20" s="45" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="K20" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L20" s="18" t="s">
         <v>31</v>
       </c>
       <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="18"/>
+      <c r="N20" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="O20" s="18" t="s">
+        <v>208</v>
+      </c>
       <c r="P20" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="79" t="s">
-        <v>100</v>
+      <c r="Q20" s="79">
+        <v>6</v>
       </c>
       <c r="R20" s="80" t="s">
-        <v>101</v>
+        <v>209</v>
       </c>
       <c r="S20" s="80" t="s">
-        <v>102</v>
+        <v>210</v>
       </c>
       <c r="T20" s="80" t="s">
-        <v>131</v>
+        <v>211</v>
       </c>
       <c r="U20" s="81" t="s">
-        <v>103</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21" spans="1:21" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2909,26 +2930,26 @@
         <v>128</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F21" s="14"/>
       <c r="G21" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H21" s="16">
         <v>19</v>
       </c>
       <c r="I21" s="16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J21" s="45" t="s">
-        <v>134</v>
+        <v>188</v>
       </c>
       <c r="K21" s="17" t="s">
         <v>70</v>
       </c>
       <c r="L21" s="18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M21" s="19"/>
       <c r="N21" s="19"/>
@@ -2936,19 +2957,19 @@
       <c r="P21" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="76" t="s">
+      <c r="Q21" s="79" t="s">
         <v>100</v>
       </c>
-      <c r="R21" s="77" t="s">
+      <c r="R21" s="80" t="s">
         <v>101</v>
       </c>
-      <c r="S21" s="77" t="s">
+      <c r="S21" s="80" t="s">
         <v>102</v>
       </c>
-      <c r="T21" s="77" t="s">
-        <v>135</v>
-      </c>
-      <c r="U21" s="78" t="s">
+      <c r="T21" s="80" t="s">
+        <v>131</v>
+      </c>
+      <c r="U21" s="81" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2966,47 +2987,51 @@
         <v>128</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>92</v>
+        <v>215</v>
       </c>
       <c r="F22" s="14"/>
       <c r="G22" s="15" t="s">
-        <v>176</v>
+        <v>213</v>
       </c>
       <c r="H22" s="16">
         <v>20</v>
       </c>
       <c r="I22" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J22" s="45" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="K22" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L22" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="18"/>
+      <c r="N22" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="O22" s="18" t="s">
+        <v>218</v>
+      </c>
       <c r="P22" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="Q22" s="82" t="s">
-        <v>100</v>
-      </c>
-      <c r="R22" s="83" t="s">
-        <v>101</v>
-      </c>
-      <c r="S22" s="83" t="s">
-        <v>102</v>
-      </c>
-      <c r="T22" s="83" t="s">
-        <v>136</v>
-      </c>
-      <c r="U22" s="84" t="s">
-        <v>103</v>
+      <c r="Q22" s="79">
+        <v>6</v>
+      </c>
+      <c r="R22" s="80" t="s">
+        <v>209</v>
+      </c>
+      <c r="S22" s="80" t="s">
+        <v>210</v>
+      </c>
+      <c r="T22" s="80" t="s">
+        <v>216</v>
+      </c>
+      <c r="U22" s="81" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="23" spans="1:21" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3020,52 +3045,50 @@
         <v>97</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="E23" s="13"/>
+        <v>128</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="F23" s="14"/>
       <c r="G23" s="15" t="s">
-        <v>207</v>
+        <v>133</v>
       </c>
       <c r="H23" s="16">
         <v>21</v>
       </c>
       <c r="I23" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J23" s="45" t="s">
-        <v>178</v>
+        <v>134</v>
       </c>
       <c r="K23" s="17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L23" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="M23" s="19" t="s">
-        <v>62</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="M23" s="19"/>
       <c r="N23" s="19"/>
-      <c r="O23" s="18" t="s">
-        <v>177</v>
-      </c>
+      <c r="O23" s="18"/>
       <c r="P23" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q23" s="72">
-        <v>6</v>
-      </c>
-      <c r="R23" s="73" t="s">
-        <v>164</v>
-      </c>
-      <c r="S23" s="73" t="s">
-        <v>165</v>
-      </c>
-      <c r="T23" s="74" t="s">
-        <v>212</v>
-      </c>
-      <c r="U23" s="75" t="s">
-        <v>167</v>
+        <v>19</v>
+      </c>
+      <c r="Q23" s="76" t="s">
+        <v>100</v>
+      </c>
+      <c r="R23" s="77" t="s">
+        <v>101</v>
+      </c>
+      <c r="S23" s="77" t="s">
+        <v>102</v>
+      </c>
+      <c r="T23" s="77" t="s">
+        <v>217</v>
+      </c>
+      <c r="U23" s="78" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:21" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3079,12 +3102,14 @@
         <v>97</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="E24" s="13"/>
+        <v>128</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>92</v>
+      </c>
       <c r="F24" s="14"/>
       <c r="G24" s="15" t="s">
-        <v>208</v>
+        <v>174</v>
       </c>
       <c r="H24" s="16">
         <v>22</v>
@@ -3093,38 +3118,34 @@
         <v>91</v>
       </c>
       <c r="J24" s="45" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="K24" s="17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L24" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="M24" s="19" t="s">
-        <v>23</v>
-      </c>
+      <c r="M24" s="19"/>
       <c r="N24" s="19"/>
-      <c r="O24" s="18" t="s">
-        <v>180</v>
-      </c>
+      <c r="O24" s="18"/>
       <c r="P24" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q24" s="72">
-        <v>6</v>
-      </c>
-      <c r="R24" s="73" t="s">
-        <v>164</v>
-      </c>
-      <c r="S24" s="73" t="s">
-        <v>165</v>
-      </c>
-      <c r="T24" s="74" t="s">
-        <v>181</v>
-      </c>
-      <c r="U24" s="75" t="s">
-        <v>167</v>
+        <v>19</v>
+      </c>
+      <c r="Q24" s="82" t="s">
+        <v>100</v>
+      </c>
+      <c r="R24" s="83" t="s">
+        <v>101</v>
+      </c>
+      <c r="S24" s="83" t="s">
+        <v>102</v>
+      </c>
+      <c r="T24" s="83" t="s">
+        <v>135</v>
+      </c>
+      <c r="U24" s="84" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -3138,12 +3159,12 @@
         <v>97</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="14"/>
       <c r="G25" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H25" s="16">
         <v>23</v>
@@ -3152,7 +3173,7 @@
         <v>91</v>
       </c>
       <c r="J25" s="45" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K25" s="17" t="s">
         <v>70</v>
@@ -3176,13 +3197,13 @@
         <v>102</v>
       </c>
       <c r="T25" s="80" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="U25" s="81" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="32" t="s">
         <v>67</v>
       </c>
@@ -3193,12 +3214,12 @@
         <v>97</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="14"/>
       <c r="G26" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H26" s="16">
         <v>24</v>
@@ -3206,8 +3227,8 @@
       <c r="I26" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="J26" s="45" t="s">
-        <v>140</v>
+      <c r="J26" s="21" t="s">
+        <v>139</v>
       </c>
       <c r="K26" s="17" t="s">
         <v>70</v>
@@ -3231,13 +3252,13 @@
         <v>102</v>
       </c>
       <c r="T26" s="77" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="U26" s="78" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="32" t="s">
         <v>67</v>
       </c>
@@ -3248,12 +3269,12 @@
         <v>97</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="14"/>
       <c r="G27" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H27" s="16">
         <v>25</v>
@@ -3261,8 +3282,8 @@
       <c r="I27" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="J27" s="45" t="s">
-        <v>142</v>
+      <c r="J27" s="21" t="s">
+        <v>141</v>
       </c>
       <c r="K27" s="17" t="s">
         <v>70</v>
@@ -3286,7 +3307,7 @@
         <v>102</v>
       </c>
       <c r="T27" s="77" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="U27" s="78" t="s">
         <v>103</v>
@@ -3303,7 +3324,7 @@
         <v>97</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="14"/>
@@ -3317,7 +3338,7 @@
         <v>91</v>
       </c>
       <c r="J28" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K28" s="17" t="s">
         <v>69</v>
@@ -3348,7 +3369,7 @@
         <v>97</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="14"/>
@@ -3362,7 +3383,7 @@
         <v>91</v>
       </c>
       <c r="J29" s="45" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="K29" s="17" t="s">
         <v>69</v>
@@ -3382,20 +3403,74 @@
         <v>6</v>
       </c>
       <c r="R29" s="73" t="s">
+        <v>163</v>
+      </c>
+      <c r="S29" s="73" t="s">
         <v>164</v>
       </c>
-      <c r="S29" s="73" t="s">
-        <v>165</v>
-      </c>
       <c r="T29" s="74" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="U29" s="75" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="O30" s="85"/>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="E30" s="13"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="H30" s="16">
+        <v>28</v>
+      </c>
+      <c r="I30" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="J30" s="45" t="s">
+        <v>201</v>
+      </c>
+      <c r="K30" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="L30" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="M30" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="N30" s="19"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q30" s="72">
+        <v>6</v>
+      </c>
+      <c r="R30" s="73" t="s">
+        <v>163</v>
+      </c>
+      <c r="S30" s="73" t="s">
+        <v>164</v>
+      </c>
+      <c r="T30" s="74" t="s">
+        <v>200</v>
+      </c>
+      <c r="U30" s="75" t="s">
+        <v>166</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -3429,37 +3504,37 @@
           <x14:formula1>
             <xm:f>DATOS!$D$2:$D$5</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:A29</xm:sqref>
+          <xm:sqref>A3:A30</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$E$2:$E$3</xm:f>
           </x14:formula1>
-          <xm:sqref>K3:K29</xm:sqref>
+          <xm:sqref>K3:K30</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$F$2:$F$6</xm:f>
           </x14:formula1>
-          <xm:sqref>L3:L29</xm:sqref>
+          <xm:sqref>L3:L30</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$G$2:$G$3</xm:f>
           </x14:formula1>
-          <xm:sqref>P3:P29</xm:sqref>
+          <xm:sqref>P3:P30</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$C$2:$C$39</xm:f>
           </x14:formula1>
-          <xm:sqref>M3:M29</xm:sqref>
+          <xm:sqref>M3:M30</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$B$2:$B$14</xm:f>
           </x14:formula1>
-          <xm:sqref>N3:N29</xm:sqref>
+          <xm:sqref>N3:N30</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4133,40 +4208,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="86" t="s">
+      <c r="C1" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="86" t="s">
+      <c r="D1" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="86" t="s">
+      <c r="E1" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="86" t="s">
+      <c r="F1" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="94" t="s">
+      <c r="G1" s="93" t="s">
         <v>95</v>
       </c>
-      <c r="H1" s="86" t="s">
+      <c r="H1" s="85" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="88"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="88"/>
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="87"/>
     </row>
     <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="60" t="s">
@@ -4186,10 +4261,10 @@
       </c>
       <c r="F3" s="61"/>
       <c r="G3" s="62" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H3" s="63" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4210,10 +4285,10 @@
       </c>
       <c r="F4" s="28"/>
       <c r="G4" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="H4" s="64" t="s">
         <v>147</v>
-      </c>
-      <c r="H4" s="64" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4234,10 +4309,10 @@
       </c>
       <c r="F5" s="28"/>
       <c r="G5" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="H5" s="64" t="s">
         <v>149</v>
-      </c>
-      <c r="H5" s="64" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4258,10 +4333,10 @@
       </c>
       <c r="F6" s="28"/>
       <c r="G6" s="29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H6" s="64" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4282,10 +4357,10 @@
       </c>
       <c r="F7" s="28"/>
       <c r="G7" s="29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H7" s="64" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4306,10 +4381,10 @@
       </c>
       <c r="F8" s="28"/>
       <c r="G8" s="29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H8" s="64" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4330,10 +4405,10 @@
       </c>
       <c r="F9" s="28"/>
       <c r="G9" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="H9" s="64" t="s">
         <v>152</v>
-      </c>
-      <c r="H9" s="64" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4354,10 +4429,10 @@
       </c>
       <c r="F10" s="28"/>
       <c r="G10" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="H10" s="64" t="s">
         <v>154</v>
-      </c>
-      <c r="H10" s="64" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4376,10 +4451,10 @@
       <c r="E11" s="28"/>
       <c r="F11" s="28"/>
       <c r="G11" s="29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H11" s="64" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -4398,10 +4473,10 @@
       <c r="E12" s="28"/>
       <c r="F12" s="28"/>
       <c r="G12" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="H12" s="64" t="s">
         <v>157</v>
-      </c>
-      <c r="H12" s="64" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4422,10 +4497,10 @@
       </c>
       <c r="F13" s="28"/>
       <c r="G13" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="H13" s="64" t="s">
         <v>159</v>
-      </c>
-      <c r="H13" s="64" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4446,10 +4521,10 @@
       </c>
       <c r="F14" s="28"/>
       <c r="G14" s="29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H14" s="64" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4470,10 +4545,10 @@
       </c>
       <c r="F15" s="28"/>
       <c r="G15" s="29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H15" s="64" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4492,10 +4567,10 @@
       <c r="E16" s="66"/>
       <c r="F16" s="66"/>
       <c r="G16" s="67" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H16" s="68" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/fuentes/contenidos/grado08/guion05/ESCALETA_CN_08_05_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion05/ESCALETA_CN_08_05_CO.xlsx
@@ -784,7 +784,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1238,12 +1238,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1450,9 +1476,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1470,6 +1493,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1744,7 +1773,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1755,7 +1784,7 @@
   <dimension ref="A1:U30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="M1" sqref="M1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1771,8 +1800,8 @@
     <col min="10" max="10" width="92.28515625" customWidth="1"/>
     <col min="11" max="11" width="17.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14" style="5" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" customWidth="1"/>
+    <col min="14" max="14" width="14" style="5" customWidth="1"/>
     <col min="15" max="15" width="27.7109375" style="6" customWidth="1"/>
     <col min="16" max="16" width="16.42578125" style="3" customWidth="1"/>
     <col min="17" max="17" width="10.42578125" customWidth="1"/>
@@ -1813,16 +1842,16 @@
       <c r="J1" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="91" t="s">
+      <c r="K1" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="89" t="s">
+      <c r="L1" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="88" t="s">
+      <c r="M1" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="88"/>
+      <c r="N1" s="95"/>
       <c r="O1" s="85" t="s">
         <v>12</v>
       </c>
@@ -1856,13 +1885,13 @@
       <c r="H2" s="86"/>
       <c r="I2" s="86"/>
       <c r="J2" s="86"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="90"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="89"/>
       <c r="M2" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="N2" s="11" t="s">
         <v>86</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>87</v>
       </c>
       <c r="O2" s="86"/>
       <c r="P2" s="86"/>
@@ -2192,10 +2221,10 @@
       <c r="L8" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="M8" s="19" t="s">
+      <c r="M8" s="19"/>
+      <c r="N8" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="N8" s="19"/>
       <c r="O8" s="18" t="s">
         <v>190</v>
       </c>
@@ -2253,10 +2282,10 @@
       <c r="L9" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="M9" s="19" t="s">
+      <c r="M9" s="19"/>
+      <c r="N9" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="N9" s="19"/>
       <c r="O9" s="18"/>
       <c r="P9" s="50" t="s">
         <v>20</v>
@@ -2312,10 +2341,10 @@
       <c r="L10" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="M10" s="19" t="s">
+      <c r="M10" s="19"/>
+      <c r="N10" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="N10" s="19"/>
       <c r="O10" s="18" t="s">
         <v>198</v>
       </c>
@@ -2430,10 +2459,10 @@
       <c r="L12" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="M12" s="19" t="s">
+      <c r="M12" s="19"/>
+      <c r="N12" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="N12" s="19"/>
       <c r="O12" s="18"/>
       <c r="P12" s="50" t="s">
         <v>19</v>
@@ -2658,10 +2687,10 @@
       <c r="L16" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="M16" s="19" t="s">
+      <c r="M16" s="19"/>
+      <c r="N16" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="N16" s="19"/>
       <c r="O16" s="18" t="s">
         <v>191</v>
       </c>
@@ -2890,10 +2919,10 @@
       <c r="L20" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19" t="s">
+      <c r="M20" s="19" t="s">
         <v>36</v>
       </c>
+      <c r="N20" s="19"/>
       <c r="O20" s="18" t="s">
         <v>208</v>
       </c>
@@ -3008,10 +3037,10 @@
       <c r="L22" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19" t="s">
+      <c r="M22" s="19" t="s">
         <v>36</v>
       </c>
+      <c r="N22" s="19"/>
       <c r="O22" s="18" t="s">
         <v>218</v>
       </c>
@@ -3391,10 +3420,10 @@
       <c r="L29" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="M29" s="19" t="s">
+      <c r="M29" s="19"/>
+      <c r="N29" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="N29" s="19"/>
       <c r="O29" s="18"/>
       <c r="P29" s="50" t="s">
         <v>19</v>
@@ -3448,10 +3477,10 @@
       <c r="L30" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="M30" s="19" t="s">
+      <c r="M30" s="19"/>
+      <c r="N30" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="N30" s="19"/>
       <c r="O30" s="18"/>
       <c r="P30" s="50" t="s">
         <v>20</v>
@@ -3474,6 +3503,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="M1:N1"/>
@@ -3489,11 +3523,6 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3528,13 +3557,13 @@
           <x14:formula1>
             <xm:f>DATOS!$C$2:$C$39</xm:f>
           </x14:formula1>
-          <xm:sqref>M3:M30</xm:sqref>
+          <xm:sqref>N3:N30</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$B$2:$B$14</xm:f>
           </x14:formula1>
-          <xm:sqref>N3:N30</xm:sqref>
+          <xm:sqref>M3:M30</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4226,7 +4255,7 @@
       <c r="F1" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="93" t="s">
+      <c r="G1" s="92" t="s">
         <v>95</v>
       </c>
       <c r="H1" s="85" t="s">
@@ -4240,7 +4269,7 @@
       <c r="D2" s="87"/>
       <c r="E2" s="87"/>
       <c r="F2" s="87"/>
-      <c r="G2" s="94"/>
+      <c r="G2" s="93"/>
       <c r="H2" s="87"/>
     </row>
     <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">

--- a/fuentes/contenidos/grado08/guion05/ESCALETA_CN_08_05_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion05/ESCALETA_CN_08_05_CO.xlsx
@@ -302,382 +302,382 @@
     <t xml:space="preserve">Consolidación </t>
   </si>
   <si>
+    <t>Evaluación</t>
+  </si>
+  <si>
+    <t>Ver</t>
+  </si>
+  <si>
+    <t>CN_08_05_CO</t>
+  </si>
+  <si>
+    <t>La reproducción humana y la sexualidad</t>
+  </si>
+  <si>
+    <t>El sistema reproductor humano</t>
+  </si>
+  <si>
+    <t>El aparato reproductor masculino</t>
+  </si>
+  <si>
+    <t>3° ESO</t>
+  </si>
+  <si>
+    <t>BG</t>
+  </si>
+  <si>
+    <t>La reproducción y la sexualidad</t>
+  </si>
+  <si>
+    <t>BG_09_08</t>
+  </si>
+  <si>
+    <t>El aparato reproductor femenino</t>
+  </si>
+  <si>
+    <t>Conoce el aparato reproductor humano</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: Los aparatos reproductores</t>
+  </si>
+  <si>
+    <t>La gametogénesis</t>
+  </si>
+  <si>
+    <t>La ovogénesis</t>
+  </si>
+  <si>
+    <t>Los gametos y la gametogénesis</t>
+  </si>
+  <si>
+    <t>Interactivo para trabajar las características de los gametos, además de su formación y maduración</t>
+  </si>
+  <si>
+    <t>Los gametos</t>
+  </si>
+  <si>
+    <t>El ciclo reproductor femenino</t>
+  </si>
+  <si>
+    <t>El ciclo reproductor y las hormonas sexuales</t>
+  </si>
+  <si>
+    <t>El ciclo menstrual</t>
+  </si>
+  <si>
+    <t>Las hormonas y el ciclo reproductor femenino</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: El ciclo menstrual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La reproducción humana </t>
+  </si>
+  <si>
+    <t>La reproducción humana</t>
+  </si>
+  <si>
+    <t>La función de reproducción en el ser humano</t>
+  </si>
+  <si>
+    <t>El parto</t>
+  </si>
+  <si>
+    <t>La fecundación y el embarazo</t>
+  </si>
+  <si>
+    <t>La fecundación, el embarazo y el parto</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: La reproducción humana</t>
+  </si>
+  <si>
+    <t>La reproducción asistida</t>
+  </si>
+  <si>
+    <t>La fecundación in vitro</t>
+  </si>
+  <si>
+    <t>Profundiza sobre la reproducción asistida</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: Las técnicas de reproducción asistida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La sexualidad </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los hábitos saludables en la sexualidad </t>
+  </si>
+  <si>
+    <t>Hábitos saludables en la sexualidad</t>
+  </si>
+  <si>
+    <t>Aprende los hábitos saludables en la sexualidad</t>
+  </si>
+  <si>
+    <t>Los métodos de control de la natalidad</t>
+  </si>
+  <si>
+    <t>Los métodos anticonceptivos y la prevención de ETS</t>
+  </si>
+  <si>
+    <t>Interactivo que presenta los métodos anticonceptivos y el uso de algunos de ellos en la prevención de las ETS</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: La sexualidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Competencias </t>
+  </si>
+  <si>
+    <t>Actividad en la que se propone analizar la estructura y la formación de los gametos</t>
+  </si>
+  <si>
+    <t>Competencias: análisis de la formación de los gametos</t>
+  </si>
+  <si>
+    <t>Actividad que propone realizar el procedimiento de identificación de alteraciones del ciclo menstrual y sus causas</t>
+  </si>
+  <si>
+    <t>Competencias: identificación de alteraciones del ciclo menstrual</t>
+  </si>
+  <si>
+    <t>Actividad que propone el desarrollo de destrezas para investigar el grado de conocimiento de la población general acerca de los métodos anticonceptivos y las ETS</t>
+  </si>
+  <si>
+    <t>Competencias: investigación sobre los anticonceptivos y las ETS</t>
+  </si>
+  <si>
+    <t>Fin de unidad</t>
+  </si>
+  <si>
+    <t>Mapa conceptual del tema La reproducción humana y la sexualidad</t>
+  </si>
+  <si>
+    <t>http://recursos.cnice.mec.es/biosfera/alumno/3ESO/apararep/anamasc.htm</t>
+  </si>
+  <si>
+    <t>http://recursos.cnice.mec.es/biosfera/alumno/3ESO/apararep/fisiomas.htm</t>
+  </si>
+  <si>
+    <t>Aparece en el REC10, dentro de la ficha del profesor y del estudiante</t>
+  </si>
+  <si>
+    <t>http://recursos.cnice.mec.es/biosfera/alumno/3ESO/apararep/anafem.htm</t>
+  </si>
+  <si>
+    <t>Aparece en el REC20, dentro de la ficha del profesor.</t>
+  </si>
+  <si>
+    <t>http://recursos.cnice.mec.es/biosfera/alumno/3ESO/apararep/fisiofem.htm</t>
+  </si>
+  <si>
+    <t>http://profesores.aulaplaneta.com/BCRedir.aspx?URL=/encyclopedia/default.asp?idreg=90124</t>
+  </si>
+  <si>
+    <t>Aparece en el REC50, dentro de la ficha del profesor y del estudiante.</t>
+  </si>
+  <si>
+    <t>http://recursos.cnice.mec.es/biosfera/alumno/3ESO/apararep/ciclom.htm</t>
+  </si>
+  <si>
+    <t>Aparece en el REC70, dentro de la ficha del profesor.</t>
+  </si>
+  <si>
+    <t>http://recursos.cnice.mec.es/biosfera/alumno/3ESO/apararep/contenidos.htm</t>
+  </si>
+  <si>
+    <t>http://tehescmarts.edu.glogster.com/human-reproduction/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En el guión </t>
+  </si>
+  <si>
+    <t>http://recursos.cnice.mec.es/biosfera/alumno/3ESO/apararep/parto.htm</t>
+  </si>
+  <si>
+    <t>Aparece en el REC110, dentro de la ficha del profesor.</t>
+  </si>
+  <si>
+    <t>http://profesores.aulaplaneta.com/BCRedir.aspx?URL=/encyclopedia/default.asp?idreg=8241</t>
+  </si>
+  <si>
+    <t>http://profesores.aulaplaneta.com/BCRedir.aspx?URL=/encyclopedia/default.asp?idreg=553409</t>
+  </si>
+  <si>
+    <t>http://profesores.aulaplaneta.com/BCRedir.aspx?URL=/theworld/gats/article/default.asp?art=59&amp;pk=825</t>
+  </si>
+  <si>
+    <t>RM</t>
+  </si>
+  <si>
+    <t>Recursos M</t>
+  </si>
+  <si>
+    <t>Recurso M14A-01</t>
+  </si>
+  <si>
+    <t>RM_01_01_CO</t>
+  </si>
+  <si>
+    <t>Recurso M10A-01</t>
+  </si>
+  <si>
+    <t>Recurso M5A-01</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: el sistema reproductor humano</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: el ciclo menstrual</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: la gametogénesis</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: la reproducción humana</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: la fecundación in vitro</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: la sexualidad</t>
+  </si>
+  <si>
+    <t>Recurso M101A-01</t>
+  </si>
+  <si>
+    <t>Actividad para reforzar la comprensión de los conceptos relacionados con fecundación y embarazo en humanos</t>
+  </si>
+  <si>
+    <t>Recurso M14A-02</t>
+  </si>
+  <si>
+    <t>Actividad para afianzar los conocimientos sobre gametogénesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividad en la que se repasan términos relacionados con la gametogénesis </t>
+  </si>
+  <si>
+    <t>Actividad acerca de la reproducción humana y su sistema reproductor</t>
+  </si>
+  <si>
+    <t>Interactivo que muestra la estructura, las características y la función del aparato reproductor masculino</t>
+  </si>
+  <si>
+    <t>Interactivo que presenta la estructura, las características y la función del aparato reproductor femenino</t>
+  </si>
+  <si>
+    <t>Actividad para practicar los conceptos de estructura, características y funciones de los aparatos reproductores masculino y femenino</t>
+  </si>
+  <si>
+    <t>Interactivo con conceptos relacionados con la reproducción humana</t>
+  </si>
+  <si>
+    <t>Interactivo sobre las fases de desarrollo embrionario durante el embarazo</t>
+  </si>
+  <si>
+    <t>Actividad sobre el ciclo menstrual</t>
+  </si>
+  <si>
+    <t>Actividad para afianzar la comprensión de la reproducción asistida</t>
+  </si>
+  <si>
+    <t>Actividad para consolidar los aprendido sobre la sexualidad saludable</t>
+  </si>
+  <si>
+    <t>Actividad para profundizar en el estudio de la sexualidad responsable</t>
+  </si>
+  <si>
+    <t>Hacer un texto sobre características de gametos, su formación y su maduración</t>
+  </si>
+  <si>
+    <t>Las preguntas del juego se refieren a las fases del desarrollo embrionario en humanos</t>
+  </si>
+  <si>
+    <t>Recurso M2C-01</t>
+  </si>
+  <si>
+    <t>Interactivo que muestra las etapas del ciclo menstrual femenino</t>
+  </si>
+  <si>
+    <t>Actividad acerca de relación entre las hormonas sexuales y su función en el ciclo reproductivo femenino</t>
+  </si>
+  <si>
+    <t>Actividad para repasar los conceptos asociados a la reproducción humana</t>
+  </si>
+  <si>
+    <t>Actividad que permite conocer la técnica de fecundación in vitro</t>
+  </si>
+  <si>
+    <t>Evalúa tus conocimientos acerca del tema La reproducción humana y la sexualidad</t>
+  </si>
+  <si>
+    <t>Preguntas varias sobre espermatogénesis y ovogénesis</t>
+  </si>
+  <si>
+    <t>Actividad acerca de la formación de gametos</t>
+  </si>
+  <si>
+    <t>Recurso M101AP-01</t>
+  </si>
+  <si>
+    <t>Motor que incluye preguntas de respuesta abierta del tema La reproducción humana y la sexualidad</t>
+  </si>
+  <si>
+    <t>Banco de actividades: La reproducción humana y la sexualidad</t>
+  </si>
+  <si>
+    <t>Los componentes del sistema reproductor humano</t>
+  </si>
+  <si>
+    <t>¿Qué sabes sobre la gametogénesis?</t>
+  </si>
+  <si>
+    <t>Repasa los términos asociados a la gametogénesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La fecundación y el embarazo </t>
+  </si>
+  <si>
+    <t>Interactivo que trata sobre los hábitos saludables en la sexualidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cada imagen de menú tiene un título que corresponde a los hábitos mencionados en el cuaderno de estudio. Al entrar a cada imagen, se describe el hábito. Por ejemplo, una imagen dirá "Comunicación y afectividad", y al entrar se lee que hay que "disfrutar de una buena comunicación y afectividad en la relación. El respeto es muy importante, ya que evita actitudes denigrantes hacia la pareja." El texto puede cambiar o ser ampliado, pero se debe manener la idea. </t>
+  </si>
+  <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>Recursos F</t>
+  </si>
+  <si>
+    <t>Recurso F6-01</t>
+  </si>
+  <si>
+    <t>RF_01_01_CO</t>
+  </si>
+  <si>
+    <t>Las enfermedades de transmisión sexual</t>
+  </si>
+  <si>
+    <t>Interactivo que trata sobre las enfermedades de transmisión sexual</t>
+  </si>
+  <si>
+    <t>Las enfermedades de transmisión sexual (ETS)</t>
+  </si>
+  <si>
+    <t>Recurso F6-02</t>
+  </si>
+  <si>
+    <t>Los métodos anticonceptivos y las ETS</t>
+  </si>
+  <si>
+    <t>Las imágenes del menú corresponden a las siguientes enfermedades: Sífilis, Clamidiasis, Gonorrea, Herpes genital, Verrugas genitales, SIDA, Hepatitis B. Se debe aclarar si son de origen bacteriano (las tres primeras) o viral (las cuatro últimas).</t>
+  </si>
+  <si>
     <t>Mapa conceptual</t>
-  </si>
-  <si>
-    <t>Evaluación</t>
-  </si>
-  <si>
-    <t>Ver</t>
-  </si>
-  <si>
-    <t>CN_08_05_CO</t>
-  </si>
-  <si>
-    <t>La reproducción humana y la sexualidad</t>
-  </si>
-  <si>
-    <t>El sistema reproductor humano</t>
-  </si>
-  <si>
-    <t>El aparato reproductor masculino</t>
-  </si>
-  <si>
-    <t>3° ESO</t>
-  </si>
-  <si>
-    <t>BG</t>
-  </si>
-  <si>
-    <t>La reproducción y la sexualidad</t>
-  </si>
-  <si>
-    <t>BG_09_08</t>
-  </si>
-  <si>
-    <t>El aparato reproductor femenino</t>
-  </si>
-  <si>
-    <t>Conoce el aparato reproductor humano</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: Los aparatos reproductores</t>
-  </si>
-  <si>
-    <t>La gametogénesis</t>
-  </si>
-  <si>
-    <t>La ovogénesis</t>
-  </si>
-  <si>
-    <t>Los gametos y la gametogénesis</t>
-  </si>
-  <si>
-    <t>Interactivo para trabajar las características de los gametos, además de su formación y maduración</t>
-  </si>
-  <si>
-    <t>Los gametos</t>
-  </si>
-  <si>
-    <t>El ciclo reproductor femenino</t>
-  </si>
-  <si>
-    <t>El ciclo reproductor y las hormonas sexuales</t>
-  </si>
-  <si>
-    <t>El ciclo menstrual</t>
-  </si>
-  <si>
-    <t>Las hormonas y el ciclo reproductor femenino</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: El ciclo menstrual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La reproducción humana </t>
-  </si>
-  <si>
-    <t>La reproducción humana</t>
-  </si>
-  <si>
-    <t>La función de reproducción en el ser humano</t>
-  </si>
-  <si>
-    <t>El parto</t>
-  </si>
-  <si>
-    <t>La fecundación y el embarazo</t>
-  </si>
-  <si>
-    <t>La fecundación, el embarazo y el parto</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: La reproducción humana</t>
-  </si>
-  <si>
-    <t>La reproducción asistida</t>
-  </si>
-  <si>
-    <t>La fecundación in vitro</t>
-  </si>
-  <si>
-    <t>Profundiza sobre la reproducción asistida</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: Las técnicas de reproducción asistida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La sexualidad </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los hábitos saludables en la sexualidad </t>
-  </si>
-  <si>
-    <t>Hábitos saludables en la sexualidad</t>
-  </si>
-  <si>
-    <t>Aprende los hábitos saludables en la sexualidad</t>
-  </si>
-  <si>
-    <t>Los métodos de control de la natalidad</t>
-  </si>
-  <si>
-    <t>Los métodos anticonceptivos y la prevención de ETS</t>
-  </si>
-  <si>
-    <t>Interactivo que presenta los métodos anticonceptivos y el uso de algunos de ellos en la prevención de las ETS</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: La sexualidad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Competencias </t>
-  </si>
-  <si>
-    <t>Actividad en la que se propone analizar la estructura y la formación de los gametos</t>
-  </si>
-  <si>
-    <t>Competencias: análisis de la formación de los gametos</t>
-  </si>
-  <si>
-    <t>Actividad que propone realizar el procedimiento de identificación de alteraciones del ciclo menstrual y sus causas</t>
-  </si>
-  <si>
-    <t>Competencias: identificación de alteraciones del ciclo menstrual</t>
-  </si>
-  <si>
-    <t>Actividad que propone el desarrollo de destrezas para investigar el grado de conocimiento de la población general acerca de los métodos anticonceptivos y las ETS</t>
-  </si>
-  <si>
-    <t>Competencias: investigación sobre los anticonceptivos y las ETS</t>
-  </si>
-  <si>
-    <t>Fin de unidad</t>
-  </si>
-  <si>
-    <t>Mapa conceptual del tema La reproducción humana y la sexualidad</t>
-  </si>
-  <si>
-    <t>http://recursos.cnice.mec.es/biosfera/alumno/3ESO/apararep/anamasc.htm</t>
-  </si>
-  <si>
-    <t>http://recursos.cnice.mec.es/biosfera/alumno/3ESO/apararep/fisiomas.htm</t>
-  </si>
-  <si>
-    <t>Aparece en el REC10, dentro de la ficha del profesor y del estudiante</t>
-  </si>
-  <si>
-    <t>http://recursos.cnice.mec.es/biosfera/alumno/3ESO/apararep/anafem.htm</t>
-  </si>
-  <si>
-    <t>Aparece en el REC20, dentro de la ficha del profesor.</t>
-  </si>
-  <si>
-    <t>http://recursos.cnice.mec.es/biosfera/alumno/3ESO/apararep/fisiofem.htm</t>
-  </si>
-  <si>
-    <t>http://profesores.aulaplaneta.com/BCRedir.aspx?URL=/encyclopedia/default.asp?idreg=90124</t>
-  </si>
-  <si>
-    <t>Aparece en el REC50, dentro de la ficha del profesor y del estudiante.</t>
-  </si>
-  <si>
-    <t>http://recursos.cnice.mec.es/biosfera/alumno/3ESO/apararep/ciclom.htm</t>
-  </si>
-  <si>
-    <t>Aparece en el REC70, dentro de la ficha del profesor.</t>
-  </si>
-  <si>
-    <t>http://recursos.cnice.mec.es/biosfera/alumno/3ESO/apararep/contenidos.htm</t>
-  </si>
-  <si>
-    <t>http://tehescmarts.edu.glogster.com/human-reproduction/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En el guión </t>
-  </si>
-  <si>
-    <t>http://recursos.cnice.mec.es/biosfera/alumno/3ESO/apararep/parto.htm</t>
-  </si>
-  <si>
-    <t>Aparece en el REC110, dentro de la ficha del profesor.</t>
-  </si>
-  <si>
-    <t>http://profesores.aulaplaneta.com/BCRedir.aspx?URL=/encyclopedia/default.asp?idreg=8241</t>
-  </si>
-  <si>
-    <t>http://profesores.aulaplaneta.com/BCRedir.aspx?URL=/encyclopedia/default.asp?idreg=553409</t>
-  </si>
-  <si>
-    <t>http://profesores.aulaplaneta.com/BCRedir.aspx?URL=/theworld/gats/article/default.asp?art=59&amp;pk=825</t>
-  </si>
-  <si>
-    <t>RM</t>
-  </si>
-  <si>
-    <t>Recursos M</t>
-  </si>
-  <si>
-    <t>Recurso M14A-01</t>
-  </si>
-  <si>
-    <t>RM_01_01_CO</t>
-  </si>
-  <si>
-    <t>Recurso M10A-01</t>
-  </si>
-  <si>
-    <t>Recurso M5A-01</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: el sistema reproductor humano</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: el ciclo menstrual</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: la gametogénesis</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: la reproducción humana</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: la fecundación in vitro</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: la sexualidad</t>
-  </si>
-  <si>
-    <t>Recurso M101A-01</t>
-  </si>
-  <si>
-    <t>Actividad para reforzar la comprensión de los conceptos relacionados con fecundación y embarazo en humanos</t>
-  </si>
-  <si>
-    <t>Recurso M14A-02</t>
-  </si>
-  <si>
-    <t>Actividad para afianzar los conocimientos sobre gametogénesis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actividad en la que se repasan términos relacionados con la gametogénesis </t>
-  </si>
-  <si>
-    <t>Actividad acerca de la reproducción humana y su sistema reproductor</t>
-  </si>
-  <si>
-    <t>Interactivo que muestra la estructura, las características y la función del aparato reproductor masculino</t>
-  </si>
-  <si>
-    <t>Interactivo que presenta la estructura, las características y la función del aparato reproductor femenino</t>
-  </si>
-  <si>
-    <t>Actividad para practicar los conceptos de estructura, características y funciones de los aparatos reproductores masculino y femenino</t>
-  </si>
-  <si>
-    <t>Interactivo con conceptos relacionados con la reproducción humana</t>
-  </si>
-  <si>
-    <t>Interactivo sobre las fases de desarrollo embrionario durante el embarazo</t>
-  </si>
-  <si>
-    <t>Actividad sobre el ciclo menstrual</t>
-  </si>
-  <si>
-    <t>Actividad para afianzar la comprensión de la reproducción asistida</t>
-  </si>
-  <si>
-    <t>Actividad para consolidar los aprendido sobre la sexualidad saludable</t>
-  </si>
-  <si>
-    <t>Actividad para profundizar en el estudio de la sexualidad responsable</t>
-  </si>
-  <si>
-    <t>Hacer un texto sobre características de gametos, su formación y su maduración</t>
-  </si>
-  <si>
-    <t>Las preguntas del juego se refieren a las fases del desarrollo embrionario en humanos</t>
-  </si>
-  <si>
-    <t>Recurso M2C-01</t>
-  </si>
-  <si>
-    <t>Interactivo que muestra las etapas del ciclo menstrual femenino</t>
-  </si>
-  <si>
-    <t>Actividad acerca de relación entre las hormonas sexuales y su función en el ciclo reproductivo femenino</t>
-  </si>
-  <si>
-    <t>Actividad para repasar los conceptos asociados a la reproducción humana</t>
-  </si>
-  <si>
-    <t>Actividad que permite conocer la técnica de fecundación in vitro</t>
-  </si>
-  <si>
-    <t>Evalúa tus conocimientos acerca del tema La reproducción humana y la sexualidad</t>
-  </si>
-  <si>
-    <t>Preguntas varias sobre espermatogénesis y ovogénesis</t>
-  </si>
-  <si>
-    <t>Actividad acerca de la formación de gametos</t>
-  </si>
-  <si>
-    <t>Recurso M101AP-01</t>
-  </si>
-  <si>
-    <t>Motor que incluye preguntas de respuesta abierta del tema La reproducción humana y la sexualidad</t>
-  </si>
-  <si>
-    <t>Banco de actividades: La reproducción humana y la sexualidad</t>
-  </si>
-  <si>
-    <t>Los componentes del sistema reproductor humano</t>
-  </si>
-  <si>
-    <t>¿Qué sabes sobre la gametogénesis?</t>
-  </si>
-  <si>
-    <t>Repasa los términos asociados a la gametogénesis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La fecundación y el embarazo </t>
-  </si>
-  <si>
-    <t>Interactivo que trata sobre los hábitos saludables en la sexualidad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cada imagen de menú tiene un título que corresponde a los hábitos mencionados en el cuaderno de estudio. Al entrar a cada imagen, se describe el hábito. Por ejemplo, una imagen dirá "Comunicación y afectividad", y al entrar se lee que hay que "disfrutar de una buena comunicación y afectividad en la relación. El respeto es muy importante, ya que evita actitudes denigrantes hacia la pareja." El texto puede cambiar o ser ampliado, pero se debe manener la idea. </t>
-  </si>
-  <si>
-    <t>RF</t>
-  </si>
-  <si>
-    <t>Recursos F</t>
-  </si>
-  <si>
-    <t>Recurso F6-01</t>
-  </si>
-  <si>
-    <t>RF_01_01_CO</t>
-  </si>
-  <si>
-    <t>Las enfermedades de transmisión sexual</t>
-  </si>
-  <si>
-    <t>Interactivo que trata sobre las enfermedades de transmisión sexual</t>
-  </si>
-  <si>
-    <t>Las enfermedades de transmisión sexual (ETS)</t>
-  </si>
-  <si>
-    <t>Recurso F6-02</t>
-  </si>
-  <si>
-    <t>Los métodos anticonceptivos y las ETS</t>
-  </si>
-  <si>
-    <t>Las imágenes del menú corresponden a las siguientes enfermedades: Sífilis, Clamidiasis, Gonorrea, Herpes genital, Verrugas genitales, SIDA, Hepatitis B. Se debe aclarar si son de origen bacteriano (las tres primeras) o viral (las cuatro últimas).</t>
   </si>
 </sst>
 </file>
@@ -1473,6 +1473,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1493,12 +1499,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1783,8 +1783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:N1"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1842,16 +1842,16 @@
       <c r="J1" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="90" t="s">
+      <c r="K1" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="88" t="s">
+      <c r="L1" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="94" t="s">
+      <c r="M1" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="95"/>
+      <c r="N1" s="88"/>
       <c r="O1" s="85" t="s">
         <v>12</v>
       </c>
@@ -1875,8 +1875,8 @@
       </c>
     </row>
     <row r="2" spans="1:21" s="8" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="87"/>
-      <c r="B2" s="87"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
       <c r="C2" s="86"/>
       <c r="D2" s="86"/>
       <c r="E2" s="86"/>
@@ -1885,8 +1885,8 @@
       <c r="H2" s="86"/>
       <c r="I2" s="86"/>
       <c r="J2" s="86"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="89"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="91"/>
       <c r="M2" s="11" t="s">
         <v>87</v>
       </c>
@@ -1895,31 +1895,31 @@
       </c>
       <c r="O2" s="86"/>
       <c r="P2" s="86"/>
-      <c r="Q2" s="87"/>
-      <c r="R2" s="87"/>
-      <c r="S2" s="87"/>
-      <c r="T2" s="87"/>
-      <c r="U2" s="87"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="89"/>
+      <c r="S2" s="89"/>
+      <c r="T2" s="89"/>
+      <c r="U2" s="89"/>
     </row>
     <row r="3" spans="1:21" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>67</v>
       </c>
       <c r="B3" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="D3" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="E3" s="36" t="s">
         <v>98</v>
-      </c>
-      <c r="E3" s="36" t="s">
-        <v>99</v>
       </c>
       <c r="F3" s="36"/>
       <c r="G3" s="37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H3" s="38">
         <v>1</v>
@@ -1928,7 +1928,7 @@
         <v>90</v>
       </c>
       <c r="J3" s="39" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K3" s="40" t="s">
         <v>70</v>
@@ -1943,19 +1943,19 @@
         <v>19</v>
       </c>
       <c r="Q3" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="R3" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="R3" s="54" t="s">
+      <c r="S3" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="S3" s="54" t="s">
+      <c r="T3" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="U3" s="55" t="s">
         <v>102</v>
-      </c>
-      <c r="T3" s="54" t="s">
-        <v>99</v>
-      </c>
-      <c r="U3" s="55" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:21" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1963,20 +1963,20 @@
         <v>67</v>
       </c>
       <c r="B4" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="D4" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="44" t="s">
-        <v>98</v>
-      </c>
       <c r="E4" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H4" s="16">
         <v>2</v>
@@ -1985,7 +1985,7 @@
         <v>90</v>
       </c>
       <c r="J4" s="45" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K4" s="17" t="s">
         <v>70</v>
@@ -2000,19 +2000,19 @@
         <v>19</v>
       </c>
       <c r="Q4" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="R4" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="R4" s="51" t="s">
+      <c r="S4" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="S4" s="51" t="s">
+      <c r="T4" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="U4" s="57" t="s">
         <v>102</v>
-      </c>
-      <c r="T4" s="51" t="s">
-        <v>104</v>
-      </c>
-      <c r="U4" s="57" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -2020,20 +2020,20 @@
         <v>67</v>
       </c>
       <c r="B5" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="D5" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="D5" s="44" t="s">
-        <v>98</v>
-      </c>
       <c r="E5" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H5" s="16">
         <v>3</v>
@@ -2042,7 +2042,7 @@
         <v>91</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K5" s="17" t="s">
         <v>70</v>
@@ -2057,19 +2057,19 @@
         <v>19</v>
       </c>
       <c r="Q5" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="R5" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="R5" s="22" t="s">
+      <c r="S5" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="S5" s="22" t="s">
+      <c r="T5" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="U5" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="T5" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -2077,20 +2077,20 @@
         <v>67</v>
       </c>
       <c r="B6" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="D6" s="44" t="s">
         <v>97</v>
-      </c>
-      <c r="D6" s="44" t="s">
-        <v>98</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>92</v>
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H6" s="16">
         <v>4</v>
@@ -2099,7 +2099,7 @@
         <v>91</v>
       </c>
       <c r="J6" s="45" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K6" s="17" t="s">
         <v>70</v>
@@ -2114,19 +2114,19 @@
         <v>19</v>
       </c>
       <c r="Q6" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="R6" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="R6" s="52" t="s">
+      <c r="S6" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="S6" s="52" t="s">
+      <c r="T6" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="U6" s="59" t="s">
         <v>102</v>
-      </c>
-      <c r="T6" s="52" t="s">
-        <v>106</v>
-      </c>
-      <c r="U6" s="59" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -2134,20 +2134,20 @@
         <v>67</v>
       </c>
       <c r="B7" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="C7" s="30" t="s">
-        <v>97</v>
-      </c>
       <c r="D7" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>107</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>108</v>
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H7" s="16">
         <v>5</v>
@@ -2156,7 +2156,7 @@
         <v>90</v>
       </c>
       <c r="J7" s="45" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K7" s="17" t="s">
         <v>70</v>
@@ -2171,19 +2171,19 @@
         <v>19</v>
       </c>
       <c r="Q7" s="69" t="s">
+        <v>99</v>
+      </c>
+      <c r="R7" s="70" t="s">
         <v>100</v>
       </c>
-      <c r="R7" s="70" t="s">
+      <c r="S7" s="70" t="s">
         <v>101</v>
       </c>
-      <c r="S7" s="70" t="s">
+      <c r="T7" s="70" t="s">
+        <v>110</v>
+      </c>
+      <c r="U7" s="71" t="s">
         <v>102</v>
-      </c>
-      <c r="T7" s="70" t="s">
-        <v>111</v>
-      </c>
-      <c r="U7" s="71" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -2191,20 +2191,20 @@
         <v>67</v>
       </c>
       <c r="B8" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="C8" s="30" t="s">
-        <v>97</v>
-      </c>
       <c r="D8" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>107</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>108</v>
       </c>
       <c r="F8" s="47"/>
       <c r="G8" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H8" s="16">
         <v>6</v>
@@ -2213,7 +2213,7 @@
         <v>91</v>
       </c>
       <c r="J8" s="45" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K8" s="17" t="s">
         <v>69</v>
@@ -2226,7 +2226,7 @@
         <v>22</v>
       </c>
       <c r="O8" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P8" s="50" t="s">
         <v>19</v>
@@ -2235,16 +2235,16 @@
         <v>6</v>
       </c>
       <c r="R8" s="73" t="s">
+        <v>162</v>
+      </c>
+      <c r="S8" s="73" t="s">
         <v>163</v>
       </c>
-      <c r="S8" s="73" t="s">
-        <v>164</v>
-      </c>
       <c r="T8" s="74" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="U8" s="75" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -2252,20 +2252,20 @@
         <v>67</v>
       </c>
       <c r="B9" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="30" t="s">
-        <v>97</v>
-      </c>
       <c r="D9" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>107</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>108</v>
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H9" s="16">
         <v>7</v>
@@ -2274,7 +2274,7 @@
         <v>91</v>
       </c>
       <c r="J9" s="45" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K9" s="17" t="s">
         <v>69</v>
@@ -2294,16 +2294,16 @@
         <v>6</v>
       </c>
       <c r="R9" s="73" t="s">
+        <v>162</v>
+      </c>
+      <c r="S9" s="73" t="s">
         <v>163</v>
       </c>
-      <c r="S9" s="73" t="s">
+      <c r="T9" s="74" t="s">
         <v>164</v>
       </c>
-      <c r="T9" s="74" t="s">
+      <c r="U9" s="75" t="s">
         <v>165</v>
-      </c>
-      <c r="U9" s="75" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -2311,20 +2311,20 @@
         <v>67</v>
       </c>
       <c r="B10" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="C10" s="30" t="s">
-        <v>97</v>
-      </c>
       <c r="D10" s="44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>92</v>
       </c>
       <c r="F10" s="47"/>
       <c r="G10" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H10" s="16">
         <v>8</v>
@@ -2333,7 +2333,7 @@
         <v>91</v>
       </c>
       <c r="J10" s="45" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K10" s="17" t="s">
         <v>69</v>
@@ -2346,7 +2346,7 @@
         <v>62</v>
       </c>
       <c r="O10" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P10" s="50" t="s">
         <v>19</v>
@@ -2355,16 +2355,16 @@
         <v>6</v>
       </c>
       <c r="R10" s="70" t="s">
+        <v>162</v>
+      </c>
+      <c r="S10" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="S10" s="70" t="s">
-        <v>164</v>
-      </c>
       <c r="T10" s="70" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="U10" s="71" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -2372,20 +2372,20 @@
         <v>67</v>
       </c>
       <c r="B11" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="C11" s="30" t="s">
-        <v>97</v>
-      </c>
       <c r="D11" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="E11" s="46" t="s">
         <v>112</v>
-      </c>
-      <c r="E11" s="46" t="s">
-        <v>113</v>
       </c>
       <c r="F11" s="47"/>
       <c r="G11" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H11" s="16">
         <v>9</v>
@@ -2394,7 +2394,7 @@
         <v>90</v>
       </c>
       <c r="J11" s="45" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K11" s="17" t="s">
         <v>70</v>
@@ -2409,19 +2409,19 @@
         <v>19</v>
       </c>
       <c r="Q11" s="76" t="s">
+        <v>99</v>
+      </c>
+      <c r="R11" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="R11" s="77" t="s">
+      <c r="S11" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="S11" s="77" t="s">
+      <c r="T11" s="77" t="s">
+        <v>113</v>
+      </c>
+      <c r="U11" s="78" t="s">
         <v>102</v>
-      </c>
-      <c r="T11" s="77" t="s">
-        <v>114</v>
-      </c>
-      <c r="U11" s="78" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -2429,20 +2429,20 @@
         <v>67</v>
       </c>
       <c r="B12" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="30" t="s">
-        <v>97</v>
-      </c>
       <c r="D12" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" s="46" t="s">
         <v>112</v>
-      </c>
-      <c r="E12" s="46" t="s">
-        <v>113</v>
       </c>
       <c r="F12" s="14"/>
       <c r="G12" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H12" s="16">
         <v>10</v>
@@ -2451,7 +2451,7 @@
         <v>91</v>
       </c>
       <c r="J12" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K12" s="17" t="s">
         <v>69</v>
@@ -2471,16 +2471,16 @@
         <v>6</v>
       </c>
       <c r="R12" s="73" t="s">
+        <v>162</v>
+      </c>
+      <c r="S12" s="73" t="s">
         <v>163</v>
       </c>
-      <c r="S12" s="73" t="s">
-        <v>164</v>
-      </c>
       <c r="T12" s="74" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="U12" s="75" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -2488,20 +2488,20 @@
         <v>67</v>
       </c>
       <c r="B13" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="C13" s="30" t="s">
-        <v>97</v>
-      </c>
       <c r="D13" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>92</v>
       </c>
       <c r="F13" s="14"/>
       <c r="G13" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H13" s="16">
         <v>11</v>
@@ -2510,7 +2510,7 @@
         <v>91</v>
       </c>
       <c r="J13" s="48" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K13" s="17" t="s">
         <v>70</v>
@@ -2525,19 +2525,19 @@
         <v>19</v>
       </c>
       <c r="Q13" s="76" t="s">
+        <v>99</v>
+      </c>
+      <c r="R13" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="R13" s="77" t="s">
+      <c r="S13" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="S13" s="77" t="s">
+      <c r="T13" s="77" t="s">
+        <v>115</v>
+      </c>
+      <c r="U13" s="78" t="s">
         <v>102</v>
-      </c>
-      <c r="T13" s="77" t="s">
-        <v>116</v>
-      </c>
-      <c r="U13" s="78" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -2545,18 +2545,18 @@
         <v>67</v>
       </c>
       <c r="B14" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="C14" s="30" t="s">
-        <v>97</v>
-      </c>
       <c r="D14" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="14"/>
       <c r="G14" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H14" s="16">
         <v>12</v>
@@ -2565,7 +2565,7 @@
         <v>90</v>
       </c>
       <c r="J14" s="45" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K14" s="17" t="s">
         <v>70</v>
@@ -2580,19 +2580,19 @@
         <v>19</v>
       </c>
       <c r="Q14" s="76" t="s">
+        <v>99</v>
+      </c>
+      <c r="R14" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="R14" s="77" t="s">
+      <c r="S14" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="S14" s="77" t="s">
+      <c r="T14" s="77" t="s">
+        <v>118</v>
+      </c>
+      <c r="U14" s="78" t="s">
         <v>102</v>
-      </c>
-      <c r="T14" s="77" t="s">
-        <v>119</v>
-      </c>
-      <c r="U14" s="78" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -2600,20 +2600,20 @@
         <v>67</v>
       </c>
       <c r="B15" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="30" t="s">
-        <v>97</v>
-      </c>
       <c r="D15" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F15" s="14"/>
       <c r="G15" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H15" s="16">
         <v>13</v>
@@ -2622,7 +2622,7 @@
         <v>90</v>
       </c>
       <c r="J15" s="45" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K15" s="17" t="s">
         <v>70</v>
@@ -2637,19 +2637,19 @@
         <v>19</v>
       </c>
       <c r="Q15" s="76" t="s">
+        <v>99</v>
+      </c>
+      <c r="R15" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="R15" s="77" t="s">
+      <c r="S15" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="S15" s="77" t="s">
+      <c r="T15" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="U15" s="78" t="s">
         <v>102</v>
-      </c>
-      <c r="T15" s="77" t="s">
-        <v>122</v>
-      </c>
-      <c r="U15" s="78" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:21" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2657,20 +2657,20 @@
         <v>67</v>
       </c>
       <c r="B16" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="30" t="s">
-        <v>97</v>
-      </c>
       <c r="D16" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H16" s="16">
         <v>14</v>
@@ -2679,7 +2679,7 @@
         <v>91</v>
       </c>
       <c r="J16" s="45" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K16" s="17" t="s">
         <v>69</v>
@@ -2692,7 +2692,7 @@
         <v>60</v>
       </c>
       <c r="O16" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P16" s="50" t="s">
         <v>20</v>
@@ -2701,16 +2701,16 @@
         <v>6</v>
       </c>
       <c r="R16" s="73" t="s">
+        <v>162</v>
+      </c>
+      <c r="S16" s="73" t="s">
         <v>163</v>
       </c>
-      <c r="S16" s="73" t="s">
-        <v>164</v>
-      </c>
       <c r="T16" s="74" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="U16" s="75" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:21" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2718,20 +2718,20 @@
         <v>67</v>
       </c>
       <c r="B17" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="30" t="s">
-        <v>97</v>
-      </c>
       <c r="D17" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>92</v>
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H17" s="16">
         <v>15</v>
@@ -2740,7 +2740,7 @@
         <v>91</v>
       </c>
       <c r="J17" s="45" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K17" s="17" t="s">
         <v>70</v>
@@ -2755,19 +2755,19 @@
         <v>19</v>
       </c>
       <c r="Q17" s="76" t="s">
+        <v>99</v>
+      </c>
+      <c r="R17" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="R17" s="77" t="s">
+      <c r="S17" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="S17" s="77" t="s">
+      <c r="T17" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="U17" s="78" t="s">
         <v>102</v>
-      </c>
-      <c r="T17" s="77" t="s">
-        <v>123</v>
-      </c>
-      <c r="U17" s="78" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:21" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2775,20 +2775,20 @@
         <v>67</v>
       </c>
       <c r="B18" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="30" t="s">
-        <v>97</v>
-      </c>
       <c r="D18" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="E18" s="13" t="s">
         <v>124</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>125</v>
       </c>
       <c r="F18" s="14"/>
       <c r="G18" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H18" s="16">
         <v>16</v>
@@ -2797,7 +2797,7 @@
         <v>91</v>
       </c>
       <c r="J18" s="45" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K18" s="17" t="s">
         <v>70</v>
@@ -2812,19 +2812,19 @@
         <v>19</v>
       </c>
       <c r="Q18" s="76" t="s">
+        <v>99</v>
+      </c>
+      <c r="R18" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="R18" s="77" t="s">
+      <c r="S18" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="S18" s="77" t="s">
+      <c r="T18" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="U18" s="78" t="s">
         <v>102</v>
-      </c>
-      <c r="T18" s="77" t="s">
-        <v>126</v>
-      </c>
-      <c r="U18" s="78" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:21" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2832,20 +2832,20 @@
         <v>67</v>
       </c>
       <c r="B19" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="C19" s="30" t="s">
-        <v>97</v>
-      </c>
       <c r="D19" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E19" s="13" t="s">
         <v>92</v>
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H19" s="16">
         <v>17</v>
@@ -2854,7 +2854,7 @@
         <v>91</v>
       </c>
       <c r="J19" s="45" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K19" s="17" t="s">
         <v>70</v>
@@ -2869,19 +2869,19 @@
         <v>19</v>
       </c>
       <c r="Q19" s="76" t="s">
+        <v>99</v>
+      </c>
+      <c r="R19" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="R19" s="77" t="s">
+      <c r="S19" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="S19" s="77" t="s">
+      <c r="T19" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="U19" s="78" t="s">
         <v>102</v>
-      </c>
-      <c r="T19" s="77" t="s">
-        <v>127</v>
-      </c>
-      <c r="U19" s="78" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:21" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2889,20 +2889,20 @@
         <v>67</v>
       </c>
       <c r="B20" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="C20" s="30" t="s">
-        <v>97</v>
-      </c>
       <c r="D20" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20" s="13" t="s">
         <v>128</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>129</v>
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H20" s="16">
         <v>18</v>
@@ -2911,7 +2911,7 @@
         <v>90</v>
       </c>
       <c r="J20" s="45" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K20" s="17" t="s">
         <v>69</v>
@@ -2924,7 +2924,7 @@
       </c>
       <c r="N20" s="19"/>
       <c r="O20" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P20" s="50" t="s">
         <v>19</v>
@@ -2933,16 +2933,16 @@
         <v>6</v>
       </c>
       <c r="R20" s="80" t="s">
+        <v>208</v>
+      </c>
+      <c r="S20" s="80" t="s">
         <v>209</v>
       </c>
-      <c r="S20" s="80" t="s">
+      <c r="T20" s="80" t="s">
         <v>210</v>
       </c>
-      <c r="T20" s="80" t="s">
+      <c r="U20" s="81" t="s">
         <v>211</v>
-      </c>
-      <c r="U20" s="81" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="21" spans="1:21" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2950,20 +2950,20 @@
         <v>67</v>
       </c>
       <c r="B21" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="C21" s="30" t="s">
-        <v>97</v>
-      </c>
       <c r="D21" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21" s="13" t="s">
         <v>128</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>129</v>
       </c>
       <c r="F21" s="14"/>
       <c r="G21" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H21" s="16">
         <v>19</v>
@@ -2972,7 +2972,7 @@
         <v>91</v>
       </c>
       <c r="J21" s="45" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K21" s="17" t="s">
         <v>70</v>
@@ -2987,19 +2987,19 @@
         <v>19</v>
       </c>
       <c r="Q21" s="79" t="s">
+        <v>99</v>
+      </c>
+      <c r="R21" s="80" t="s">
         <v>100</v>
       </c>
-      <c r="R21" s="80" t="s">
+      <c r="S21" s="80" t="s">
         <v>101</v>
       </c>
-      <c r="S21" s="80" t="s">
+      <c r="T21" s="80" t="s">
+        <v>130</v>
+      </c>
+      <c r="U21" s="81" t="s">
         <v>102</v>
-      </c>
-      <c r="T21" s="80" t="s">
-        <v>131</v>
-      </c>
-      <c r="U21" s="81" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:21" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3007,20 +3007,20 @@
         <v>67</v>
       </c>
       <c r="B22" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="C22" s="30" t="s">
-        <v>97</v>
-      </c>
       <c r="D22" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F22" s="14"/>
       <c r="G22" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H22" s="16">
         <v>20</v>
@@ -3029,7 +3029,7 @@
         <v>90</v>
       </c>
       <c r="J22" s="45" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K22" s="17" t="s">
         <v>69</v>
@@ -3042,7 +3042,7 @@
       </c>
       <c r="N22" s="19"/>
       <c r="O22" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P22" s="50" t="s">
         <v>19</v>
@@ -3051,16 +3051,16 @@
         <v>6</v>
       </c>
       <c r="R22" s="80" t="s">
+        <v>208</v>
+      </c>
+      <c r="S22" s="80" t="s">
         <v>209</v>
       </c>
-      <c r="S22" s="80" t="s">
-        <v>210</v>
-      </c>
       <c r="T22" s="80" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U22" s="81" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:21" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3068,20 +3068,20 @@
         <v>67</v>
       </c>
       <c r="B23" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="C23" s="30" t="s">
-        <v>97</v>
-      </c>
       <c r="D23" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F23" s="14"/>
       <c r="G23" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H23" s="16">
         <v>21</v>
@@ -3090,7 +3090,7 @@
         <v>90</v>
       </c>
       <c r="J23" s="45" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K23" s="17" t="s">
         <v>70</v>
@@ -3105,19 +3105,19 @@
         <v>19</v>
       </c>
       <c r="Q23" s="76" t="s">
+        <v>99</v>
+      </c>
+      <c r="R23" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="R23" s="77" t="s">
+      <c r="S23" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="S23" s="77" t="s">
+      <c r="T23" s="77" t="s">
+        <v>216</v>
+      </c>
+      <c r="U23" s="78" t="s">
         <v>102</v>
-      </c>
-      <c r="T23" s="77" t="s">
-        <v>217</v>
-      </c>
-      <c r="U23" s="78" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:21" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3125,20 +3125,20 @@
         <v>67</v>
       </c>
       <c r="B24" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="C24" s="30" t="s">
-        <v>97</v>
-      </c>
       <c r="D24" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E24" s="13" t="s">
         <v>92</v>
       </c>
       <c r="F24" s="14"/>
       <c r="G24" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H24" s="16">
         <v>22</v>
@@ -3147,7 +3147,7 @@
         <v>91</v>
       </c>
       <c r="J24" s="45" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K24" s="17" t="s">
         <v>70</v>
@@ -3162,19 +3162,19 @@
         <v>19</v>
       </c>
       <c r="Q24" s="82" t="s">
+        <v>99</v>
+      </c>
+      <c r="R24" s="83" t="s">
         <v>100</v>
       </c>
-      <c r="R24" s="83" t="s">
+      <c r="S24" s="83" t="s">
         <v>101</v>
       </c>
-      <c r="S24" s="83" t="s">
+      <c r="T24" s="83" t="s">
+        <v>134</v>
+      </c>
+      <c r="U24" s="84" t="s">
         <v>102</v>
-      </c>
-      <c r="T24" s="83" t="s">
-        <v>135</v>
-      </c>
-      <c r="U24" s="84" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -3182,18 +3182,18 @@
         <v>67</v>
       </c>
       <c r="B25" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="C25" s="30" t="s">
-        <v>97</v>
-      </c>
       <c r="D25" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="14"/>
       <c r="G25" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H25" s="16">
         <v>23</v>
@@ -3202,7 +3202,7 @@
         <v>91</v>
       </c>
       <c r="J25" s="45" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K25" s="17" t="s">
         <v>70</v>
@@ -3217,19 +3217,19 @@
         <v>19</v>
       </c>
       <c r="Q25" s="79" t="s">
+        <v>99</v>
+      </c>
+      <c r="R25" s="80" t="s">
         <v>100</v>
       </c>
-      <c r="R25" s="80" t="s">
+      <c r="S25" s="80" t="s">
         <v>101</v>
       </c>
-      <c r="S25" s="80" t="s">
+      <c r="T25" s="80" t="s">
+        <v>137</v>
+      </c>
+      <c r="U25" s="81" t="s">
         <v>102</v>
-      </c>
-      <c r="T25" s="80" t="s">
-        <v>138</v>
-      </c>
-      <c r="U25" s="81" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -3237,18 +3237,18 @@
         <v>67</v>
       </c>
       <c r="B26" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="C26" s="30" t="s">
-        <v>97</v>
-      </c>
       <c r="D26" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="14"/>
       <c r="G26" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H26" s="16">
         <v>24</v>
@@ -3257,7 +3257,7 @@
         <v>91</v>
       </c>
       <c r="J26" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K26" s="17" t="s">
         <v>70</v>
@@ -3272,19 +3272,19 @@
         <v>19</v>
       </c>
       <c r="Q26" s="76" t="s">
+        <v>99</v>
+      </c>
+      <c r="R26" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="R26" s="77" t="s">
+      <c r="S26" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="S26" s="77" t="s">
+      <c r="T26" s="77" t="s">
+        <v>139</v>
+      </c>
+      <c r="U26" s="78" t="s">
         <v>102</v>
-      </c>
-      <c r="T26" s="77" t="s">
-        <v>140</v>
-      </c>
-      <c r="U26" s="78" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -3292,18 +3292,18 @@
         <v>67</v>
       </c>
       <c r="B27" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="C27" s="30" t="s">
-        <v>97</v>
-      </c>
       <c r="D27" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="14"/>
       <c r="G27" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H27" s="16">
         <v>25</v>
@@ -3312,7 +3312,7 @@
         <v>91</v>
       </c>
       <c r="J27" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K27" s="17" t="s">
         <v>70</v>
@@ -3327,19 +3327,19 @@
         <v>19</v>
       </c>
       <c r="Q27" s="76" t="s">
+        <v>99</v>
+      </c>
+      <c r="R27" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="R27" s="77" t="s">
+      <c r="S27" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="S27" s="77" t="s">
+      <c r="T27" s="77" t="s">
+        <v>141</v>
+      </c>
+      <c r="U27" s="78" t="s">
         <v>102</v>
-      </c>
-      <c r="T27" s="77" t="s">
-        <v>142</v>
-      </c>
-      <c r="U27" s="78" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -3347,18 +3347,18 @@
         <v>67</v>
       </c>
       <c r="B28" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="C28" s="30" t="s">
-        <v>97</v>
-      </c>
       <c r="D28" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="14"/>
       <c r="G28" s="15" t="s">
-        <v>93</v>
+        <v>218</v>
       </c>
       <c r="H28" s="16">
         <v>26</v>
@@ -3367,7 +3367,7 @@
         <v>91</v>
       </c>
       <c r="J28" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K28" s="17" t="s">
         <v>69</v>
@@ -3392,18 +3392,18 @@
         <v>67</v>
       </c>
       <c r="B29" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="C29" s="30" t="s">
-        <v>97</v>
-      </c>
       <c r="D29" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="14"/>
       <c r="G29" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H29" s="16">
         <v>27</v>
@@ -3412,7 +3412,7 @@
         <v>91</v>
       </c>
       <c r="J29" s="45" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K29" s="17" t="s">
         <v>69</v>
@@ -3432,16 +3432,16 @@
         <v>6</v>
       </c>
       <c r="R29" s="73" t="s">
+        <v>162</v>
+      </c>
+      <c r="S29" s="73" t="s">
         <v>163</v>
       </c>
-      <c r="S29" s="73" t="s">
-        <v>164</v>
-      </c>
       <c r="T29" s="74" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="U29" s="75" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -3449,18 +3449,18 @@
         <v>67</v>
       </c>
       <c r="B30" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="C30" s="30" t="s">
-        <v>97</v>
-      </c>
       <c r="D30" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E30" s="13"/>
       <c r="F30" s="14"/>
       <c r="G30" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H30" s="16">
         <v>28</v>
@@ -3469,7 +3469,7 @@
         <v>91</v>
       </c>
       <c r="J30" s="45" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K30" s="17" t="s">
         <v>69</v>
@@ -3489,16 +3489,16 @@
         <v>6</v>
       </c>
       <c r="R30" s="73" t="s">
+        <v>162</v>
+      </c>
+      <c r="S30" s="73" t="s">
         <v>163</v>
       </c>
-      <c r="S30" s="73" t="s">
-        <v>164</v>
-      </c>
       <c r="T30" s="74" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="U30" s="75" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -4255,45 +4255,45 @@
       <c r="F1" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="92" t="s">
-        <v>95</v>
+      <c r="G1" s="94" t="s">
+        <v>94</v>
       </c>
       <c r="H1" s="85" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="87"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="87"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="89"/>
     </row>
     <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="60" t="s">
         <v>67</v>
       </c>
       <c r="B3" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="D3" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="D3" s="61" t="s">
+      <c r="E3" s="61" t="s">
         <v>98</v>
-      </c>
-      <c r="E3" s="61" t="s">
-        <v>99</v>
       </c>
       <c r="F3" s="61"/>
       <c r="G3" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H3" s="63" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4301,23 +4301,23 @@
         <v>67</v>
       </c>
       <c r="B4" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="D4" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="E4" s="28" t="s">
         <v>98</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>99</v>
       </c>
       <c r="F4" s="28"/>
       <c r="G4" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="H4" s="64" t="s">
         <v>146</v>
-      </c>
-      <c r="H4" s="64" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4325,23 +4325,23 @@
         <v>67</v>
       </c>
       <c r="B5" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="D5" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="D5" s="28" t="s">
-        <v>98</v>
-      </c>
       <c r="E5" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F5" s="28"/>
       <c r="G5" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="H5" s="64" t="s">
         <v>148</v>
-      </c>
-      <c r="H5" s="64" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4349,23 +4349,23 @@
         <v>67</v>
       </c>
       <c r="B6" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="D6" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="28" t="s">
-        <v>98</v>
-      </c>
       <c r="E6" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F6" s="28"/>
       <c r="G6" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H6" s="64" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4373,23 +4373,23 @@
         <v>67</v>
       </c>
       <c r="B7" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C7" s="28" t="s">
-        <v>97</v>
-      </c>
       <c r="D7" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7" s="28" t="s">
         <v>107</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>108</v>
       </c>
       <c r="F7" s="28"/>
       <c r="G7" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H7" s="64" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4397,23 +4397,23 @@
         <v>67</v>
       </c>
       <c r="B8" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C8" s="28" t="s">
-        <v>97</v>
-      </c>
       <c r="D8" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" s="28" t="s">
         <v>107</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>108</v>
       </c>
       <c r="F8" s="28"/>
       <c r="G8" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H8" s="64" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4421,23 +4421,23 @@
         <v>67</v>
       </c>
       <c r="B9" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="28" t="s">
-        <v>97</v>
-      </c>
       <c r="D9" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" s="28" t="s">
         <v>107</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>108</v>
       </c>
       <c r="F9" s="28"/>
       <c r="G9" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="H9" s="64" t="s">
         <v>151</v>
-      </c>
-      <c r="H9" s="64" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4445,23 +4445,23 @@
         <v>67</v>
       </c>
       <c r="B10" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C10" s="28" t="s">
-        <v>97</v>
-      </c>
       <c r="D10" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" s="28" t="s">
         <v>112</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>113</v>
       </c>
       <c r="F10" s="28"/>
       <c r="G10" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="H10" s="64" t="s">
         <v>153</v>
-      </c>
-      <c r="H10" s="64" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4469,21 +4469,21 @@
         <v>67</v>
       </c>
       <c r="B11" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C11" s="28" t="s">
-        <v>97</v>
-      </c>
       <c r="D11" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E11" s="28"/>
       <c r="F11" s="28"/>
       <c r="G11" s="29" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H11" s="64" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -4491,21 +4491,21 @@
         <v>67</v>
       </c>
       <c r="B12" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="28" t="s">
-        <v>97</v>
-      </c>
       <c r="D12" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E12" s="28"/>
       <c r="F12" s="28"/>
       <c r="G12" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="H12" s="64" t="s">
         <v>156</v>
-      </c>
-      <c r="H12" s="64" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4513,23 +4513,23 @@
         <v>67</v>
       </c>
       <c r="B13" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C13" s="28" t="s">
-        <v>97</v>
-      </c>
       <c r="D13" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F13" s="28"/>
       <c r="G13" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="H13" s="64" t="s">
         <v>158</v>
-      </c>
-      <c r="H13" s="64" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4537,23 +4537,23 @@
         <v>67</v>
       </c>
       <c r="B14" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C14" s="28" t="s">
-        <v>97</v>
-      </c>
       <c r="D14" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F14" s="28"/>
       <c r="G14" s="29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H14" s="64" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4561,23 +4561,23 @@
         <v>67</v>
       </c>
       <c r="B15" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="28" t="s">
-        <v>97</v>
-      </c>
       <c r="D15" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F15" s="28"/>
       <c r="G15" s="29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H15" s="64" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4585,21 +4585,21 @@
         <v>67</v>
       </c>
       <c r="B16" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="66" t="s">
-        <v>97</v>
-      </c>
       <c r="D16" s="66" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E16" s="66"/>
       <c r="F16" s="66"/>
       <c r="G16" s="67" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H16" s="68" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/fuentes/contenidos/grado08/guion05/ESCALETA_CN_08_05_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion05/ESCALETA_CN_08_05_CO.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mpgarcia\Desktop\CienciasNaturales\fuentes\contenidos\grado08\guion05\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="15" yWindow="30" windowWidth="10740" windowHeight="11640"/>
   </bookViews>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="216">
   <si>
     <t>Asignatura</t>
   </si>
@@ -527,24 +532,6 @@
     <t>Recurso M5A-01</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: el sistema reproductor humano</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: el ciclo menstrual</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: la gametogénesis</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: la reproducción humana</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: la fecundación in vitro</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: la sexualidad</t>
-  </si>
-  <si>
     <t>Recurso M101A-01</t>
   </si>
   <si>
@@ -678,6 +665,15 @@
   </si>
   <si>
     <t>Mapa conceptual</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: El sistema reproductor humano</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: La gametogénesis</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: La fecundación in vitro</t>
   </si>
 </sst>
 </file>
@@ -1473,13 +1469,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1773,7 +1769,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1783,8 +1779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView tabSelected="1" topLeftCell="F2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1848,10 +1844,10 @@
       <c r="L1" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="87" t="s">
+      <c r="M1" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="88"/>
+      <c r="N1" s="89"/>
       <c r="O1" s="85" t="s">
         <v>12</v>
       </c>
@@ -1875,8 +1871,8 @@
       </c>
     </row>
     <row r="2" spans="1:21" s="8" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
       <c r="C2" s="86"/>
       <c r="D2" s="86"/>
       <c r="E2" s="86"/>
@@ -1895,11 +1891,11 @@
       </c>
       <c r="O2" s="86"/>
       <c r="P2" s="86"/>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="89"/>
-      <c r="S2" s="89"/>
-      <c r="T2" s="89"/>
-      <c r="U2" s="89"/>
+      <c r="Q2" s="87"/>
+      <c r="R2" s="87"/>
+      <c r="S2" s="87"/>
+      <c r="T2" s="87"/>
+      <c r="U2" s="87"/>
     </row>
     <row r="3" spans="1:21" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
@@ -1928,7 +1924,7 @@
         <v>90</v>
       </c>
       <c r="J3" s="39" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="K3" s="40" t="s">
         <v>70</v>
@@ -1985,7 +1981,7 @@
         <v>90</v>
       </c>
       <c r="J4" s="45" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="K4" s="17" t="s">
         <v>70</v>
@@ -2033,7 +2029,7 @@
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="15" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="H5" s="16">
         <v>3</v>
@@ -2042,7 +2038,7 @@
         <v>91</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="K5" s="17" t="s">
         <v>70</v>
@@ -2090,7 +2086,7 @@
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="15" t="s">
-        <v>168</v>
+        <v>213</v>
       </c>
       <c r="H6" s="16">
         <v>4</v>
@@ -2099,7 +2095,7 @@
         <v>91</v>
       </c>
       <c r="J6" s="45" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="K6" s="17" t="s">
         <v>70</v>
@@ -2204,7 +2200,7 @@
       </c>
       <c r="F8" s="47"/>
       <c r="G8" s="15" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H8" s="16">
         <v>6</v>
@@ -2213,7 +2209,7 @@
         <v>91</v>
       </c>
       <c r="J8" s="45" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="K8" s="17" t="s">
         <v>69</v>
@@ -2226,7 +2222,7 @@
         <v>22</v>
       </c>
       <c r="O8" s="18" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="P8" s="50" t="s">
         <v>19</v>
@@ -2241,7 +2237,7 @@
         <v>163</v>
       </c>
       <c r="T8" s="74" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="U8" s="75" t="s">
         <v>165</v>
@@ -2265,7 +2261,7 @@
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="15" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H9" s="16">
         <v>7</v>
@@ -2274,7 +2270,7 @@
         <v>91</v>
       </c>
       <c r="J9" s="45" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="K9" s="17" t="s">
         <v>69</v>
@@ -2324,7 +2320,7 @@
       </c>
       <c r="F10" s="47"/>
       <c r="G10" s="15" t="s">
-        <v>170</v>
+        <v>214</v>
       </c>
       <c r="H10" s="16">
         <v>8</v>
@@ -2333,7 +2329,7 @@
         <v>91</v>
       </c>
       <c r="J10" s="45" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="K10" s="17" t="s">
         <v>69</v>
@@ -2346,7 +2342,7 @@
         <v>62</v>
       </c>
       <c r="O10" s="18" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="P10" s="50" t="s">
         <v>19</v>
@@ -2361,7 +2357,7 @@
         <v>163</v>
       </c>
       <c r="T10" s="70" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="U10" s="71" t="s">
         <v>165</v>
@@ -2394,7 +2390,7 @@
         <v>90</v>
       </c>
       <c r="J11" s="45" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="K11" s="17" t="s">
         <v>70</v>
@@ -2451,7 +2447,7 @@
         <v>91</v>
       </c>
       <c r="J12" s="21" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="K12" s="17" t="s">
         <v>69</v>
@@ -2501,7 +2497,7 @@
       </c>
       <c r="F13" s="14"/>
       <c r="G13" s="15" t="s">
-        <v>169</v>
+        <v>115</v>
       </c>
       <c r="H13" s="16">
         <v>11</v>
@@ -2510,7 +2506,7 @@
         <v>91</v>
       </c>
       <c r="J13" s="48" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="K13" s="17" t="s">
         <v>70</v>
@@ -2565,7 +2561,7 @@
         <v>90</v>
       </c>
       <c r="J14" s="45" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="K14" s="17" t="s">
         <v>70</v>
@@ -2622,7 +2618,7 @@
         <v>90</v>
       </c>
       <c r="J15" s="45" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="K15" s="17" t="s">
         <v>70</v>
@@ -2670,7 +2666,7 @@
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="15" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="H16" s="16">
         <v>14</v>
@@ -2679,7 +2675,7 @@
         <v>91</v>
       </c>
       <c r="J16" s="45" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="K16" s="17" t="s">
         <v>69</v>
@@ -2692,7 +2688,7 @@
         <v>60</v>
       </c>
       <c r="O16" s="18" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="P16" s="50" t="s">
         <v>20</v>
@@ -2707,7 +2703,7 @@
         <v>163</v>
       </c>
       <c r="T16" s="74" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="U16" s="75" t="s">
         <v>165</v>
@@ -2731,7 +2727,7 @@
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="15" t="s">
-        <v>171</v>
+        <v>122</v>
       </c>
       <c r="H17" s="16">
         <v>15</v>
@@ -2740,7 +2736,7 @@
         <v>91</v>
       </c>
       <c r="J17" s="45" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="K17" s="17" t="s">
         <v>70</v>
@@ -2797,7 +2793,7 @@
         <v>91</v>
       </c>
       <c r="J18" s="45" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="K18" s="17" t="s">
         <v>70</v>
@@ -2845,7 +2841,7 @@
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="15" t="s">
-        <v>172</v>
+        <v>215</v>
       </c>
       <c r="H19" s="16">
         <v>17</v>
@@ -2854,7 +2850,7 @@
         <v>91</v>
       </c>
       <c r="J19" s="45" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="K19" s="17" t="s">
         <v>70</v>
@@ -2911,7 +2907,7 @@
         <v>90</v>
       </c>
       <c r="J20" s="45" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="K20" s="17" t="s">
         <v>69</v>
@@ -2924,7 +2920,7 @@
       </c>
       <c r="N20" s="19"/>
       <c r="O20" s="18" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="P20" s="50" t="s">
         <v>19</v>
@@ -2933,16 +2929,16 @@
         <v>6</v>
       </c>
       <c r="R20" s="80" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="S20" s="80" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="T20" s="80" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="U20" s="81" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:21" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2972,7 +2968,7 @@
         <v>91</v>
       </c>
       <c r="J21" s="45" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="K21" s="17" t="s">
         <v>70</v>
@@ -3016,11 +3012,11 @@
         <v>127</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F22" s="14"/>
       <c r="G22" s="15" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="H22" s="16">
         <v>20</v>
@@ -3029,7 +3025,7 @@
         <v>90</v>
       </c>
       <c r="J22" s="45" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="K22" s="17" t="s">
         <v>69</v>
@@ -3042,7 +3038,7 @@
       </c>
       <c r="N22" s="19"/>
       <c r="O22" s="18" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="P22" s="50" t="s">
         <v>19</v>
@@ -3051,16 +3047,16 @@
         <v>6</v>
       </c>
       <c r="R22" s="80" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="S22" s="80" t="s">
+        <v>203</v>
+      </c>
+      <c r="T22" s="80" t="s">
         <v>209</v>
       </c>
-      <c r="T22" s="80" t="s">
-        <v>215</v>
-      </c>
       <c r="U22" s="81" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23" spans="1:21" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3114,7 +3110,7 @@
         <v>101</v>
       </c>
       <c r="T23" s="77" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="U23" s="78" t="s">
         <v>102</v>
@@ -3138,7 +3134,7 @@
       </c>
       <c r="F24" s="14"/>
       <c r="G24" s="15" t="s">
-        <v>173</v>
+        <v>134</v>
       </c>
       <c r="H24" s="16">
         <v>22</v>
@@ -3147,7 +3143,7 @@
         <v>91</v>
       </c>
       <c r="J24" s="45" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="K24" s="17" t="s">
         <v>70</v>
@@ -3358,7 +3354,7 @@
       <c r="E28" s="13"/>
       <c r="F28" s="14"/>
       <c r="G28" s="15" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H28" s="16">
         <v>26</v>
@@ -3412,7 +3408,7 @@
         <v>91</v>
       </c>
       <c r="J29" s="45" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="K29" s="17" t="s">
         <v>69</v>
@@ -3460,7 +3456,7 @@
       <c r="E30" s="13"/>
       <c r="F30" s="14"/>
       <c r="G30" s="15" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H30" s="16">
         <v>28</v>
@@ -3469,7 +3465,7 @@
         <v>91</v>
       </c>
       <c r="J30" s="45" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="K30" s="17" t="s">
         <v>69</v>
@@ -3495,7 +3491,7 @@
         <v>163</v>
       </c>
       <c r="T30" s="74" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="U30" s="75" t="s">
         <v>165</v>
@@ -3503,11 +3499,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="M1:N1"/>
@@ -3523,6 +3514,11 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4263,14 +4259,14 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="95"/>
-      <c r="H2" s="89"/>
+      <c r="H2" s="87"/>
     </row>
     <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="60" t="s">

--- a/fuentes/contenidos/grado08/guion05/ESCALETA_CN_08_05_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion05/ESCALETA_CN_08_05_CO.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mpgarcia\Desktop\CienciasNaturales\fuentes\contenidos\grado08\guion05\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="15" yWindow="30" windowWidth="10740" windowHeight="11640"/>
   </bookViews>
@@ -16,7 +11,7 @@
     <sheet name="DATOS" sheetId="2" state="hidden" r:id="rId2"/>
     <sheet name="VER" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -625,9 +620,6 @@
     <t>Repasa los términos asociados a la gametogénesis</t>
   </si>
   <si>
-    <t xml:space="preserve">La fecundación y el embarazo </t>
-  </si>
-  <si>
     <t>Interactivo que trata sobre los hábitos saludables en la sexualidad</t>
   </si>
   <si>
@@ -674,6 +666,9 @@
   </si>
   <si>
     <t>Refuerza tu aprendizaje: La fecundación in vitro</t>
+  </si>
+  <si>
+    <t>Reconoce algunos términos relacionados con la reproducción humana</t>
   </si>
 </sst>
 </file>
@@ -1469,13 +1464,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1769,7 +1764,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1779,8 +1774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1844,10 +1839,10 @@
       <c r="L1" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="88" t="s">
+      <c r="M1" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="89"/>
+      <c r="N1" s="88"/>
       <c r="O1" s="85" t="s">
         <v>12</v>
       </c>
@@ -1871,8 +1866,8 @@
       </c>
     </row>
     <row r="2" spans="1:21" s="8" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="87"/>
-      <c r="B2" s="87"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
       <c r="C2" s="86"/>
       <c r="D2" s="86"/>
       <c r="E2" s="86"/>
@@ -1891,11 +1886,11 @@
       </c>
       <c r="O2" s="86"/>
       <c r="P2" s="86"/>
-      <c r="Q2" s="87"/>
-      <c r="R2" s="87"/>
-      <c r="S2" s="87"/>
-      <c r="T2" s="87"/>
-      <c r="U2" s="87"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="89"/>
+      <c r="S2" s="89"/>
+      <c r="T2" s="89"/>
+      <c r="U2" s="89"/>
     </row>
     <row r="3" spans="1:21" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
@@ -2086,7 +2081,7 @@
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H6" s="16">
         <v>4</v>
@@ -2320,7 +2315,7 @@
       </c>
       <c r="F10" s="47"/>
       <c r="G10" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H10" s="16">
         <v>8</v>
@@ -2666,7 +2661,7 @@
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="15" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="H16" s="16">
         <v>14</v>
@@ -2841,7 +2836,7 @@
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H19" s="16">
         <v>17</v>
@@ -2907,7 +2902,7 @@
         <v>90</v>
       </c>
       <c r="J20" s="45" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K20" s="17" t="s">
         <v>69</v>
@@ -2920,7 +2915,7 @@
       </c>
       <c r="N20" s="19"/>
       <c r="O20" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P20" s="50" t="s">
         <v>19</v>
@@ -2929,16 +2924,16 @@
         <v>6</v>
       </c>
       <c r="R20" s="80" t="s">
+        <v>201</v>
+      </c>
+      <c r="S20" s="80" t="s">
         <v>202</v>
       </c>
-      <c r="S20" s="80" t="s">
+      <c r="T20" s="80" t="s">
         <v>203</v>
       </c>
-      <c r="T20" s="80" t="s">
+      <c r="U20" s="81" t="s">
         <v>204</v>
-      </c>
-      <c r="U20" s="81" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:21" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3012,11 +3007,11 @@
         <v>127</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F22" s="14"/>
       <c r="G22" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H22" s="16">
         <v>20</v>
@@ -3025,7 +3020,7 @@
         <v>90</v>
       </c>
       <c r="J22" s="45" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K22" s="17" t="s">
         <v>69</v>
@@ -3038,7 +3033,7 @@
       </c>
       <c r="N22" s="19"/>
       <c r="O22" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P22" s="50" t="s">
         <v>19</v>
@@ -3047,16 +3042,16 @@
         <v>6</v>
       </c>
       <c r="R22" s="80" t="s">
+        <v>201</v>
+      </c>
+      <c r="S22" s="80" t="s">
         <v>202</v>
       </c>
-      <c r="S22" s="80" t="s">
-        <v>203</v>
-      </c>
       <c r="T22" s="80" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="U22" s="81" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:21" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3110,7 +3105,7 @@
         <v>101</v>
       </c>
       <c r="T23" s="77" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="U23" s="78" t="s">
         <v>102</v>
@@ -3354,7 +3349,7 @@
       <c r="E28" s="13"/>
       <c r="F28" s="14"/>
       <c r="G28" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H28" s="16">
         <v>26</v>
@@ -3499,6 +3494,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="M1:N1"/>
@@ -3514,11 +3514,6 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4259,14 +4254,14 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="87"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
       <c r="G2" s="95"/>
-      <c r="H2" s="87"/>
+      <c r="H2" s="89"/>
     </row>
     <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="60" t="s">

--- a/fuentes/contenidos/grado08/guion05/ESCALETA_CN_08_05_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion05/ESCALETA_CN_08_05_CO.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mpgarcia\Desktop\CienciasNaturales\fuentes\contenidos\grado08\guion05\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="15" yWindow="30" windowWidth="10740" windowHeight="11640"/>
   </bookViews>
@@ -596,9 +601,6 @@
     <t>Evalúa tus conocimientos acerca del tema La reproducción humana y la sexualidad</t>
   </si>
   <si>
-    <t>Preguntas varias sobre espermatogénesis y ovogénesis</t>
-  </si>
-  <si>
     <t>Actividad acerca de la formación de gametos</t>
   </si>
   <si>
@@ -669,6 +671,9 @@
   </si>
   <si>
     <t>Reconoce algunos términos relacionados con la reproducción humana</t>
+  </si>
+  <si>
+    <t>Preguntas abiertas sobre espermatogénesis y ovogénesis</t>
   </si>
 </sst>
 </file>
@@ -1464,13 +1469,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1764,7 +1769,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1774,8 +1779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="L18" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
+      <selection activeCell="F20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1839,10 +1844,10 @@
       <c r="L1" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="87" t="s">
+      <c r="M1" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="88"/>
+      <c r="N1" s="89"/>
       <c r="O1" s="85" t="s">
         <v>12</v>
       </c>
@@ -1866,8 +1871,8 @@
       </c>
     </row>
     <row r="2" spans="1:21" s="8" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
       <c r="C2" s="86"/>
       <c r="D2" s="86"/>
       <c r="E2" s="86"/>
@@ -1886,11 +1891,11 @@
       </c>
       <c r="O2" s="86"/>
       <c r="P2" s="86"/>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="89"/>
-      <c r="S2" s="89"/>
-      <c r="T2" s="89"/>
-      <c r="U2" s="89"/>
+      <c r="Q2" s="87"/>
+      <c r="R2" s="87"/>
+      <c r="S2" s="87"/>
+      <c r="T2" s="87"/>
+      <c r="U2" s="87"/>
     </row>
     <row r="3" spans="1:21" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
@@ -2024,7 +2029,7 @@
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H5" s="16">
         <v>3</v>
@@ -2081,7 +2086,7 @@
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H6" s="16">
         <v>4</v>
@@ -2195,7 +2200,7 @@
       </c>
       <c r="F8" s="47"/>
       <c r="G8" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H8" s="16">
         <v>6</v>
@@ -2204,7 +2209,7 @@
         <v>91</v>
       </c>
       <c r="J8" s="45" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K8" s="17" t="s">
         <v>69</v>
@@ -2256,7 +2261,7 @@
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H9" s="16">
         <v>7</v>
@@ -2315,7 +2320,7 @@
       </c>
       <c r="F10" s="47"/>
       <c r="G10" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H10" s="16">
         <v>8</v>
@@ -2337,7 +2342,7 @@
         <v>62</v>
       </c>
       <c r="O10" s="18" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="P10" s="50" t="s">
         <v>19</v>
@@ -2661,7 +2666,7 @@
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H16" s="16">
         <v>14</v>
@@ -2836,7 +2841,7 @@
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H19" s="16">
         <v>17</v>
@@ -2902,7 +2907,7 @@
         <v>90</v>
       </c>
       <c r="J20" s="45" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K20" s="17" t="s">
         <v>69</v>
@@ -2915,7 +2920,7 @@
       </c>
       <c r="N20" s="19"/>
       <c r="O20" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="P20" s="50" t="s">
         <v>19</v>
@@ -2924,16 +2929,16 @@
         <v>6</v>
       </c>
       <c r="R20" s="80" t="s">
+        <v>200</v>
+      </c>
+      <c r="S20" s="80" t="s">
         <v>201</v>
       </c>
-      <c r="S20" s="80" t="s">
+      <c r="T20" s="80" t="s">
         <v>202</v>
       </c>
-      <c r="T20" s="80" t="s">
+      <c r="U20" s="81" t="s">
         <v>203</v>
-      </c>
-      <c r="U20" s="81" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:21" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3007,11 +3012,11 @@
         <v>127</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F22" s="14"/>
       <c r="G22" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H22" s="16">
         <v>20</v>
@@ -3020,7 +3025,7 @@
         <v>90</v>
       </c>
       <c r="J22" s="45" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K22" s="17" t="s">
         <v>69</v>
@@ -3033,7 +3038,7 @@
       </c>
       <c r="N22" s="19"/>
       <c r="O22" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="P22" s="50" t="s">
         <v>19</v>
@@ -3042,16 +3047,16 @@
         <v>6</v>
       </c>
       <c r="R22" s="80" t="s">
+        <v>200</v>
+      </c>
+      <c r="S22" s="80" t="s">
         <v>201</v>
       </c>
-      <c r="S22" s="80" t="s">
-        <v>202</v>
-      </c>
       <c r="T22" s="80" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="U22" s="81" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:21" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3105,7 +3110,7 @@
         <v>101</v>
       </c>
       <c r="T23" s="77" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="U23" s="78" t="s">
         <v>102</v>
@@ -3349,7 +3354,7 @@
       <c r="E28" s="13"/>
       <c r="F28" s="14"/>
       <c r="G28" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H28" s="16">
         <v>26</v>
@@ -3451,7 +3456,7 @@
       <c r="E30" s="13"/>
       <c r="F30" s="14"/>
       <c r="G30" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H30" s="16">
         <v>28</v>
@@ -3460,7 +3465,7 @@
         <v>91</v>
       </c>
       <c r="J30" s="45" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K30" s="17" t="s">
         <v>69</v>
@@ -3486,7 +3491,7 @@
         <v>163</v>
       </c>
       <c r="T30" s="74" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="U30" s="75" t="s">
         <v>165</v>
@@ -3494,11 +3499,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="M1:N1"/>
@@ -3514,6 +3514,11 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4254,14 +4259,14 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="95"/>
-      <c r="H2" s="89"/>
+      <c r="H2" s="87"/>
     </row>
     <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="60" t="s">

--- a/fuentes/contenidos/grado08/guion05/ESCALETA_CN_08_05_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion05/ESCALETA_CN_08_05_CO.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mpgarcia\Desktop\CienciasNaturales\fuentes\contenidos\grado08\guion05\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="15" yWindow="30" windowWidth="10740" windowHeight="11640"/>
   </bookViews>
@@ -16,7 +11,7 @@
     <sheet name="DATOS" sheetId="2" state="hidden" r:id="rId2"/>
     <sheet name="VER" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="217">
   <si>
     <t>Asignatura</t>
   </si>
@@ -601,6 +596,9 @@
     <t>Evalúa tus conocimientos acerca del tema La reproducción humana y la sexualidad</t>
   </si>
   <si>
+    <t>Preguntas varias sobre espermatogénesis y ovogénesis</t>
+  </si>
+  <si>
     <t>Actividad acerca de la formación de gametos</t>
   </si>
   <si>
@@ -673,7 +671,7 @@
     <t>Reconoce algunos términos relacionados con la reproducción humana</t>
   </si>
   <si>
-    <t>Preguntas abiertas sobre espermatogénesis y ovogénesis</t>
+    <t>Cambiar acento</t>
   </si>
 </sst>
 </file>
@@ -1769,7 +1767,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1779,8 +1777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L18" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
-      <selection activeCell="F20" sqref="A20:XFD20"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1930,11 +1928,13 @@
         <v>70</v>
       </c>
       <c r="L3" s="41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M3" s="42"/>
       <c r="N3" s="42"/>
-      <c r="O3" s="41"/>
+      <c r="O3" s="41" t="s">
+        <v>216</v>
+      </c>
       <c r="P3" s="49" t="s">
         <v>19</v>
       </c>
@@ -1987,11 +1987,13 @@
         <v>70</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M4" s="19"/>
       <c r="N4" s="19"/>
-      <c r="O4" s="18"/>
+      <c r="O4" s="18" t="s">
+        <v>216</v>
+      </c>
       <c r="P4" s="50" t="s">
         <v>19</v>
       </c>
@@ -2029,7 +2031,7 @@
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="15" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H5" s="16">
         <v>3</v>
@@ -2086,7 +2088,7 @@
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="15" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H6" s="16">
         <v>4</v>
@@ -2200,7 +2202,7 @@
       </c>
       <c r="F8" s="47"/>
       <c r="G8" s="15" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H8" s="16">
         <v>6</v>
@@ -2209,7 +2211,7 @@
         <v>91</v>
       </c>
       <c r="J8" s="45" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K8" s="17" t="s">
         <v>69</v>
@@ -2261,7 +2263,7 @@
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="15" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H9" s="16">
         <v>7</v>
@@ -2320,7 +2322,7 @@
       </c>
       <c r="F10" s="47"/>
       <c r="G10" s="15" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H10" s="16">
         <v>8</v>
@@ -2342,7 +2344,7 @@
         <v>62</v>
       </c>
       <c r="O10" s="18" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="P10" s="50" t="s">
         <v>19</v>
@@ -2400,7 +2402,9 @@
       </c>
       <c r="M11" s="19"/>
       <c r="N11" s="19"/>
-      <c r="O11" s="18"/>
+      <c r="O11" s="18" t="s">
+        <v>216</v>
+      </c>
       <c r="P11" s="50" t="s">
         <v>19</v>
       </c>
@@ -2628,7 +2632,9 @@
       </c>
       <c r="M15" s="19"/>
       <c r="N15" s="19"/>
-      <c r="O15" s="18"/>
+      <c r="O15" s="18" t="s">
+        <v>216</v>
+      </c>
       <c r="P15" s="50" t="s">
         <v>19</v>
       </c>
@@ -2666,7 +2672,7 @@
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="15" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H16" s="16">
         <v>14</v>
@@ -2841,7 +2847,7 @@
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="15" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H19" s="16">
         <v>17</v>
@@ -2907,7 +2913,7 @@
         <v>90</v>
       </c>
       <c r="J20" s="45" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K20" s="17" t="s">
         <v>69</v>
@@ -2920,7 +2926,7 @@
       </c>
       <c r="N20" s="19"/>
       <c r="O20" s="18" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P20" s="50" t="s">
         <v>19</v>
@@ -2929,16 +2935,16 @@
         <v>6</v>
       </c>
       <c r="R20" s="80" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="S20" s="80" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="T20" s="80" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="U20" s="81" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:21" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3012,11 +3018,11 @@
         <v>127</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F22" s="14"/>
       <c r="G22" s="15" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H22" s="16">
         <v>20</v>
@@ -3025,7 +3031,7 @@
         <v>90</v>
       </c>
       <c r="J22" s="45" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K22" s="17" t="s">
         <v>69</v>
@@ -3038,7 +3044,7 @@
       </c>
       <c r="N22" s="19"/>
       <c r="O22" s="18" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P22" s="50" t="s">
         <v>19</v>
@@ -3047,16 +3053,16 @@
         <v>6</v>
       </c>
       <c r="R22" s="80" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="S22" s="80" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="T22" s="80" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="U22" s="81" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:21" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3110,7 +3116,7 @@
         <v>101</v>
       </c>
       <c r="T23" s="77" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="U23" s="78" t="s">
         <v>102</v>
@@ -3354,7 +3360,7 @@
       <c r="E28" s="13"/>
       <c r="F28" s="14"/>
       <c r="G28" s="15" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H28" s="16">
         <v>26</v>
@@ -3456,7 +3462,7 @@
       <c r="E30" s="13"/>
       <c r="F30" s="14"/>
       <c r="G30" s="15" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H30" s="16">
         <v>28</v>
@@ -3465,7 +3471,7 @@
         <v>91</v>
       </c>
       <c r="J30" s="45" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K30" s="17" t="s">
         <v>69</v>
@@ -3491,7 +3497,7 @@
         <v>163</v>
       </c>
       <c r="T30" s="74" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="U30" s="75" t="s">
         <v>165</v>

--- a/fuentes/contenidos/grado08/guion05/ESCALETA_CN_08_05_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion05/ESCALETA_CN_08_05_CO.xlsx
@@ -11,7 +11,7 @@
     <sheet name="DATOS" sheetId="2" state="hidden" r:id="rId2"/>
     <sheet name="VER" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="217">
   <si>
     <t>Asignatura</t>
   </si>
@@ -590,9 +590,6 @@
     <t>Actividad para repasar los conceptos asociados a la reproducción humana</t>
   </si>
   <si>
-    <t>Actividad que permite conocer la técnica de fecundación in vitro</t>
-  </si>
-  <si>
     <t>Evalúa tus conocimientos acerca del tema La reproducción humana y la sexualidad</t>
   </si>
   <si>
@@ -672,6 +669,9 @@
   </si>
   <si>
     <t>Cambiar acento</t>
+  </si>
+  <si>
+    <t>Interactivo con animación incluida que permite conocer la técnica de fecundación in vitro</t>
   </si>
 </sst>
 </file>
@@ -1467,13 +1467,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1767,7 +1767,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1778,7 +1778,7 @@
   <dimension ref="A1:U30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1842,10 +1842,10 @@
       <c r="L1" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="88" t="s">
+      <c r="M1" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="89"/>
+      <c r="N1" s="88"/>
       <c r="O1" s="85" t="s">
         <v>12</v>
       </c>
@@ -1869,8 +1869,8 @@
       </c>
     </row>
     <row r="2" spans="1:21" s="8" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="87"/>
-      <c r="B2" s="87"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
       <c r="C2" s="86"/>
       <c r="D2" s="86"/>
       <c r="E2" s="86"/>
@@ -1889,11 +1889,11 @@
       </c>
       <c r="O2" s="86"/>
       <c r="P2" s="86"/>
-      <c r="Q2" s="87"/>
-      <c r="R2" s="87"/>
-      <c r="S2" s="87"/>
-      <c r="T2" s="87"/>
-      <c r="U2" s="87"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="89"/>
+      <c r="S2" s="89"/>
+      <c r="T2" s="89"/>
+      <c r="U2" s="89"/>
     </row>
     <row r="3" spans="1:21" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
@@ -1933,7 +1933,7 @@
       <c r="M3" s="42"/>
       <c r="N3" s="42"/>
       <c r="O3" s="41" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P3" s="49" t="s">
         <v>19</v>
@@ -1992,7 +1992,7 @@
       <c r="M4" s="19"/>
       <c r="N4" s="19"/>
       <c r="O4" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P4" s="50" t="s">
         <v>19</v>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H5" s="16">
         <v>3</v>
@@ -2088,7 +2088,7 @@
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H6" s="16">
         <v>4</v>
@@ -2202,7 +2202,7 @@
       </c>
       <c r="F8" s="47"/>
       <c r="G8" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H8" s="16">
         <v>6</v>
@@ -2211,7 +2211,7 @@
         <v>91</v>
       </c>
       <c r="J8" s="45" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K8" s="17" t="s">
         <v>69</v>
@@ -2263,7 +2263,7 @@
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H9" s="16">
         <v>7</v>
@@ -2322,7 +2322,7 @@
       </c>
       <c r="F10" s="47"/>
       <c r="G10" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H10" s="16">
         <v>8</v>
@@ -2344,7 +2344,7 @@
         <v>62</v>
       </c>
       <c r="O10" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P10" s="50" t="s">
         <v>19</v>
@@ -2403,7 +2403,7 @@
       <c r="M11" s="19"/>
       <c r="N11" s="19"/>
       <c r="O11" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P11" s="50" t="s">
         <v>19</v>
@@ -2633,7 +2633,7 @@
       <c r="M15" s="19"/>
       <c r="N15" s="19"/>
       <c r="O15" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P15" s="50" t="s">
         <v>19</v>
@@ -2672,7 +2672,7 @@
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H16" s="16">
         <v>14</v>
@@ -2796,20 +2796,22 @@
         <v>16</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J18" s="45" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="K18" s="17" t="s">
         <v>70</v>
       </c>
       <c r="L18" s="18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M18" s="19"/>
       <c r="N18" s="19"/>
-      <c r="O18" s="18"/>
+      <c r="O18" s="18" t="s">
+        <v>215</v>
+      </c>
       <c r="P18" s="50" t="s">
         <v>19</v>
       </c>
@@ -2847,7 +2849,7 @@
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H19" s="16">
         <v>17</v>
@@ -2913,7 +2915,7 @@
         <v>90</v>
       </c>
       <c r="J20" s="45" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K20" s="17" t="s">
         <v>69</v>
@@ -2926,7 +2928,7 @@
       </c>
       <c r="N20" s="19"/>
       <c r="O20" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="P20" s="50" t="s">
         <v>19</v>
@@ -2935,16 +2937,16 @@
         <v>6</v>
       </c>
       <c r="R20" s="80" t="s">
+        <v>200</v>
+      </c>
+      <c r="S20" s="80" t="s">
         <v>201</v>
       </c>
-      <c r="S20" s="80" t="s">
+      <c r="T20" s="80" t="s">
         <v>202</v>
       </c>
-      <c r="T20" s="80" t="s">
+      <c r="U20" s="81" t="s">
         <v>203</v>
-      </c>
-      <c r="U20" s="81" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:21" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3018,11 +3020,11 @@
         <v>127</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F22" s="14"/>
       <c r="G22" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H22" s="16">
         <v>20</v>
@@ -3031,7 +3033,7 @@
         <v>90</v>
       </c>
       <c r="J22" s="45" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K22" s="17" t="s">
         <v>69</v>
@@ -3044,7 +3046,7 @@
       </c>
       <c r="N22" s="19"/>
       <c r="O22" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="P22" s="50" t="s">
         <v>19</v>
@@ -3053,16 +3055,16 @@
         <v>6</v>
       </c>
       <c r="R22" s="80" t="s">
+        <v>200</v>
+      </c>
+      <c r="S22" s="80" t="s">
         <v>201</v>
       </c>
-      <c r="S22" s="80" t="s">
-        <v>202</v>
-      </c>
       <c r="T22" s="80" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="U22" s="81" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:21" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3116,7 +3118,7 @@
         <v>101</v>
       </c>
       <c r="T23" s="77" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="U23" s="78" t="s">
         <v>102</v>
@@ -3360,7 +3362,7 @@
       <c r="E28" s="13"/>
       <c r="F28" s="14"/>
       <c r="G28" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H28" s="16">
         <v>26</v>
@@ -3414,7 +3416,7 @@
         <v>91</v>
       </c>
       <c r="J29" s="45" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K29" s="17" t="s">
         <v>69</v>
@@ -3462,7 +3464,7 @@
       <c r="E30" s="13"/>
       <c r="F30" s="14"/>
       <c r="G30" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H30" s="16">
         <v>28</v>
@@ -3471,7 +3473,7 @@
         <v>91</v>
       </c>
       <c r="J30" s="45" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K30" s="17" t="s">
         <v>69</v>
@@ -3497,7 +3499,7 @@
         <v>163</v>
       </c>
       <c r="T30" s="74" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="U30" s="75" t="s">
         <v>165</v>
@@ -3505,6 +3507,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="M1:N1"/>
@@ -3520,11 +3527,6 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4265,14 +4267,14 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="87"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
       <c r="G2" s="95"/>
-      <c r="H2" s="87"/>
+      <c r="H2" s="89"/>
     </row>
     <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="60" t="s">

--- a/fuentes/contenidos/grado08/guion05/ESCALETA_CN_08_05_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion05/ESCALETA_CN_08_05_CO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="30" windowWidth="10740" windowHeight="11640"/>
+    <workbookView xWindow="15" yWindow="30" windowWidth="10740" windowHeight="9240"/>
   </bookViews>
   <sheets>
     <sheet name="ESCALETA" sheetId="1" r:id="rId1"/>
@@ -1467,13 +1467,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1767,7 +1767,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1777,8 +1777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1794,14 +1794,14 @@
     <col min="10" max="10" width="92.28515625" customWidth="1"/>
     <col min="11" max="11" width="17.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" customWidth="1"/>
-    <col min="14" max="14" width="14" style="5" customWidth="1"/>
-    <col min="15" max="15" width="27.7109375" style="6" customWidth="1"/>
-    <col min="16" max="16" width="16.42578125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" style="5" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" style="6" customWidth="1"/>
+    <col min="16" max="16" width="9.5703125" style="3" customWidth="1"/>
     <col min="17" max="17" width="10.42578125" customWidth="1"/>
     <col min="18" max="18" width="11.140625" customWidth="1"/>
-    <col min="19" max="19" width="44.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="60.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="34.7109375" customWidth="1"/>
+    <col min="20" max="20" width="37.42578125" customWidth="1"/>
     <col min="21" max="21" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1842,10 +1842,10 @@
       <c r="L1" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="87" t="s">
+      <c r="M1" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="88"/>
+      <c r="N1" s="89"/>
       <c r="O1" s="85" t="s">
         <v>12</v>
       </c>
@@ -1869,8 +1869,8 @@
       </c>
     </row>
     <row r="2" spans="1:21" s="8" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
       <c r="C2" s="86"/>
       <c r="D2" s="86"/>
       <c r="E2" s="86"/>
@@ -1889,11 +1889,11 @@
       </c>
       <c r="O2" s="86"/>
       <c r="P2" s="86"/>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="89"/>
-      <c r="S2" s="89"/>
-      <c r="T2" s="89"/>
-      <c r="U2" s="89"/>
+      <c r="Q2" s="87"/>
+      <c r="R2" s="87"/>
+      <c r="S2" s="87"/>
+      <c r="T2" s="87"/>
+      <c r="U2" s="87"/>
     </row>
     <row r="3" spans="1:21" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
@@ -3507,11 +3507,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="M1:N1"/>
@@ -3527,6 +3522,11 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4267,14 +4267,14 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="95"/>
-      <c r="H2" s="89"/>
+      <c r="H2" s="87"/>
     </row>
     <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="60" t="s">

--- a/fuentes/contenidos/grado08/guion05/ESCALETA_CN_08_05_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion05/ESCALETA_CN_08_05_CO.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mpgarcia\Desktop\CienciasNaturales\fuentes\contenidos\grado08\guion05\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="15" yWindow="30" windowWidth="10740" windowHeight="9240"/>
   </bookViews>
@@ -11,6 +16,9 @@
     <sheet name="DATOS" sheetId="2" state="hidden" r:id="rId2"/>
     <sheet name="VER" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ESCALETA!$A$1:$U$30</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1467,13 +1475,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1767,7 +1775,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1777,8 +1785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" topLeftCell="G10" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8:K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1842,10 +1850,10 @@
       <c r="L1" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="88" t="s">
+      <c r="M1" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="89"/>
+      <c r="N1" s="88"/>
       <c r="O1" s="85" t="s">
         <v>12</v>
       </c>
@@ -1869,8 +1877,8 @@
       </c>
     </row>
     <row r="2" spans="1:21" s="8" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="87"/>
-      <c r="B2" s="87"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
       <c r="C2" s="86"/>
       <c r="D2" s="86"/>
       <c r="E2" s="86"/>
@@ -1889,11 +1897,11 @@
       </c>
       <c r="O2" s="86"/>
       <c r="P2" s="86"/>
-      <c r="Q2" s="87"/>
-      <c r="R2" s="87"/>
-      <c r="S2" s="87"/>
-      <c r="T2" s="87"/>
-      <c r="U2" s="87"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="89"/>
+      <c r="S2" s="89"/>
+      <c r="T2" s="89"/>
+      <c r="U2" s="89"/>
     </row>
     <row r="3" spans="1:21" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
@@ -3506,7 +3514,15 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:U30">
+    <filterColumn colId="12" showButton="0"/>
+  </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="M1:N1"/>
@@ -3522,11 +3538,6 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4267,14 +4278,14 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="87"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
       <c r="G2" s="95"/>
-      <c r="H2" s="87"/>
+      <c r="H2" s="89"/>
     </row>
     <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="60" t="s">

--- a/fuentes/contenidos/grado08/guion05/ESCALETA_CN_08_05_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion05/ESCALETA_CN_08_05_CO.xlsx
@@ -1,24 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mpgarcia\Desktop\CienciasNaturales\fuentes\contenidos\grado08\guion05\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15" yWindow="30" windowWidth="10740" windowHeight="9240"/>
+    <workbookView xWindow="15" yWindow="30" windowWidth="10740" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="ESCALETA" sheetId="1" r:id="rId1"/>
     <sheet name="DATOS" sheetId="2" state="hidden" r:id="rId2"/>
     <sheet name="VER" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ESCALETA!$A$1:$U$30</definedName>
-  </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -418,9 +410,6 @@
     <t xml:space="preserve">Los hábitos saludables en la sexualidad </t>
   </si>
   <si>
-    <t>Hábitos saludables en la sexualidad</t>
-  </si>
-  <si>
     <t>Aprende los hábitos saludables en la sexualidad</t>
   </si>
   <si>
@@ -680,6 +669,9 @@
   </si>
   <si>
     <t>Interactivo con animación incluida que permite conocer la técnica de fecundación in vitro</t>
+  </si>
+  <si>
+    <t>Los hábitos saludables en la sexualidad</t>
   </si>
 </sst>
 </file>
@@ -1475,13 +1467,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1775,7 +1767,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1785,8 +1777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G10" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8:K30"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1802,14 +1794,14 @@
     <col min="10" max="10" width="92.28515625" customWidth="1"/>
     <col min="11" max="11" width="17.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" customWidth="1"/>
-    <col min="14" max="14" width="8.5703125" style="5" customWidth="1"/>
-    <col min="15" max="15" width="8.5703125" style="6" customWidth="1"/>
-    <col min="16" max="16" width="9.5703125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" customWidth="1"/>
+    <col min="14" max="14" width="14" style="5" customWidth="1"/>
+    <col min="15" max="15" width="27.7109375" style="6" customWidth="1"/>
+    <col min="16" max="16" width="16.42578125" style="3" customWidth="1"/>
     <col min="17" max="17" width="10.42578125" customWidth="1"/>
     <col min="18" max="18" width="11.140625" customWidth="1"/>
-    <col min="19" max="19" width="34.7109375" customWidth="1"/>
-    <col min="20" max="20" width="37.42578125" customWidth="1"/>
+    <col min="19" max="19" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="60.7109375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1850,10 +1842,10 @@
       <c r="L1" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="87" t="s">
+      <c r="M1" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="88"/>
+      <c r="N1" s="89"/>
       <c r="O1" s="85" t="s">
         <v>12</v>
       </c>
@@ -1877,8 +1869,8 @@
       </c>
     </row>
     <row r="2" spans="1:21" s="8" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
       <c r="C2" s="86"/>
       <c r="D2" s="86"/>
       <c r="E2" s="86"/>
@@ -1897,11 +1889,11 @@
       </c>
       <c r="O2" s="86"/>
       <c r="P2" s="86"/>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="89"/>
-      <c r="S2" s="89"/>
-      <c r="T2" s="89"/>
-      <c r="U2" s="89"/>
+      <c r="Q2" s="87"/>
+      <c r="R2" s="87"/>
+      <c r="S2" s="87"/>
+      <c r="T2" s="87"/>
+      <c r="U2" s="87"/>
     </row>
     <row r="3" spans="1:21" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
@@ -1930,7 +1922,7 @@
         <v>90</v>
       </c>
       <c r="J3" s="39" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K3" s="40" t="s">
         <v>70</v>
@@ -1941,7 +1933,7 @@
       <c r="M3" s="42"/>
       <c r="N3" s="42"/>
       <c r="O3" s="41" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P3" s="49" t="s">
         <v>19</v>
@@ -1989,7 +1981,7 @@
         <v>90</v>
       </c>
       <c r="J4" s="45" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K4" s="17" t="s">
         <v>70</v>
@@ -2000,7 +1992,7 @@
       <c r="M4" s="19"/>
       <c r="N4" s="19"/>
       <c r="O4" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P4" s="50" t="s">
         <v>19</v>
@@ -2039,7 +2031,7 @@
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H5" s="16">
         <v>3</v>
@@ -2048,7 +2040,7 @@
         <v>91</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K5" s="17" t="s">
         <v>70</v>
@@ -2096,7 +2088,7 @@
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H6" s="16">
         <v>4</v>
@@ -2105,7 +2097,7 @@
         <v>91</v>
       </c>
       <c r="J6" s="45" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K6" s="17" t="s">
         <v>70</v>
@@ -2210,7 +2202,7 @@
       </c>
       <c r="F8" s="47"/>
       <c r="G8" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H8" s="16">
         <v>6</v>
@@ -2219,7 +2211,7 @@
         <v>91</v>
       </c>
       <c r="J8" s="45" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K8" s="17" t="s">
         <v>69</v>
@@ -2232,7 +2224,7 @@
         <v>22</v>
       </c>
       <c r="O8" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="P8" s="50" t="s">
         <v>19</v>
@@ -2241,16 +2233,16 @@
         <v>6</v>
       </c>
       <c r="R8" s="73" t="s">
+        <v>161</v>
+      </c>
+      <c r="S8" s="73" t="s">
         <v>162</v>
       </c>
-      <c r="S8" s="73" t="s">
-        <v>163</v>
-      </c>
       <c r="T8" s="74" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="U8" s="75" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -2271,7 +2263,7 @@
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H9" s="16">
         <v>7</v>
@@ -2280,7 +2272,7 @@
         <v>91</v>
       </c>
       <c r="J9" s="45" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K9" s="17" t="s">
         <v>69</v>
@@ -2300,16 +2292,16 @@
         <v>6</v>
       </c>
       <c r="R9" s="73" t="s">
+        <v>161</v>
+      </c>
+      <c r="S9" s="73" t="s">
         <v>162</v>
       </c>
-      <c r="S9" s="73" t="s">
+      <c r="T9" s="74" t="s">
         <v>163</v>
       </c>
-      <c r="T9" s="74" t="s">
+      <c r="U9" s="75" t="s">
         <v>164</v>
-      </c>
-      <c r="U9" s="75" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -2330,7 +2322,7 @@
       </c>
       <c r="F10" s="47"/>
       <c r="G10" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H10" s="16">
         <v>8</v>
@@ -2339,7 +2331,7 @@
         <v>91</v>
       </c>
       <c r="J10" s="45" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K10" s="17" t="s">
         <v>69</v>
@@ -2352,7 +2344,7 @@
         <v>62</v>
       </c>
       <c r="O10" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P10" s="50" t="s">
         <v>19</v>
@@ -2361,16 +2353,16 @@
         <v>6</v>
       </c>
       <c r="R10" s="70" t="s">
+        <v>161</v>
+      </c>
+      <c r="S10" s="70" t="s">
         <v>162</v>
       </c>
-      <c r="S10" s="70" t="s">
-        <v>163</v>
-      </c>
       <c r="T10" s="70" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="U10" s="71" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -2400,7 +2392,7 @@
         <v>90</v>
       </c>
       <c r="J11" s="45" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K11" s="17" t="s">
         <v>70</v>
@@ -2411,7 +2403,7 @@
       <c r="M11" s="19"/>
       <c r="N11" s="19"/>
       <c r="O11" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P11" s="50" t="s">
         <v>19</v>
@@ -2459,7 +2451,7 @@
         <v>91</v>
       </c>
       <c r="J12" s="21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K12" s="17" t="s">
         <v>69</v>
@@ -2479,16 +2471,16 @@
         <v>6</v>
       </c>
       <c r="R12" s="73" t="s">
+        <v>161</v>
+      </c>
+      <c r="S12" s="73" t="s">
         <v>162</v>
       </c>
-      <c r="S12" s="73" t="s">
-        <v>163</v>
-      </c>
       <c r="T12" s="74" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="U12" s="75" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -2518,7 +2510,7 @@
         <v>91</v>
       </c>
       <c r="J13" s="48" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K13" s="17" t="s">
         <v>70</v>
@@ -2573,7 +2565,7 @@
         <v>90</v>
       </c>
       <c r="J14" s="45" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K14" s="17" t="s">
         <v>70</v>
@@ -2630,7 +2622,7 @@
         <v>90</v>
       </c>
       <c r="J15" s="45" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K15" s="17" t="s">
         <v>70</v>
@@ -2641,7 +2633,7 @@
       <c r="M15" s="19"/>
       <c r="N15" s="19"/>
       <c r="O15" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P15" s="50" t="s">
         <v>19</v>
@@ -2680,7 +2672,7 @@
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H16" s="16">
         <v>14</v>
@@ -2689,7 +2681,7 @@
         <v>91</v>
       </c>
       <c r="J16" s="45" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K16" s="17" t="s">
         <v>69</v>
@@ -2702,7 +2694,7 @@
         <v>60</v>
       </c>
       <c r="O16" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P16" s="50" t="s">
         <v>20</v>
@@ -2711,16 +2703,16 @@
         <v>6</v>
       </c>
       <c r="R16" s="73" t="s">
+        <v>161</v>
+      </c>
+      <c r="S16" s="73" t="s">
         <v>162</v>
       </c>
-      <c r="S16" s="73" t="s">
-        <v>163</v>
-      </c>
       <c r="T16" s="74" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="U16" s="75" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:21" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2750,7 +2742,7 @@
         <v>91</v>
       </c>
       <c r="J17" s="45" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K17" s="17" t="s">
         <v>70</v>
@@ -2807,7 +2799,7 @@
         <v>90</v>
       </c>
       <c r="J18" s="45" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K18" s="17" t="s">
         <v>70</v>
@@ -2818,7 +2810,7 @@
       <c r="M18" s="19"/>
       <c r="N18" s="19"/>
       <c r="O18" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P18" s="50" t="s">
         <v>19</v>
@@ -2857,7 +2849,7 @@
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H19" s="16">
         <v>17</v>
@@ -2866,7 +2858,7 @@
         <v>91</v>
       </c>
       <c r="J19" s="45" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K19" s="17" t="s">
         <v>70</v>
@@ -2914,7 +2906,7 @@
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="15" t="s">
-        <v>129</v>
+        <v>216</v>
       </c>
       <c r="H20" s="16">
         <v>18</v>
@@ -2923,7 +2915,7 @@
         <v>90</v>
       </c>
       <c r="J20" s="45" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K20" s="17" t="s">
         <v>69</v>
@@ -2936,7 +2928,7 @@
       </c>
       <c r="N20" s="19"/>
       <c r="O20" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P20" s="50" t="s">
         <v>19</v>
@@ -2945,16 +2937,16 @@
         <v>6</v>
       </c>
       <c r="R20" s="80" t="s">
+        <v>199</v>
+      </c>
+      <c r="S20" s="80" t="s">
         <v>200</v>
       </c>
-      <c r="S20" s="80" t="s">
+      <c r="T20" s="80" t="s">
         <v>201</v>
       </c>
-      <c r="T20" s="80" t="s">
+      <c r="U20" s="81" t="s">
         <v>202</v>
-      </c>
-      <c r="U20" s="81" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:21" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2975,7 +2967,7 @@
       </c>
       <c r="F21" s="14"/>
       <c r="G21" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H21" s="16">
         <v>19</v>
@@ -2984,7 +2976,7 @@
         <v>91</v>
       </c>
       <c r="J21" s="45" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K21" s="17" t="s">
         <v>70</v>
@@ -3008,7 +3000,7 @@
         <v>101</v>
       </c>
       <c r="T21" s="80" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="U21" s="81" t="s">
         <v>102</v>
@@ -3028,11 +3020,11 @@
         <v>127</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F22" s="14"/>
       <c r="G22" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H22" s="16">
         <v>20</v>
@@ -3041,7 +3033,7 @@
         <v>90</v>
       </c>
       <c r="J22" s="45" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K22" s="17" t="s">
         <v>69</v>
@@ -3054,7 +3046,7 @@
       </c>
       <c r="N22" s="19"/>
       <c r="O22" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="P22" s="50" t="s">
         <v>19</v>
@@ -3063,16 +3055,16 @@
         <v>6</v>
       </c>
       <c r="R22" s="80" t="s">
+        <v>199</v>
+      </c>
+      <c r="S22" s="80" t="s">
         <v>200</v>
       </c>
-      <c r="S22" s="80" t="s">
-        <v>201</v>
-      </c>
       <c r="T22" s="80" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="U22" s="81" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="1:21" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3089,11 +3081,11 @@
         <v>127</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F23" s="14"/>
       <c r="G23" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H23" s="16">
         <v>21</v>
@@ -3102,7 +3094,7 @@
         <v>90</v>
       </c>
       <c r="J23" s="45" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K23" s="17" t="s">
         <v>70</v>
@@ -3126,7 +3118,7 @@
         <v>101</v>
       </c>
       <c r="T23" s="77" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="U23" s="78" t="s">
         <v>102</v>
@@ -3150,7 +3142,7 @@
       </c>
       <c r="F24" s="14"/>
       <c r="G24" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H24" s="16">
         <v>22</v>
@@ -3159,7 +3151,7 @@
         <v>91</v>
       </c>
       <c r="J24" s="45" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K24" s="17" t="s">
         <v>70</v>
@@ -3183,7 +3175,7 @@
         <v>101</v>
       </c>
       <c r="T24" s="83" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="U24" s="84" t="s">
         <v>102</v>
@@ -3200,12 +3192,12 @@
         <v>96</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="14"/>
       <c r="G25" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H25" s="16">
         <v>23</v>
@@ -3214,7 +3206,7 @@
         <v>91</v>
       </c>
       <c r="J25" s="45" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K25" s="17" t="s">
         <v>70</v>
@@ -3238,7 +3230,7 @@
         <v>101</v>
       </c>
       <c r="T25" s="80" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U25" s="81" t="s">
         <v>102</v>
@@ -3255,12 +3247,12 @@
         <v>96</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="14"/>
       <c r="G26" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H26" s="16">
         <v>24</v>
@@ -3269,7 +3261,7 @@
         <v>91</v>
       </c>
       <c r="J26" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K26" s="17" t="s">
         <v>70</v>
@@ -3293,7 +3285,7 @@
         <v>101</v>
       </c>
       <c r="T26" s="77" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="U26" s="78" t="s">
         <v>102</v>
@@ -3310,12 +3302,12 @@
         <v>96</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="14"/>
       <c r="G27" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H27" s="16">
         <v>25</v>
@@ -3324,7 +3316,7 @@
         <v>91</v>
       </c>
       <c r="J27" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K27" s="17" t="s">
         <v>70</v>
@@ -3348,7 +3340,7 @@
         <v>101</v>
       </c>
       <c r="T27" s="77" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="U27" s="78" t="s">
         <v>102</v>
@@ -3365,12 +3357,12 @@
         <v>96</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="14"/>
       <c r="G28" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H28" s="16">
         <v>26</v>
@@ -3379,7 +3371,7 @@
         <v>91</v>
       </c>
       <c r="J28" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K28" s="17" t="s">
         <v>69</v>
@@ -3410,7 +3402,7 @@
         <v>96</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="14"/>
@@ -3424,7 +3416,7 @@
         <v>91</v>
       </c>
       <c r="J29" s="45" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K29" s="17" t="s">
         <v>69</v>
@@ -3444,16 +3436,16 @@
         <v>6</v>
       </c>
       <c r="R29" s="73" t="s">
+        <v>161</v>
+      </c>
+      <c r="S29" s="73" t="s">
         <v>162</v>
       </c>
-      <c r="S29" s="73" t="s">
-        <v>163</v>
-      </c>
       <c r="T29" s="74" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="U29" s="75" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -3467,12 +3459,12 @@
         <v>96</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E30" s="13"/>
       <c r="F30" s="14"/>
       <c r="G30" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H30" s="16">
         <v>28</v>
@@ -3481,7 +3473,7 @@
         <v>91</v>
       </c>
       <c r="J30" s="45" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K30" s="17" t="s">
         <v>69</v>
@@ -3501,28 +3493,20 @@
         <v>6</v>
       </c>
       <c r="R30" s="73" t="s">
+        <v>161</v>
+      </c>
+      <c r="S30" s="73" t="s">
         <v>162</v>
       </c>
-      <c r="S30" s="73" t="s">
-        <v>163</v>
-      </c>
       <c r="T30" s="74" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="U30" s="75" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U30">
-    <filterColumn colId="12" showButton="0"/>
-  </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="M1:N1"/>
@@ -3538,6 +3522,11 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4278,14 +4267,14 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="95"/>
-      <c r="H2" s="89"/>
+      <c r="H2" s="87"/>
     </row>
     <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="60" t="s">
@@ -4305,10 +4294,10 @@
       </c>
       <c r="F3" s="61"/>
       <c r="G3" s="62" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H3" s="63" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4329,10 +4318,10 @@
       </c>
       <c r="F4" s="28"/>
       <c r="G4" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="H4" s="64" t="s">
         <v>145</v>
-      </c>
-      <c r="H4" s="64" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4353,10 +4342,10 @@
       </c>
       <c r="F5" s="28"/>
       <c r="G5" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="H5" s="64" t="s">
         <v>147</v>
-      </c>
-      <c r="H5" s="64" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4377,10 +4366,10 @@
       </c>
       <c r="F6" s="28"/>
       <c r="G6" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H6" s="64" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4401,10 +4390,10 @@
       </c>
       <c r="F7" s="28"/>
       <c r="G7" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H7" s="64" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4425,10 +4414,10 @@
       </c>
       <c r="F8" s="28"/>
       <c r="G8" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H8" s="64" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4449,10 +4438,10 @@
       </c>
       <c r="F9" s="28"/>
       <c r="G9" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="H9" s="64" t="s">
         <v>150</v>
-      </c>
-      <c r="H9" s="64" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4473,10 +4462,10 @@
       </c>
       <c r="F10" s="28"/>
       <c r="G10" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="H10" s="64" t="s">
         <v>152</v>
-      </c>
-      <c r="H10" s="64" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4495,10 +4484,10 @@
       <c r="E11" s="28"/>
       <c r="F11" s="28"/>
       <c r="G11" s="29" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H11" s="64" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -4517,10 +4506,10 @@
       <c r="E12" s="28"/>
       <c r="F12" s="28"/>
       <c r="G12" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="H12" s="64" t="s">
         <v>155</v>
-      </c>
-      <c r="H12" s="64" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4541,10 +4530,10 @@
       </c>
       <c r="F13" s="28"/>
       <c r="G13" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="H13" s="64" t="s">
         <v>157</v>
-      </c>
-      <c r="H13" s="64" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4565,10 +4554,10 @@
       </c>
       <c r="F14" s="28"/>
       <c r="G14" s="29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H14" s="64" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4589,10 +4578,10 @@
       </c>
       <c r="F15" s="28"/>
       <c r="G15" s="29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H15" s="64" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4611,10 +4600,10 @@
       <c r="E16" s="66"/>
       <c r="F16" s="66"/>
       <c r="G16" s="67" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H16" s="68" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
